--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -38,9 +38,9 @@
     <sheet name="Alabama" sheetId="29" r:id="rId29"/>
     <sheet name="Arkansas" sheetId="30" r:id="rId30"/>
     <sheet name="Oregon" sheetId="31" r:id="rId31"/>
-    <sheet name="Washington, D.C." sheetId="32" r:id="rId32"/>
-    <sheet name="Oklahoma" sheetId="33" r:id="rId33"/>
-    <sheet name="Kentucky" sheetId="34" r:id="rId34"/>
+    <sheet name="Kentucky" sheetId="32" r:id="rId32"/>
+    <sheet name="Washington, D.C." sheetId="33" r:id="rId33"/>
+    <sheet name="Oklahoma" sheetId="34" r:id="rId34"/>
     <sheet name="Iowa" sheetId="35" r:id="rId35"/>
     <sheet name="Maine" sheetId="36" r:id="rId36"/>
     <sheet name="Rhode Island" sheetId="37" r:id="rId37"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1097">
   <si>
     <t>confirmed</t>
   </si>
@@ -120,12 +120,12 @@
     <t>Putnam</t>
   </si>
   <si>
+    <t>Onondaga</t>
+  </si>
+  <si>
     <t>Ulster</t>
   </si>
   <si>
-    <t>Onondaga</t>
-  </si>
-  <si>
     <t>Saratoga</t>
   </si>
   <si>
@@ -396,6 +396,9 @@
     <t>Humboldt</t>
   </si>
   <si>
+    <t>Yuba-Sutter</t>
+  </si>
+  <si>
     <t>Nevada</t>
   </si>
   <si>
@@ -414,9 +417,6 @@
     <t>Siskiyou</t>
   </si>
   <si>
-    <t>Yuba</t>
-  </si>
-  <si>
     <t>Calaveras</t>
   </si>
   <si>
@@ -675,19 +675,22 @@
     <t>McHenry</t>
   </si>
   <si>
+    <t>Winnebago</t>
+  </si>
+  <si>
     <t>McLean</t>
   </si>
   <si>
+    <t>Kendall</t>
+  </si>
+  <si>
     <t>Kankakee</t>
   </si>
   <si>
     <t>Sangamon</t>
   </si>
   <si>
-    <t>Winnebago</t>
-  </si>
-  <si>
-    <t>Kendall</t>
+    <t>Peoria</t>
   </si>
   <si>
     <t>Champaign</t>
@@ -696,12 +699,12 @@
     <t>Woodford</t>
   </si>
   <si>
-    <t>Peoria</t>
-  </si>
-  <si>
     <t>LaSalle</t>
   </si>
   <si>
+    <t>Rock Island</t>
+  </si>
+  <si>
     <t>Whiteside</t>
   </si>
   <si>
@@ -717,12 +720,15 @@
     <t>Stephenson</t>
   </si>
   <si>
-    <t>Rock Island</t>
-  </si>
-  <si>
     <t>Grundy</t>
   </si>
   <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
     <t>Massachusetts (State-level)</t>
   </si>
   <si>
@@ -1062,6 +1068,12 @@
     <t>Lebanon</t>
   </si>
   <si>
+    <t>​Clearfield</t>
+  </si>
+  <si>
+    <t>​Somerset</t>
+  </si>
+  <si>
     <t>Potter</t>
   </si>
   <si>
@@ -1077,18 +1089,9 @@
     <t>​Carbon</t>
   </si>
   <si>
-    <t>​Clearfield</t>
-  </si>
-  <si>
     <t>​Juniata</t>
   </si>
   <si>
-    <t>​Somerset</t>
-  </si>
-  <si>
-    <t>Clearfield</t>
-  </si>
-  <si>
     <t>Lawrence</t>
   </si>
   <si>
@@ -1719,9 +1722,6 @@
     <t>Grand</t>
   </si>
   <si>
-    <t>Logan</t>
-  </si>
-  <si>
     <t>Crowley</t>
   </si>
   <si>
@@ -1998,6 +1998,9 @@
     <t>Beaufort</t>
   </si>
   <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
     <t>Moore</t>
   </si>
   <si>
@@ -2052,9 +2055,6 @@
     <t>Duplin</t>
   </si>
   <si>
-    <t>Caldwell</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
@@ -2220,6 +2220,12 @@
     <t>Dorchester</t>
   </si>
   <si>
+    <t>Abbeville</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
     <t>Aiken</t>
   </si>
   <si>
@@ -2229,9 +2235,6 @@
     <t>Georgetown</t>
   </si>
   <si>
-    <t>Abbeville</t>
-  </si>
-  <si>
     <t>Saluda</t>
   </si>
   <si>
@@ -2250,7 +2253,7 @@
     <t>Marlboro</t>
   </si>
   <si>
-    <t>Chesterfield</t>
+    <t>Williamsburg</t>
   </si>
   <si>
     <t>Arizona (State-level)</t>
@@ -2319,9 +2322,6 @@
     <t>Stafford</t>
   </si>
   <si>
-    <t>Williamsburg</t>
-  </si>
-  <si>
     <t>Albemarle</t>
   </si>
   <si>
@@ -2415,6 +2415,9 @@
     <t>Fairfax City</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Mississippi (State-level)</t>
   </si>
   <si>
@@ -2460,9 +2463,6 @@
     <t>Bolivar</t>
   </si>
   <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>Attala</t>
   </si>
   <si>
@@ -2811,18 +2811,57 @@
     <t>Umatilla</t>
   </si>
   <si>
+    <t>Josephine</t>
+  </si>
+  <si>
     <t>Klamath</t>
   </si>
   <si>
-    <t>Josephine</t>
-  </si>
-  <si>
     <t>Hood River</t>
   </si>
   <si>
     <t>Clatsop</t>
   </si>
   <si>
+    <t>Kentucky (State-level)</t>
+  </si>
+  <si>
+    <t>Daviess</t>
+  </si>
+  <si>
+    <t>Kenton</t>
+  </si>
+  <si>
+    <t>Bourbon</t>
+  </si>
+  <si>
+    <t>Breathitt</t>
+  </si>
+  <si>
+    <t>Muhlenberg</t>
+  </si>
+  <si>
+    <t>McCracken</t>
+  </si>
+  <si>
+    <t>Calloway</t>
+  </si>
+  <si>
+    <t>Jessamine</t>
+  </si>
+  <si>
+    <t>Menifee</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Northern Kentucky</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
     <t>Washington, D.C. (State-level)</t>
   </si>
   <si>
@@ -2883,45 +2922,6 @@
     <t>Pottawatomie</t>
   </si>
   <si>
-    <t>Kentucky (State-level)</t>
-  </si>
-  <si>
-    <t>Daviess</t>
-  </si>
-  <si>
-    <t>Kenton</t>
-  </si>
-  <si>
-    <t>Bourbon</t>
-  </si>
-  <si>
-    <t>Breathitt</t>
-  </si>
-  <si>
-    <t>Muhlenberg</t>
-  </si>
-  <si>
-    <t>McCracken</t>
-  </si>
-  <si>
-    <t>Calloway</t>
-  </si>
-  <si>
-    <t>Jessamine</t>
-  </si>
-  <si>
-    <t>Menifee</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <t>Northern Kentucky</t>
-  </si>
-  <si>
-    <t>Laurel</t>
-  </si>
-  <si>
     <t>Iowa (State-level)</t>
   </si>
   <si>
@@ -2973,6 +2973,9 @@
     <t>Cedar</t>
   </si>
   <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
     <t>Maine (State-level)</t>
   </si>
   <si>
@@ -3025,9 +3028,6 @@
   </si>
   <si>
     <t>Neosho</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>Vermont (State-level)</t>
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>30825</v>
+        <v>30841</v>
       </c>
       <c r="C2">
         <v>285</v>
@@ -3911,13 +3911,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3928,10 +3928,10 @@
         <v>65</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4498,7 +4498,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B2">
         <v>1260</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B3">
         <v>342</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B6">
         <v>88</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B7">
         <v>86</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B8">
         <v>54</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B10">
         <v>44</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B11">
         <v>38</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B12">
         <v>27</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>332</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5145,34 +5145,6 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
         <v>0</v>
       </c>
     </row>
@@ -5205,7 +5177,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B2">
         <v>1247</v>
@@ -5247,7 +5219,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5">
         <v>116</v>
@@ -5261,7 +5233,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B6">
         <v>109</v>
@@ -5275,7 +5247,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B7">
         <v>101</v>
@@ -5289,7 +5261,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B8">
         <v>78</v>
@@ -5303,7 +5275,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B9">
         <v>48</v>
@@ -5317,7 +5289,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B10">
         <v>31</v>
@@ -5331,7 +5303,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -5345,7 +5317,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -5359,7 +5331,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B13">
         <v>22</v>
@@ -5373,7 +5345,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B14">
         <v>19</v>
@@ -5387,7 +5359,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -5415,7 +5387,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -5429,7 +5401,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -5443,7 +5415,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -5457,7 +5429,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -5471,7 +5443,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -5485,7 +5457,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -5499,7 +5471,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -5513,7 +5485,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -5527,7 +5499,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -5541,7 +5513,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5555,7 +5527,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -5569,7 +5541,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -5583,7 +5555,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -5597,7 +5569,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -5625,7 +5597,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -5639,7 +5611,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -5653,7 +5625,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -5667,7 +5639,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5681,7 +5653,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -5695,7 +5667,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -5709,7 +5681,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -5723,7 +5695,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -5737,7 +5709,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -5751,7 +5723,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -5765,7 +5737,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -5779,7 +5751,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -5793,7 +5765,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -5807,7 +5779,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -5821,7 +5793,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -5835,7 +5807,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -5849,7 +5821,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5863,7 +5835,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -5891,7 +5863,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -5905,7 +5877,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -5919,7 +5891,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -5933,7 +5905,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -5947,7 +5919,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -5961,7 +5933,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -5975,7 +5947,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -5989,7 +5961,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -6003,7 +5975,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -6031,7 +6003,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -6045,7 +6017,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -6073,7 +6045,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -6087,7 +6059,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -6101,7 +6073,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -6115,7 +6087,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -6129,7 +6101,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -6143,7 +6115,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -6157,7 +6129,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6171,7 +6143,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -6185,7 +6157,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6199,7 +6171,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -6227,7 +6199,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -6241,7 +6213,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -6255,7 +6227,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -6283,7 +6255,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6311,7 +6283,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -6325,7 +6297,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6339,7 +6311,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -6367,7 +6339,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6381,7 +6353,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6395,7 +6367,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6409,7 +6381,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6423,7 +6395,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -6437,7 +6409,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6451,7 +6423,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -6465,7 +6437,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -6479,7 +6451,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -6493,7 +6465,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -6521,7 +6493,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -6535,7 +6507,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -6549,7 +6521,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -6563,7 +6535,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -6577,7 +6549,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -6618,7 +6590,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B2">
         <v>1187</v>
@@ -6632,7 +6604,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B3">
         <v>247</v>
@@ -6646,7 +6618,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B4">
         <v>145</v>
@@ -6660,7 +6632,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B5">
         <v>98</v>
@@ -6674,7 +6646,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B6">
         <v>90</v>
@@ -6688,7 +6660,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B7">
         <v>69</v>
@@ -6702,7 +6674,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B8">
         <v>53</v>
@@ -6716,7 +6688,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B9">
         <v>51</v>
@@ -6730,7 +6702,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B10">
         <v>46</v>
@@ -6758,7 +6730,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B12">
         <v>28</v>
@@ -6772,7 +6744,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B13">
         <v>24</v>
@@ -6786,7 +6758,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -6800,7 +6772,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B15">
         <v>22</v>
@@ -6814,7 +6786,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B16">
         <v>21</v>
@@ -6828,7 +6800,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -6842,7 +6814,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -6856,7 +6828,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -6870,7 +6842,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B20">
         <v>13</v>
@@ -6884,7 +6856,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -6898,7 +6870,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -6912,7 +6884,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -6926,7 +6898,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -6940,7 +6912,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -6954,7 +6926,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -6968,7 +6940,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -6982,7 +6954,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -6996,7 +6968,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -7024,7 +6996,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -7038,7 +7010,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -7066,7 +7038,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -7080,7 +7052,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -7094,7 +7066,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -7108,7 +7080,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -7122,7 +7094,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -7136,7 +7108,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -7150,7 +7122,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -7164,7 +7136,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -7178,7 +7150,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -7192,7 +7164,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -7206,7 +7178,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -7220,7 +7192,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -7234,7 +7206,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -7248,7 +7220,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -7262,7 +7234,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -7276,7 +7248,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -7290,7 +7262,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -7318,7 +7290,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -7332,7 +7304,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -7346,7 +7318,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7360,7 +7332,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7374,7 +7346,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7388,7 +7360,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7402,7 +7374,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7416,7 +7388,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7430,7 +7402,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7444,7 +7416,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7458,7 +7430,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7472,7 +7444,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7486,7 +7458,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7500,7 +7472,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7514,7 +7486,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7528,7 +7500,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7542,7 +7514,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -7556,7 +7528,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7570,7 +7542,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -7598,7 +7570,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -7612,7 +7584,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7626,7 +7598,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7640,7 +7612,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -7654,7 +7626,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7668,7 +7640,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -7682,7 +7654,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7696,7 +7668,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7710,7 +7682,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -7724,7 +7696,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -7738,7 +7710,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7752,7 +7724,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -7766,7 +7738,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7780,7 +7752,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7794,7 +7766,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7822,7 +7794,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7836,7 +7808,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -7850,7 +7822,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -7864,7 +7836,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -7878,7 +7850,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -7919,7 +7891,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B2">
         <v>917</v>
@@ -7933,7 +7905,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B3">
         <v>257</v>
@@ -7947,7 +7919,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B4">
         <v>170</v>
@@ -7961,7 +7933,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -7989,7 +7961,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B7">
         <v>66</v>
@@ -8003,7 +7975,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B8">
         <v>36</v>
@@ -8031,7 +8003,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -8045,7 +8017,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -8059,7 +8031,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -8073,7 +8045,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -8101,7 +8073,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -8143,7 +8115,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -8171,7 +8143,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -8185,7 +8157,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -8227,7 +8199,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -8241,7 +8213,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -8255,7 +8227,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -8269,7 +8241,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -8283,7 +8255,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -8297,7 +8269,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -8311,7 +8283,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -8339,7 +8311,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -8353,7 +8325,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8367,7 +8339,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -8381,7 +8353,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -8395,7 +8367,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -8409,7 +8381,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -8451,7 +8423,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -8465,7 +8437,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -8479,7 +8451,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -8493,7 +8465,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -8521,7 +8493,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8535,7 +8507,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8549,7 +8521,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8563,7 +8535,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8591,7 +8563,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8619,7 +8591,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8633,7 +8605,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8647,7 +8619,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8675,7 +8647,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8689,7 +8661,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8727,7 +8699,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B2">
         <v>912</v>
@@ -8741,7 +8713,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B3">
         <v>176</v>
@@ -8755,7 +8727,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B4">
         <v>106</v>
@@ -8769,7 +8741,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B5">
         <v>96</v>
@@ -8783,7 +8755,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B6">
         <v>76</v>
@@ -8811,7 +8783,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B8">
         <v>69</v>
@@ -8839,7 +8811,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B10">
         <v>49</v>
@@ -8853,7 +8825,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B11">
         <v>43</v>
@@ -8867,7 +8839,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -8895,7 +8867,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -8923,7 +8895,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -8937,7 +8909,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -8951,7 +8923,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -8965,7 +8937,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -8979,7 +8951,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -8993,7 +8965,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -9007,7 +8979,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -9021,7 +8993,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -9035,7 +9007,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -9049,7 +9021,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -9063,7 +9035,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -9077,7 +9049,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -9091,7 +9063,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -9105,7 +9077,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>549</v>
+        <v>218</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -9481,7 +9453,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B6">
         <v>42</v>
@@ -9537,7 +9509,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -9565,7 +9537,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -9719,7 +9691,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -9733,7 +9705,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -9845,7 +9817,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -9971,7 +9943,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -9985,7 +9957,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>549</v>
+        <v>218</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -10097,7 +10069,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -10139,7 +10111,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -10153,7 +10125,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -10239,13 +10211,13 @@
         <v>596</v>
       </c>
       <c r="B2">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10253,13 +10225,13 @@
         <v>597</v>
       </c>
       <c r="B3">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10404,7 +10376,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -10544,7 +10516,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -10558,7 +10530,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -10756,7 +10728,7 @@
         <v>618</v>
       </c>
       <c r="B2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -10837,7 +10809,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -10963,10 +10935,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -10977,7 +10949,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -10991,7 +10963,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>630</v>
+        <v>487</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -11005,7 +10977,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -11019,10 +10991,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11033,7 +11005,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>632</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -11089,7 +11061,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -11173,7 +11145,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -11201,7 +11173,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11246,7 +11218,7 @@
         <v>642</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11369,7 +11341,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>405</v>
+        <v>651</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -11383,7 +11355,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>651</v>
+        <v>406</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -11400,7 +11372,7 @@
         <v>652</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -11411,7 +11383,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>653</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -11425,7 +11397,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>653</v>
+        <v>146</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -11439,7 +11411,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>278</v>
+        <v>654</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -11453,7 +11425,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>654</v>
+        <v>280</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -11509,7 +11481,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>658</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -11523,7 +11495,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>658</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -11537,7 +11509,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>659</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -11551,7 +11523,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>313</v>
+        <v>157</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -11565,7 +11537,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>659</v>
+        <v>315</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -11673,7 +11645,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B3">
         <v>226</v>
@@ -11701,7 +11673,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -11785,7 +11757,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -11827,7 +11799,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -11855,7 +11827,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -11911,7 +11883,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -11995,7 +11967,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -12079,7 +12051,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -12093,7 +12065,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -12149,7 +12121,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -12233,7 +12205,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -12303,7 +12275,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -12317,7 +12289,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -12359,7 +12331,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -12373,7 +12345,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -12953,7 +12925,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -13037,7 +13009,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -13140,7 +13112,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13165,7 +13137,7 @@
         <v>703</v>
       </c>
       <c r="B2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -13190,7 +13162,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B4">
         <v>59</v>
@@ -13260,35 +13232,35 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>708</v>
+        <v>511</v>
       </c>
       <c r="B9">
         <v>19</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>510</v>
+        <v>708</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -13302,7 +13274,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -13358,10 +13330,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -13372,7 +13344,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -13445,7 +13417,7 @@
         <v>560</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -13456,10 +13428,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>278</v>
+        <v>716</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -13470,10 +13442,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -13484,7 +13456,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>717</v>
+        <v>280</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -13498,7 +13470,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>391</v>
+        <v>718</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -13512,7 +13484,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -13526,7 +13498,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -13540,10 +13512,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>720</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -13554,10 +13526,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>719</v>
+        <v>368</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -13568,7 +13540,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>720</v>
+        <v>163</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -13638,7 +13610,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>312</v>
+        <v>725</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -13652,7 +13624,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>725</v>
+        <v>314</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -13675,6 +13647,48 @@
         <v>0</v>
       </c>
       <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>0</v>
       </c>
     </row>
@@ -13707,7 +13721,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B2">
         <v>401</v>
@@ -13721,7 +13735,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B3">
         <v>251</v>
@@ -13735,7 +13749,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B4">
         <v>49</v>
@@ -13749,7 +13763,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B5">
         <v>37</v>
@@ -13763,7 +13777,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -13777,7 +13791,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -13791,7 +13805,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13805,7 +13819,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -13833,7 +13847,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -13861,7 +13875,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -13891,7 +13905,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13913,21 +13927,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B2">
         <v>398</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -13941,7 +13955,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B4">
         <v>46</v>
@@ -13955,7 +13969,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -13969,7 +13983,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -13983,7 +13997,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -13997,7 +14011,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -14011,7 +14025,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -14025,7 +14039,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -14039,7 +14053,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -14053,7 +14067,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -14067,7 +14081,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -14081,7 +14095,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -14095,7 +14109,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -14109,7 +14123,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -14123,7 +14137,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -14249,7 +14263,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -14389,7 +14403,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -14693,6 +14707,17 @@
       </c>
       <c r="D57">
         <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -14724,7 +14749,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B2">
         <v>377</v>
@@ -14738,7 +14763,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B3">
         <v>38</v>
@@ -14752,7 +14777,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -14780,7 +14805,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -14808,7 +14833,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -14822,7 +14847,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -14836,7 +14861,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -14850,7 +14875,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -14878,7 +14903,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -14892,7 +14917,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -14906,7 +14931,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -14920,7 +14945,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -14934,7 +14959,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -14948,7 +14973,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -14962,7 +14987,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -14976,7 +15001,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -14990,7 +15015,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -15018,7 +15043,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -15046,7 +15071,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -15060,7 +15085,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>796</v>
+        <v>217</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -15186,7 +15211,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -15242,7 +15267,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -15284,7 +15309,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -15382,7 +15407,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -15410,7 +15435,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -15424,7 +15449,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -15438,7 +15463,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -15466,7 +15491,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -15508,7 +15533,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -15522,7 +15547,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -15717,7 +15742,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -15731,7 +15756,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -15773,7 +15798,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -15829,7 +15854,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -15843,7 +15868,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -15885,7 +15910,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -15913,7 +15938,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -15927,7 +15952,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -15955,7 +15980,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -15969,7 +15994,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -16067,7 +16092,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -16095,7 +16120,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -16151,7 +16176,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -16165,7 +16190,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -16259,7 +16284,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B4">
         <v>89</v>
@@ -16649,7 +16674,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -16705,7 +16730,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -16803,7 +16828,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -16845,7 +16870,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -16971,7 +16996,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -17074,10 +17099,10 @@
         <v>283</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17096,7 +17121,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -17110,7 +17135,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>29</v>
@@ -17194,7 +17219,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -17208,7 +17233,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -17222,7 +17247,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -17264,7 +17289,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -17340,15 +17365,15 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -17362,7 +17387,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -17390,7 +17415,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -17418,7 +17443,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -17446,7 +17471,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -17460,7 +17485,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -17504,7 +17529,7 @@
         <v>78</v>
       </c>
       <c r="B2">
-        <v>2958</v>
+        <v>2968</v>
       </c>
       <c r="C2">
         <v>65</v>
@@ -17686,7 +17711,7 @@
         <v>90</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -17742,13 +17767,13 @@
         <v>94</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -17938,7 +17963,7 @@
         <v>108</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -17980,13 +18005,13 @@
         <v>111</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -17997,10 +18022,10 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -18158,7 +18183,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -18312,7 +18337,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -18382,7 +18407,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -18466,7 +18491,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -18522,7 +18547,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -18592,7 +18617,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -18662,7 +18687,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -18720,13 +18745,13 @@
         <v>905</v>
       </c>
       <c r="B2">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -18734,27 +18759,27 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18762,13 +18787,13 @@
         <v>906</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -18776,13 +18801,13 @@
         <v>907</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -18790,13 +18815,13 @@
         <v>908</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -18818,7 +18843,7 @@
         <v>910</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -18829,35 +18854,35 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>911</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>911</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -18885,7 +18910,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -18916,7 +18941,7 @@
         <v>913</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -18927,7 +18952,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>914</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -18941,7 +18966,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -18955,7 +18980,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>914</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -19015,6 +19040,565 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B2">
+        <v>198</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -19038,7 +19622,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
       <c r="B2">
         <v>187</v>
@@ -19052,7 +19636,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
       <c r="B3">
         <v>187</v>
@@ -19069,7 +19653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -19093,7 +19677,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
       <c r="B2">
         <v>164</v>
@@ -19107,7 +19691,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
       <c r="B3">
         <v>55</v>
@@ -19121,7 +19705,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -19135,7 +19719,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B5">
         <v>27</v>
@@ -19149,7 +19733,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -19163,7 +19747,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -19177,7 +19761,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -19191,7 +19775,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -19205,7 +19789,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -19219,7 +19803,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -19233,7 +19817,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>549</v>
+        <v>218</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -19261,7 +19845,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -19275,7 +19859,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -19331,7 +19915,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -19345,7 +19929,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -19359,7 +19943,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -19387,7 +19971,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -19401,7 +19985,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -19415,7 +19999,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -19443,7 +20027,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -19457,7 +20041,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -19471,7 +20055,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -19488,9 +20072,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19512,608 +20096,49 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
       <c r="B2">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>450</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B2">
-        <v>145</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B3">
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -20253,7 +20278,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -20351,7 +20376,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -20393,7 +20418,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -20407,7 +20432,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -20491,7 +20516,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -20514,6 +20539,20 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
     </row>
@@ -20546,7 +20585,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2">
         <v>142</v>
@@ -20574,7 +20613,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B4">
         <v>23</v>
@@ -20588,7 +20627,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -20616,7 +20655,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -20630,7 +20669,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -20644,7 +20683,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -20658,7 +20697,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -20686,7 +20725,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -20700,7 +20739,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -20741,7 +20780,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B2">
         <v>132</v>
@@ -20755,7 +20794,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B3">
         <v>52</v>
@@ -20783,7 +20822,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -20797,7 +20836,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -20866,10 +20905,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -20880,7 +20919,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B3">
         <v>44</v>
@@ -20894,7 +20933,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -20908,7 +20947,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -20922,7 +20961,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -20964,10 +21003,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>851</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -20978,10 +21017,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -20992,7 +21031,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -21006,7 +21045,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>981</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -21020,7 +21059,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>376</v>
+        <v>982</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -21034,7 +21073,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>851</v>
+        <v>377</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -21090,7 +21129,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -21104,7 +21143,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21118,7 +21157,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -21132,7 +21171,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -21146,7 +21185,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -21160,7 +21199,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>985</v>
+        <v>781</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -21352,7 +21391,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -21424,13 +21463,13 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <v>2472</v>
+        <v>2554</v>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D2">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21438,10 +21477,10 @@
         <v>122</v>
       </c>
       <c r="B3">
-        <v>1277</v>
+        <v>1359</v>
       </c>
       <c r="C3">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>7.4</v>
@@ -22035,7 +22074,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -22049,7 +22088,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -22784,7 +22823,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -22812,7 +22851,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -22826,7 +22865,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -23354,7 +23393,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -24332,7 +24371,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -24379,7 +24418,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24404,13 +24443,13 @@
         <v>1064</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -24432,7 +24471,7 @@
         <v>1066</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -24523,6 +24562,17 @@
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -24624,7 +24674,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -24903,7 +24953,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>796</v>
+        <v>217</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -25237,7 +25287,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25262,10 +25312,10 @@
         <v>194</v>
       </c>
       <c r="B2">
-        <v>1850</v>
+        <v>1865</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>0.9</v>
@@ -25321,10 +25371,10 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -25377,10 +25427,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -25388,13 +25438,13 @@
         <v>202</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -25402,13 +25452,13 @@
         <v>203</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -25416,7 +25466,7 @@
         <v>204</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -25430,18 +25480,18 @@
         <v>205</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -25455,10 +25505,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -25469,10 +25519,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -25497,7 +25547,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -25511,10 +25561,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -25525,10 +25575,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -25539,10 +25589,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -25553,21 +25603,21 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -25581,7 +25631,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -25595,7 +25645,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -25609,7 +25659,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -25623,7 +25673,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -25637,7 +25687,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -25651,7 +25701,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -25665,7 +25715,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -25679,7 +25729,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -25693,7 +25743,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -25707,13 +25757,58 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -25745,7 +25840,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B2">
         <v>1838</v>
@@ -25787,7 +25882,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>222</v>
@@ -25829,7 +25924,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B8">
         <v>129</v>
@@ -25843,7 +25938,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9">
         <v>101</v>
@@ -25857,7 +25952,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B10">
         <v>71</v>
@@ -25871,7 +25966,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11">
         <v>67</v>
@@ -25885,7 +25980,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B12">
         <v>51</v>
@@ -25899,7 +25994,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B13">
         <v>45</v>
@@ -25927,7 +26022,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -25941,7 +26036,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -25982,7 +26077,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2">
         <v>1795</v>
@@ -25996,7 +26091,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3">
         <v>827</v>
@@ -26024,7 +26119,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B5">
         <v>93</v>
@@ -26038,7 +26133,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B6">
         <v>75</v>
@@ -26052,7 +26147,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B7">
         <v>67</v>
@@ -26066,7 +26161,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B8">
         <v>65</v>
@@ -26080,7 +26175,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -26094,7 +26189,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B10">
         <v>25</v>
@@ -26108,7 +26203,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B11">
         <v>23</v>
@@ -26122,7 +26217,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -26136,7 +26231,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B13">
         <v>18</v>
@@ -26150,7 +26245,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -26164,7 +26259,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -26178,7 +26273,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -26192,7 +26287,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -26206,7 +26301,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B18">
         <v>14</v>
@@ -26234,7 +26329,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -26248,7 +26343,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -26262,7 +26357,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -26276,7 +26371,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -26290,7 +26385,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -26318,7 +26413,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -26332,7 +26427,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -26346,7 +26441,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -26360,7 +26455,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -26388,7 +26483,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -26402,7 +26497,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -26416,7 +26511,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -26430,7 +26525,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -26444,7 +26539,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -26458,7 +26553,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -26472,7 +26567,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -26486,7 +26581,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -26514,7 +26609,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -26528,7 +26623,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -26556,7 +26651,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -26570,7 +26665,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -26598,7 +26693,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -26612,7 +26707,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -26640,7 +26735,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -26654,7 +26749,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -26668,7 +26763,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -26709,7 +26804,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1682</v>
@@ -26723,7 +26818,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3">
         <v>400</v>
@@ -26737,7 +26832,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B4">
         <v>355</v>
@@ -26751,7 +26846,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B5">
         <v>118</v>
@@ -26765,7 +26860,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B6">
         <v>106</v>
@@ -26793,7 +26888,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B8">
         <v>56</v>
@@ -26807,7 +26902,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -26821,7 +26916,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B10">
         <v>47</v>
@@ -26835,7 +26930,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -26849,7 +26944,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B12">
         <v>42</v>
@@ -26863,7 +26958,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>35</v>
@@ -26877,7 +26972,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B14">
         <v>29</v>
@@ -26891,7 +26986,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B15">
         <v>27</v>
@@ -26905,7 +27000,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -26919,7 +27014,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>22</v>
@@ -26933,7 +27028,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -26961,7 +27056,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -26975,7 +27070,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -26989,7 +27084,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -27003,7 +27098,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -27017,7 +27112,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -27031,7 +27126,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -27045,7 +27140,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -27059,7 +27154,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -27073,7 +27168,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -27087,7 +27182,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -27101,7 +27196,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -27115,7 +27210,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -27143,7 +27238,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -27157,7 +27252,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -27171,7 +27266,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -27185,7 +27280,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -27199,7 +27294,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -27213,7 +27308,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -27241,7 +27336,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -27255,7 +27350,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -27283,7 +27378,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -27339,7 +27434,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -27353,7 +27448,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B48">
         <v>1</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -54,13 +54,13 @@
     <sheet name="Nebraska" sheetId="45" r:id="rId45"/>
     <sheet name="Montana" sheetId="46" r:id="rId46"/>
     <sheet name="Puerto Rico" sheetId="47" r:id="rId47"/>
-    <sheet name="West Virginia" sheetId="48" r:id="rId48"/>
-    <sheet name="Diamond Princess" sheetId="49" r:id="rId49"/>
-    <sheet name="Wyoming" sheetId="50" r:id="rId50"/>
-    <sheet name="North Dakota" sheetId="51" r:id="rId51"/>
-    <sheet name="Alaska" sheetId="52" r:id="rId52"/>
-    <sheet name="South Dakota" sheetId="53" r:id="rId53"/>
-    <sheet name="Guam" sheetId="54" r:id="rId54"/>
+    <sheet name="Alaska" sheetId="48" r:id="rId48"/>
+    <sheet name="West Virginia" sheetId="49" r:id="rId49"/>
+    <sheet name="Diamond Princess" sheetId="50" r:id="rId50"/>
+    <sheet name="Wyoming" sheetId="51" r:id="rId51"/>
+    <sheet name="North Dakota" sheetId="52" r:id="rId52"/>
+    <sheet name="Guam" sheetId="53" r:id="rId53"/>
+    <sheet name="South Dakota" sheetId="54" r:id="rId54"/>
     <sheet name="Grand Princess" sheetId="55" r:id="rId55"/>
     <sheet name="US Virgin Islands" sheetId="56" r:id="rId56"/>
     <sheet name="Wuhan Evacuee" sheetId="57" r:id="rId57"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1121">
   <si>
     <t>confirmed</t>
   </si>
@@ -399,6 +399,9 @@
     <t>Nevada</t>
   </si>
   <si>
+    <t>Napa</t>
+  </si>
+  <si>
     <t>Mono</t>
   </si>
   <si>
@@ -417,9 +420,6 @@
     <t>Yuba</t>
   </si>
   <si>
-    <t>Napa</t>
-  </si>
-  <si>
     <t>Calaveras</t>
   </si>
   <si>
@@ -1299,15 +1299,15 @@
     <t>Bell</t>
   </si>
   <si>
+    <t>Lubbock</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
     <t>Nueces</t>
   </si>
   <si>
-    <t>Lubbock</t>
-  </si>
-  <si>
     <t>Webb</t>
   </si>
   <si>
@@ -1398,7 +1398,7 @@
     <t>San Patricio</t>
   </si>
   <si>
-    <t>ROCKWALL</t>
+    <t>Rockwall</t>
   </si>
   <si>
     <t>Lavaca</t>
@@ -1500,6 +1500,9 @@
     <t>Hood</t>
   </si>
   <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t>Pennsylvania (State-level)</t>
   </si>
   <si>
@@ -2178,12 +2181,12 @@
     <t>Cullman</t>
   </si>
   <si>
+    <t>Autauga</t>
+  </si>
+  <si>
     <t>Tallapoosa</t>
   </si>
   <si>
-    <t>Autauga</t>
-  </si>
-  <si>
     <t>Chilton</t>
   </si>
   <si>
@@ -3021,6 +3024,12 @@
     <t>Des Moines</t>
   </si>
   <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Atchison</t>
+  </si>
+  <si>
     <t>Maine (State-level)</t>
   </si>
   <si>
@@ -3285,6 +3294,33 @@
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t>Alaska (State-level)</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Fairbanks North Star</t>
+  </si>
+  <si>
+    <t>Ketchikan Gateway</t>
+  </si>
+  <si>
+    <t>Sterling</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Seward</t>
+  </si>
+  <si>
+    <t>Soldotna</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
     <t>West Virginia (State-level)</t>
   </si>
   <si>
@@ -3342,28 +3378,10 @@
     <t>Foster</t>
   </si>
   <si>
-    <t>Alaska (State-level)</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>Fairbanks North Star</t>
-  </si>
-  <si>
-    <t>Ketchikan Gateway</t>
-  </si>
-  <si>
-    <t>Sterling</t>
-  </si>
-  <si>
-    <t>Palmer</t>
-  </si>
-  <si>
-    <t>Seward</t>
-  </si>
-  <si>
-    <t>Soldotna</t>
+    <t>Guam (State-level)</t>
+  </si>
+  <si>
+    <t>Guam</t>
   </si>
   <si>
     <t>South Dakota (State-level)</t>
@@ -3403,12 +3421,6 @@
   </si>
   <si>
     <t>Meade</t>
-  </si>
-  <si>
-    <t>Guam (State-level)</t>
-  </si>
-  <si>
-    <t>Guam</t>
   </si>
   <si>
     <t>Grand Princess (State-level)</t>
@@ -5985,7 +5997,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6010,7 +6022,7 @@
         <v>394</v>
       </c>
       <c r="B2">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -6248,13 +6260,13 @@
         <v>409</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6262,13 +6274,13 @@
         <v>410</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6276,7 +6288,7 @@
         <v>411</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -7318,6 +7330,20 @@
         <v>0</v>
       </c>
       <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
         <v>0</v>
       </c>
     </row>
@@ -7350,7 +7376,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B2">
         <v>1284</v>
@@ -7364,7 +7390,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B3">
         <v>342</v>
@@ -7392,7 +7418,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B5">
         <v>110</v>
@@ -7420,7 +7446,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B7">
         <v>88</v>
@@ -7434,7 +7460,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B8">
         <v>54</v>
@@ -7462,7 +7488,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B10">
         <v>44</v>
@@ -7476,7 +7502,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B11">
         <v>38</v>
@@ -7490,7 +7516,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B12">
         <v>27</v>
@@ -7504,7 +7530,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -7518,7 +7544,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -7532,7 +7558,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -7546,7 +7572,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -7574,7 +7600,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -7588,7 +7614,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -7616,7 +7642,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -7630,7 +7656,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -7644,7 +7670,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -7658,7 +7684,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -7672,7 +7698,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -7742,7 +7768,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -7770,7 +7796,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -7798,7 +7824,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -7812,7 +7838,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -7868,7 +7894,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7882,7 +7908,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7910,7 +7936,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7924,7 +7950,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7938,7 +7964,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7952,7 +7978,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8007,7 +8033,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B2">
         <v>1087</v>
@@ -8021,7 +8047,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B3">
         <v>214</v>
@@ -8049,7 +8075,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B5">
         <v>120</v>
@@ -8077,7 +8103,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B7">
         <v>88</v>
@@ -8091,7 +8117,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B8">
         <v>87</v>
@@ -8119,7 +8145,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B10">
         <v>52</v>
@@ -8133,7 +8159,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B11">
         <v>51</v>
@@ -8147,7 +8173,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B12">
         <v>45</v>
@@ -8175,7 +8201,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B14">
         <v>21</v>
@@ -8203,7 +8229,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -8217,7 +8243,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -8231,7 +8257,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -8245,7 +8271,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -8259,7 +8285,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -8273,7 +8299,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -8287,7 +8313,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -8301,7 +8327,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -8315,7 +8341,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -8343,7 +8369,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -8357,7 +8383,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -8371,7 +8397,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -8399,7 +8425,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -8413,7 +8439,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8427,7 +8453,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8441,7 +8467,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8455,7 +8481,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8469,7 +8495,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8483,7 +8509,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8497,7 +8523,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -8511,7 +8537,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8525,7 +8551,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -8566,7 +8592,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B2">
         <v>917</v>
@@ -8580,7 +8606,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B3">
         <v>257</v>
@@ -8594,7 +8620,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B4">
         <v>170</v>
@@ -8608,7 +8634,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -8650,7 +8676,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B8">
         <v>36</v>
@@ -8678,7 +8704,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -8692,7 +8718,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -8748,7 +8774,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -8790,7 +8816,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -8818,7 +8844,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -8832,7 +8858,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -8902,7 +8928,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -8916,7 +8942,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -8930,7 +8956,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -8958,7 +8984,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -8986,7 +9012,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -9000,7 +9026,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -9014,7 +9040,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -9028,7 +9054,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -9042,7 +9068,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -9056,7 +9082,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -9098,7 +9124,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -9112,7 +9138,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -9126,7 +9152,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -9140,7 +9166,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -9182,7 +9208,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -9210,7 +9236,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -9266,7 +9292,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -9280,7 +9306,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -9294,7 +9320,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -9363,7 +9389,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B2">
         <v>875</v>
@@ -9377,7 +9403,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B3">
         <v>546</v>
@@ -9391,7 +9417,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B4">
         <v>127</v>
@@ -9405,7 +9431,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B5">
         <v>116</v>
@@ -9419,7 +9445,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B6">
         <v>33</v>
@@ -9433,7 +9459,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B7">
         <v>27</v>
@@ -9461,7 +9487,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -9475,7 +9501,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -9516,7 +9542,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B2">
         <v>704</v>
@@ -9530,7 +9556,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B3">
         <v>206</v>
@@ -9572,7 +9598,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B6">
         <v>42</v>
@@ -9586,7 +9612,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -9600,7 +9626,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B8">
         <v>37</v>
@@ -9614,7 +9640,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B9">
         <v>23</v>
@@ -9642,7 +9668,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -9656,7 +9682,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -9698,7 +9724,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -9726,7 +9752,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -9754,7 +9780,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -9768,7 +9794,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -9782,7 +9808,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -9796,7 +9822,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -9838,7 +9864,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -9852,7 +9878,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -9866,7 +9892,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -9880,7 +9906,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -9894,7 +9920,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -9922,7 +9948,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -9964,7 +9990,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9978,7 +10004,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -10006,7 +10032,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -10062,7 +10088,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -10090,7 +10116,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -10104,7 +10130,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -10118,7 +10144,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -10132,7 +10158,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -10160,7 +10186,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -10174,7 +10200,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -10202,7 +10228,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -10216,7 +10242,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -10244,7 +10270,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -10272,7 +10298,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -10327,7 +10353,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B2">
         <v>638</v>
@@ -10341,7 +10367,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B3">
         <v>333</v>
@@ -10355,7 +10381,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B4">
         <v>88</v>
@@ -10369,7 +10395,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B5">
         <v>42</v>
@@ -10397,7 +10423,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -10411,7 +10437,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -10425,7 +10451,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -10439,7 +10465,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -10453,7 +10479,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -10467,7 +10493,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -10481,7 +10507,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -10495,7 +10521,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -10523,7 +10549,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -10537,7 +10563,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -10579,7 +10605,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -10593,7 +10619,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -10663,7 +10689,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -10677,7 +10703,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -10691,7 +10717,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -10705,7 +10731,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -10719,7 +10745,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -10747,7 +10773,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -10761,7 +10787,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -10817,7 +10843,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -10831,7 +10857,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -10845,7 +10871,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -10859,7 +10885,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -10900,7 +10926,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B2">
         <v>625</v>
@@ -10914,7 +10940,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B3">
         <v>170</v>
@@ -10928,7 +10954,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B4">
         <v>84</v>
@@ -10942,7 +10968,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B5">
         <v>84</v>
@@ -10970,7 +10996,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -10984,7 +11010,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -11012,7 +11038,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -11040,7 +11066,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -11054,7 +11080,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -11068,7 +11094,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -11082,7 +11108,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -11096,7 +11122,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -11152,7 +11178,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -11166,7 +11192,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -11180,7 +11206,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -11208,7 +11234,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -11222,7 +11248,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -11250,7 +11276,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -11264,7 +11290,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -11292,7 +11318,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -11306,7 +11332,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -11320,7 +11346,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -11334,7 +11360,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -11362,7 +11388,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -11376,7 +11402,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -11390,7 +11416,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -11404,7 +11430,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -11418,7 +11444,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -11432,7 +11458,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -11446,7 +11472,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -11460,7 +11486,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -11474,7 +11500,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -11488,7 +11514,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -11502,7 +11528,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -11516,7 +11542,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -11544,7 +11570,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -11558,7 +11584,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -11586,7 +11612,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -11614,7 +11640,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -11628,7 +11654,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -11642,7 +11668,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -11656,7 +11682,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -11684,7 +11710,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -11712,7 +11738,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -11726,7 +11752,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -11740,7 +11766,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -11754,7 +11780,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -11768,7 +11794,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -11809,7 +11835,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B2">
         <v>478</v>
@@ -11865,7 +11891,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -11893,7 +11919,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -11907,7 +11933,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -11963,7 +11989,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -11991,7 +12017,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -12033,7 +12059,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -12047,7 +12073,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -12061,7 +12087,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -12089,7 +12115,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -12117,7 +12143,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -12159,7 +12185,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -12173,7 +12199,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -12201,7 +12227,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -12215,7 +12241,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -12229,7 +12255,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -12243,7 +12269,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -12285,7 +12311,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -12299,7 +12325,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -12313,7 +12339,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -12327,7 +12353,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -12355,7 +12381,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -12369,7 +12395,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -12383,7 +12409,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -12397,7 +12423,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -12411,7 +12437,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -12425,7 +12451,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -12439,7 +12465,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -12467,7 +12493,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -12537,7 +12563,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -12941,10 +12967,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12969,7 +12995,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B4">
         <v>45</v>
@@ -13011,7 +13037,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -13053,7 +13079,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -13095,7 +13121,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -13109,7 +13135,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -13151,7 +13177,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -13179,10 +13205,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>359</v>
+        <v>703</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -13193,7 +13219,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>702</v>
+        <v>359</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -13207,7 +13233,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -13221,7 +13247,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -13235,7 +13261,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -13263,7 +13289,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -13333,7 +13359,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -13403,7 +13429,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -13417,7 +13443,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -13459,7 +13485,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -13473,7 +13499,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -13487,7 +13513,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -13501,7 +13527,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -13515,7 +13541,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -13529,7 +13555,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -13598,7 +13624,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B2">
         <v>426</v>
@@ -13626,7 +13652,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B4">
         <v>76</v>
@@ -13640,7 +13666,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B5">
         <v>53</v>
@@ -13654,7 +13680,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B6">
         <v>51</v>
@@ -13668,7 +13694,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -13682,7 +13708,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B8">
         <v>31</v>
@@ -13696,7 +13722,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -13710,7 +13736,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -13724,7 +13750,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -13752,7 +13778,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -13780,7 +13806,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -13794,7 +13820,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -13808,7 +13834,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -13836,7 +13862,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -13850,7 +13876,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -13864,7 +13890,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -13878,7 +13904,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -13947,7 +13973,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B2">
         <v>424</v>
@@ -13961,7 +13987,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -13989,7 +14015,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B5">
         <v>52</v>
@@ -14003,7 +14029,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -14017,7 +14043,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -14031,7 +14057,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -14045,7 +14071,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -14059,7 +14085,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -14073,7 +14099,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -14101,7 +14127,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -14115,7 +14141,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -14129,7 +14155,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -14143,7 +14169,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -14171,7 +14197,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -14185,7 +14211,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -14199,7 +14225,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -14213,7 +14239,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -14227,7 +14253,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -14241,7 +14267,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -14255,7 +14281,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -14283,7 +14309,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -14297,7 +14323,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -14325,7 +14351,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -14367,7 +14393,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -14381,7 +14407,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -14395,7 +14421,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -14409,7 +14435,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -14423,7 +14449,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -14437,7 +14463,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -14451,7 +14477,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -14493,7 +14519,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -14534,7 +14560,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B2">
         <v>405</v>
@@ -14576,7 +14602,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B5">
         <v>57</v>
@@ -14604,7 +14630,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -14618,7 +14644,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -14632,7 +14658,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -14646,7 +14672,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -14687,7 +14713,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B2">
         <v>401</v>
@@ -14701,7 +14727,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>251</v>
@@ -14715,7 +14741,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B4">
         <v>49</v>
@@ -14729,7 +14755,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B5">
         <v>37</v>
@@ -14743,7 +14769,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -14757,7 +14783,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -14771,7 +14797,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -14785,7 +14811,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -14799,7 +14825,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -14813,7 +14839,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -14841,7 +14867,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -14893,7 +14919,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B2">
         <v>399</v>
@@ -14907,7 +14933,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B3">
         <v>77</v>
@@ -14921,7 +14947,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B4">
         <v>46</v>
@@ -14935,7 +14961,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -14949,7 +14975,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -14963,7 +14989,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -14977,7 +15003,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -14991,7 +15017,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -15005,7 +15031,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -15019,7 +15045,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -15033,7 +15059,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -15047,7 +15073,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -15061,7 +15087,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -15075,7 +15101,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -15089,7 +15115,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -15117,7 +15143,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -15131,7 +15157,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -15145,7 +15171,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -15159,7 +15185,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -15173,7 +15199,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -15187,7 +15213,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -15201,7 +15227,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -15215,7 +15241,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -15229,7 +15255,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -15243,7 +15269,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -15257,7 +15283,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -15271,7 +15297,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -15285,7 +15311,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -15299,7 +15325,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -15327,7 +15353,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -15341,7 +15367,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -15355,7 +15381,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -15383,7 +15409,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -15397,7 +15423,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -15411,7 +15437,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -15425,7 +15451,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -15439,7 +15465,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -15453,7 +15479,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -15467,7 +15493,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -15509,7 +15535,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -15523,7 +15549,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -15551,7 +15577,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -15579,7 +15605,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -15593,7 +15619,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -15607,7 +15633,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -15621,7 +15647,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -15635,7 +15661,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -15649,7 +15675,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -15663,7 +15689,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -15677,7 +15703,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -15715,7 +15741,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B2">
         <v>381</v>
@@ -15729,7 +15755,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B3">
         <v>129</v>
@@ -15743,7 +15769,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B4">
         <v>53</v>
@@ -15757,7 +15783,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -15771,7 +15797,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -15841,7 +15867,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -15855,7 +15881,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -15911,7 +15937,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -15925,7 +15951,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -15967,7 +15993,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -15981,7 +16007,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -15995,7 +16021,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -16037,7 +16063,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -16065,7 +16091,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -16079,7 +16105,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -16093,7 +16119,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -16107,7 +16133,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -16149,7 +16175,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -16177,7 +16203,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -16205,7 +16231,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -16219,7 +16245,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -16261,7 +16287,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -16275,7 +16301,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -16316,7 +16342,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B2">
         <v>377</v>
@@ -16330,7 +16356,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B3">
         <v>38</v>
@@ -16344,7 +16370,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -16358,7 +16384,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -16372,7 +16398,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -16400,7 +16426,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -16428,7 +16454,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -16442,7 +16468,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -16470,7 +16496,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -16484,7 +16510,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -16498,7 +16524,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -16526,7 +16552,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -16540,7 +16566,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -16554,7 +16580,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -16582,7 +16608,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -16596,7 +16622,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -16610,7 +16636,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -16638,7 +16664,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -16666,7 +16692,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -16722,7 +16748,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -16736,7 +16762,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -16750,7 +16776,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -16778,7 +16804,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -16792,7 +16818,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -16806,7 +16832,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -16820,7 +16846,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -16834,7 +16860,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -16848,7 +16874,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -16862,7 +16888,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -16904,7 +16930,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -16918,7 +16944,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -16946,7 +16972,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -16960,7 +16986,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -16988,7 +17014,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -17002,7 +17028,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -17030,7 +17056,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -17044,7 +17070,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -17072,7 +17098,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -17086,7 +17112,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -17128,7 +17154,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -17142,7 +17168,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -17170,7 +17196,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -17211,7 +17237,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B2">
         <v>346</v>
@@ -17225,7 +17251,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B3">
         <v>151</v>
@@ -17239,7 +17265,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B4">
         <v>89</v>
@@ -17253,7 +17279,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -17267,7 +17293,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -17281,7 +17307,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -17295,7 +17321,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -17309,7 +17335,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -17323,7 +17349,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -17337,7 +17363,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -17351,7 +17377,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -17392,7 +17418,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B2">
         <v>308</v>
@@ -17434,7 +17460,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -17448,7 +17474,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -17476,7 +17502,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -17532,7 +17558,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -17546,7 +17572,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -17560,7 +17586,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -17574,7 +17600,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -17602,7 +17628,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -17616,7 +17642,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -17630,7 +17656,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -17644,7 +17670,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -17658,7 +17684,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -17686,7 +17712,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -17700,7 +17726,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -17714,7 +17740,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -17742,7 +17768,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -17798,7 +17824,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -17826,7 +17852,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -17854,7 +17880,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -17868,7 +17894,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -17882,7 +17908,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -17896,7 +17922,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17910,7 +17936,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -17924,7 +17950,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -17968,7 +17994,7 @@
         <v>78</v>
       </c>
       <c r="B2">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="C2">
         <v>67</v>
@@ -18416,7 +18442,7 @@
         <v>109</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -18444,13 +18470,13 @@
         <v>111</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -18461,10 +18487,10 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -18622,7 +18648,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B2">
         <v>287</v>
@@ -18636,7 +18662,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B3">
         <v>111</v>
@@ -18650,7 +18676,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -18664,7 +18690,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -18678,7 +18704,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -18720,7 +18746,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -18734,7 +18760,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -18748,7 +18774,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -18762,7 +18788,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -18776,7 +18802,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -18790,7 +18816,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -18804,7 +18830,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -18818,7 +18844,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -18832,7 +18858,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -18846,7 +18872,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -18874,7 +18900,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -18888,7 +18914,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -18916,7 +18942,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -18930,7 +18956,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -18944,7 +18970,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -18958,7 +18984,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -18972,7 +18998,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -18986,7 +19012,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -19042,7 +19068,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -19056,7 +19082,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -19070,7 +19096,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -19084,7 +19110,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -19125,7 +19151,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B2">
         <v>266</v>
@@ -19167,7 +19193,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -19181,7 +19207,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -19195,7 +19221,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -19209,7 +19235,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -19223,7 +19249,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -19251,7 +19277,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -19307,7 +19333,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -19321,7 +19347,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -19335,7 +19361,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -19377,7 +19403,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -19391,7 +19417,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -19446,7 +19472,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2">
         <v>231</v>
@@ -19460,7 +19486,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B3">
         <v>231</v>
@@ -19501,7 +19527,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2">
         <v>198</v>
@@ -19557,7 +19583,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -19571,7 +19597,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -19585,7 +19611,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -19655,7 +19681,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -19669,7 +19695,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -19683,7 +19709,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -19739,7 +19765,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -19767,7 +19793,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -19781,7 +19807,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -19795,7 +19821,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -19809,7 +19835,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -19823,7 +19849,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -19851,7 +19877,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -19879,7 +19905,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -19893,7 +19919,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -19907,7 +19933,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -19921,7 +19947,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -19935,7 +19961,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -19949,7 +19975,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -19977,7 +20003,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -19991,7 +20017,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -20060,7 +20086,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B2">
         <v>164</v>
@@ -20074,7 +20100,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B3">
         <v>55</v>
@@ -20088,7 +20114,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -20102,7 +20128,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B5">
         <v>27</v>
@@ -20116,7 +20142,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -20130,7 +20156,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -20144,7 +20170,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -20158,7 +20184,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -20172,7 +20198,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -20186,7 +20212,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -20228,7 +20254,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -20242,7 +20268,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -20256,7 +20282,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -20270,7 +20296,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -20298,7 +20324,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -20312,7 +20338,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -20326,7 +20352,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -20340,7 +20366,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -20354,7 +20380,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -20382,7 +20408,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -20410,7 +20436,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20424,7 +20450,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -20457,7 +20483,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20479,10 +20505,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -20535,7 +20561,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -20549,7 +20575,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -20577,7 +20603,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -20591,7 +20617,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -20605,7 +20631,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -20619,7 +20645,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -20633,7 +20659,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -20647,7 +20673,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -20661,7 +20687,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -20675,7 +20701,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -20689,7 +20715,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -20703,7 +20729,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20717,7 +20743,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20731,7 +20757,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -20773,7 +20799,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -20787,7 +20813,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -20829,7 +20855,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20843,7 +20869,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -20857,7 +20883,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -20871,7 +20897,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -20885,7 +20911,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -20927,7 +20953,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -20936,6 +20962,34 @@
         <v>0</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>0</v>
       </c>
     </row>
@@ -20968,7 +21022,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B2">
         <v>142</v>
@@ -20996,7 +21050,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B4">
         <v>23</v>
@@ -21010,7 +21064,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -21038,7 +21092,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -21052,7 +21106,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -21066,7 +21120,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -21080,7 +21134,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -21108,7 +21162,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -21122,7 +21176,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -21163,7 +21217,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B2">
         <v>138</v>
@@ -21177,7 +21231,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -21191,7 +21245,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -21205,7 +21259,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -21219,7 +21273,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -21233,7 +21287,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -21247,7 +21301,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -21275,7 +21329,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -21303,7 +21357,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -21317,7 +21371,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -21331,7 +21385,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -21345,7 +21399,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -21359,7 +21413,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -21373,7 +21427,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -21387,7 +21441,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -21401,7 +21455,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21442,7 +21496,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B2">
         <v>137</v>
@@ -21456,7 +21510,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -21484,7 +21538,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -21498,7 +21552,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -21526,7 +21580,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -21540,7 +21594,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -21554,7 +21608,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -21609,7 +21663,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B2">
         <v>137</v>
@@ -21637,7 +21691,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -21651,7 +21705,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -21665,7 +21719,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -21693,7 +21747,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -21707,7 +21761,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -21721,7 +21775,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -21735,7 +21789,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -21777,7 +21831,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -21805,7 +21859,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -21847,7 +21901,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21861,7 +21915,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -21875,7 +21929,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -21889,7 +21943,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -21903,7 +21957,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -22461,7 +22515,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B2">
         <v>132</v>
@@ -22475,7 +22529,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B3">
         <v>52</v>
@@ -22517,7 +22571,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -22586,7 +22640,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B2">
         <v>125</v>
@@ -22600,7 +22654,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B3">
         <v>55</v>
@@ -22614,7 +22668,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -22628,7 +22682,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -22642,7 +22696,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -22656,7 +22710,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -22684,7 +22738,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -22698,7 +22752,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -22768,7 +22822,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22809,7 +22863,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B2">
         <v>119</v>
@@ -22823,7 +22877,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -22892,7 +22946,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B2">
         <v>113</v>
@@ -22906,7 +22960,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -22920,7 +22974,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -22934,7 +22988,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -22948,7 +23002,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -22976,7 +23030,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -22990,7 +23044,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -23004,7 +23058,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -23018,7 +23072,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -23032,7 +23086,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -23046,7 +23100,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -23060,7 +23114,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -23074,7 +23128,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -23088,7 +23142,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -23102,7 +23156,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -23143,7 +23197,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B2">
         <v>95</v>
@@ -23157,7 +23211,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B3">
         <v>58</v>
@@ -23185,7 +23239,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -23199,7 +23253,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -23213,7 +23267,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -23254,7 +23308,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -23282,7 +23336,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -23324,7 +23378,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -23338,7 +23392,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -23366,7 +23420,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -23380,7 +23434,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -23408,7 +23462,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -23422,7 +23476,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -23477,7 +23531,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B2">
         <v>67</v>
@@ -23491,7 +23545,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -23505,7 +23559,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -23519,7 +23573,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -23533,7 +23587,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -23547,7 +23601,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -23561,7 +23615,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -23575,7 +23629,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -23589,7 +23643,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -23617,7 +23671,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -23631,7 +23685,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -23659,7 +23713,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -23700,7 +23754,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -23714,7 +23768,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -23732,6 +23786,184 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B2">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -23755,7 +23987,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -23769,7 +24001,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -23783,7 +24015,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -23825,7 +24057,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -23853,7 +24085,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -23895,7 +24127,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -23909,7 +24141,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -23923,7 +24155,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -23937,7 +24169,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -23951,7 +24183,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -23993,7 +24225,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -24002,103 +24234,6 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B2">
-        <v>49</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -24836,7 +24971,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24858,7 +24993,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -24872,10 +25007,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>532</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -24886,10 +25021,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1079</v>
+        <v>93</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -24900,10 +25035,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>996</v>
+        <v>87</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -24914,99 +25049,15 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1080</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -25039,10 +25090,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -25053,10 +25104,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1085</v>
+        <v>533</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -25067,10 +25118,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -25081,7 +25132,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>467</v>
+        <v>999</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -25095,10 +25146,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -25109,10 +25160,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>897</v>
+        <v>1093</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -25123,10 +25174,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>1094</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -25137,10 +25188,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -25151,7 +25202,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>621</v>
+        <v>552</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25165,7 +25216,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25179,7 +25230,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1089</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -25198,7 +25249,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25220,24 +25271,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -25248,10 +25299,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -25262,10 +25313,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1093</v>
+        <v>467</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -25276,10 +25327,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -25290,10 +25341,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>626</v>
+        <v>898</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -25304,7 +25355,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1095</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -25318,10 +25369,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1096</v>
+        <v>580</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -25332,7 +25383,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1097</v>
+        <v>622</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25346,13 +25397,30 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>1100</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -25361,6 +25429,61 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -25384,7 +25507,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -25398,7 +25521,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -25412,7 +25535,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -25426,7 +25549,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -25440,7 +25563,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -25468,7 +25591,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -25482,7 +25605,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -25496,7 +25619,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25510,7 +25633,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25524,7 +25647,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -25538,7 +25661,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -25552,7 +25675,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -25580,7 +25703,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -25590,61 +25713,6 @@
       </c>
       <c r="D16">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B2">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B3">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -25676,7 +25744,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -25732,7 +25800,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -25770,7 +25838,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B2">
         <v>17</v>
@@ -25825,7 +25893,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B2">
         <v>4</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -35,14 +35,14 @@
     <sheet name="Virginia" sheetId="26" r:id="rId26"/>
     <sheet name="Missouri" sheetId="27" r:id="rId27"/>
     <sheet name="Utah" sheetId="28" r:id="rId28"/>
-    <sheet name="Arkansas" sheetId="29" r:id="rId29"/>
-    <sheet name="Minnesota" sheetId="30" r:id="rId30"/>
+    <sheet name="Minnesota" sheetId="29" r:id="rId29"/>
+    <sheet name="Arkansas" sheetId="30" r:id="rId30"/>
     <sheet name="Oregon" sheetId="31" r:id="rId31"/>
-    <sheet name="Washington D.C." sheetId="32" r:id="rId32"/>
-    <sheet name="Kentucky" sheetId="33" r:id="rId33"/>
-    <sheet name="Oklahoma" sheetId="34" r:id="rId34"/>
-    <sheet name="Iowa" sheetId="35" r:id="rId35"/>
-    <sheet name="Maine" sheetId="36" r:id="rId36"/>
+    <sheet name="Oklahoma" sheetId="32" r:id="rId32"/>
+    <sheet name="Washington D.C." sheetId="33" r:id="rId33"/>
+    <sheet name="Kentucky" sheetId="34" r:id="rId34"/>
+    <sheet name="Maine" sheetId="35" r:id="rId35"/>
+    <sheet name="Iowa" sheetId="36" r:id="rId36"/>
     <sheet name="Kansas" sheetId="37" r:id="rId37"/>
     <sheet name="Idaho" sheetId="38" r:id="rId38"/>
     <sheet name="New Hampshire" sheetId="39" r:id="rId39"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1138">
   <si>
     <t>confirmed</t>
   </si>
@@ -318,12 +318,12 @@
     <t>San Diego</t>
   </si>
   <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
     <t>San Mateo</t>
   </si>
   <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
     <t>Alameda</t>
   </si>
   <si>
@@ -2739,6 +2739,84 @@
     <t>Tooele</t>
   </si>
   <si>
+    <t>Minnesota (State-level)</t>
+  </si>
+  <si>
+    <t>Hennepin</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>Dakota</t>
+  </si>
+  <si>
+    <t>Olmsted</t>
+  </si>
+  <si>
+    <t>Mower</t>
+  </si>
+  <si>
+    <t>Carver</t>
+  </si>
+  <si>
+    <t>Anoka</t>
+  </si>
+  <si>
+    <t>Blue earth</t>
+  </si>
+  <si>
+    <t>Le Sueur</t>
+  </si>
+  <si>
+    <t>Stearns</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Nicollet</t>
+  </si>
+  <si>
+    <t>Filmore</t>
+  </si>
+  <si>
+    <t>Wabasha</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Chisago</t>
+  </si>
+  <si>
+    <t>Winona</t>
+  </si>
+  <si>
+    <t>Renville</t>
+  </si>
+  <si>
+    <t>Waseca</t>
+  </si>
+  <si>
+    <t>Big Stone</t>
+  </si>
+  <si>
+    <t>Lac Qui Parle</t>
+  </si>
+  <si>
+    <t>Sherburne</t>
+  </si>
+  <si>
+    <t>Goodhue</t>
+  </si>
+  <si>
+    <t>Kandiyohi</t>
+  </si>
+  <si>
     <t>Arkansas (State-level)</t>
   </si>
   <si>
@@ -2793,81 +2871,6 @@
     <t>Hot Spring</t>
   </si>
   <si>
-    <t>Minnesota (State-level)</t>
-  </si>
-  <si>
-    <t>Hennepin</t>
-  </si>
-  <si>
-    <t>Ramsey</t>
-  </si>
-  <si>
-    <t>Olmsted</t>
-  </si>
-  <si>
-    <t>Dakota</t>
-  </si>
-  <si>
-    <t>Carver</t>
-  </si>
-  <si>
-    <t>Anoka</t>
-  </si>
-  <si>
-    <t>Mower</t>
-  </si>
-  <si>
-    <t>Le Sueur</t>
-  </si>
-  <si>
-    <t>Stearns</t>
-  </si>
-  <si>
-    <t>Blue earth</t>
-  </si>
-  <si>
-    <t>Steele</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>Nicollet</t>
-  </si>
-  <si>
-    <t>Filmore</t>
-  </si>
-  <si>
-    <t>Wabasha</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Chisago</t>
-  </si>
-  <si>
-    <t>Winona</t>
-  </si>
-  <si>
-    <t>Renville</t>
-  </si>
-  <si>
-    <t>Waseca</t>
-  </si>
-  <si>
-    <t>Big Stone</t>
-  </si>
-  <si>
-    <t>Lac Qui Parle</t>
-  </si>
-  <si>
-    <t>Sherburne</t>
-  </si>
-  <si>
-    <t>Goodhue</t>
-  </si>
-  <si>
     <t>Oregon (State-level)</t>
   </si>
   <si>
@@ -2904,6 +2907,69 @@
     <t>Clatsop</t>
   </si>
   <si>
+    <t>Oklahoma (State-level)</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>Pawnee</t>
+  </si>
+  <si>
+    <t>Creek</t>
+  </si>
+  <si>
+    <t>Canadian</t>
+  </si>
+  <si>
+    <t>Wagoner</t>
+  </si>
+  <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Muskogee</t>
+  </si>
+  <si>
+    <t>Custer</t>
+  </si>
+  <si>
+    <t>Osage</t>
+  </si>
+  <si>
+    <t>Comanche</t>
+  </si>
+  <si>
+    <t>McClain</t>
+  </si>
+  <si>
+    <t>Garvin</t>
+  </si>
+  <si>
+    <t>Pottawatomie</t>
+  </si>
+  <si>
+    <t>Okmulgee</t>
+  </si>
+  <si>
+    <t>Grady</t>
+  </si>
+  <si>
+    <t>Mayes</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
     <t>Washington D.C. (State-level)</t>
   </si>
   <si>
@@ -2949,58 +3015,25 @@
     <t>Laurel</t>
   </si>
   <si>
-    <t>Oklahoma (State-level)</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>Pawnee</t>
-  </si>
-  <si>
-    <t>Kay</t>
-  </si>
-  <si>
-    <t>Canadian</t>
-  </si>
-  <si>
-    <t>Creek</t>
-  </si>
-  <si>
-    <t>Payne</t>
-  </si>
-  <si>
-    <t>Custer</t>
-  </si>
-  <si>
-    <t>Wagoner</t>
-  </si>
-  <si>
-    <t>Garvin</t>
-  </si>
-  <si>
-    <t>Grady</t>
-  </si>
-  <si>
-    <t>McClain</t>
-  </si>
-  <si>
-    <t>Muskogee</t>
-  </si>
-  <si>
-    <t>Mayes</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>Osage</t>
-  </si>
-  <si>
-    <t>Pottawatomie</t>
+    <t>Maine (State-level)</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Kennebec</t>
+  </si>
+  <si>
+    <t>Androscoggin</t>
+  </si>
+  <si>
+    <t>Penobscot</t>
+  </si>
+  <si>
+    <t>Sagadahoc</t>
+  </si>
+  <si>
+    <t>Waldo</t>
   </si>
   <si>
     <t>Iowa (State-level)</t>
@@ -3061,27 +3094,6 @@
   </si>
   <si>
     <t>Atchison</t>
-  </si>
-  <si>
-    <t>Maine (State-level)</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Kennebec</t>
-  </si>
-  <si>
-    <t>Androscoggin</t>
-  </si>
-  <si>
-    <t>Penobscot</t>
-  </si>
-  <si>
-    <t>Sagadahoc</t>
-  </si>
-  <si>
-    <t>Waldo</t>
   </si>
   <si>
     <t>Kansas (State-level)</t>
@@ -17718,7 +17730,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17743,21 +17755,21 @@
         <v>889</v>
       </c>
       <c r="B2">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>471</v>
+        <v>890</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -17768,38 +17780,38 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>891</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>769</v>
+        <v>892</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -17810,10 +17822,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -17824,10 +17836,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>891</v>
+        <v>229</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -17838,10 +17850,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>894</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -17852,10 +17864,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>183</v>
+        <v>895</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -17866,10 +17878,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>896</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -17880,7 +17892,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -17894,10 +17906,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>893</v>
+        <v>564</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -17908,10 +17920,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>552</v>
+        <v>898</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -17922,10 +17934,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -17936,10 +17948,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -17950,10 +17962,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -17964,10 +17976,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>896</v>
+        <v>219</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -17978,7 +17990,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>667</v>
+        <v>901</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -17992,10 +18004,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -18006,10 +18018,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -18020,10 +18032,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>904</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -18034,10 +18046,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>899</v>
+        <v>861</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -18048,10 +18060,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -18062,10 +18074,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>557</v>
+        <v>906</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -18076,10 +18088,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>907</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -18090,7 +18102,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>611</v>
+        <v>908</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -18104,7 +18116,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>909</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -18118,7 +18130,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -18132,7 +18144,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -18146,7 +18158,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>901</v>
+        <v>392</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -18160,7 +18172,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>910</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -18174,7 +18186,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -18188,7 +18200,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>477</v>
+        <v>912</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -18202,7 +18214,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -18216,7 +18228,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>604</v>
+        <v>914</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -18225,62 +18237,6 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -18316,10 +18272,10 @@
         <v>78</v>
       </c>
       <c r="B2">
-        <v>3202</v>
+        <v>3247</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>2.1</v>
@@ -18372,41 +18328,41 @@
         <v>82</v>
       </c>
       <c r="B6">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B7">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18948,7 +18904,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18970,24 +18926,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="B2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>908</v>
+        <v>471</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -18998,38 +18954,38 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>909</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>910</v>
+        <v>769</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -19040,10 +18996,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -19054,10 +19010,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>229</v>
+        <v>917</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -19068,10 +19024,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>912</v>
+        <v>133</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -19082,10 +19038,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>913</v>
+        <v>183</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -19096,7 +19052,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>914</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -19110,7 +19066,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>564</v>
+        <v>918</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -19124,10 +19080,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -19138,10 +19094,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>916</v>
+        <v>552</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -19152,10 +19108,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -19166,10 +19122,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>918</v>
+        <v>131</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -19180,7 +19136,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -19194,7 +19150,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -19208,7 +19164,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>219</v>
+        <v>667</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -19222,10 +19178,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -19236,10 +19192,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -19250,10 +19206,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>474</v>
+        <v>149</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -19264,10 +19220,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>861</v>
+        <v>925</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -19278,10 +19234,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -19292,10 +19248,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>924</v>
+        <v>557</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -19306,10 +19262,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>925</v>
+        <v>135</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -19320,7 +19276,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>926</v>
+        <v>611</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -19334,7 +19290,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>927</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -19348,7 +19304,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -19362,7 +19318,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -19376,7 +19332,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>392</v>
+        <v>927</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -19390,7 +19346,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>928</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -19404,7 +19360,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -19418,7 +19374,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>930</v>
+        <v>477</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -19432,15 +19388,85 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -19473,7 +19499,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2">
         <v>266</v>
@@ -19515,7 +19541,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -19529,7 +19555,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -19543,7 +19569,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -19557,7 +19583,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -19571,7 +19597,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -19599,7 +19625,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -19655,7 +19681,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -19669,7 +19695,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -19683,7 +19709,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -19725,7 +19751,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -19739,7 +19765,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -19771,6 +19797,495 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B2">
+        <v>245</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B3">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -19794,7 +20309,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>944</v>
+        <v>966</v>
       </c>
       <c r="B2">
         <v>231</v>
@@ -19808,7 +20323,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="B3">
         <v>231</v>
@@ -19825,7 +20340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -19849,7 +20364,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="B2">
         <v>198</v>
@@ -19905,7 +20420,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -19933,7 +20448,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -20003,7 +20518,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -20087,7 +20602,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20115,7 +20630,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -20129,7 +20644,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -20171,7 +20686,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -20199,7 +20714,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20227,7 +20742,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -20241,7 +20756,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>956</v>
+        <v>978</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -20255,7 +20770,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -20297,7 +20812,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -20384,9 +20899,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20408,77 +20923,77 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="B2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>960</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>961</v>
+        <v>489</v>
       </c>
       <c r="B4">
         <v>27</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>667</v>
+        <v>982</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>962</v>
+        <v>983</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>963</v>
+        <v>984</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -20492,7 +21007,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>964</v>
+        <v>149</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -20506,7 +21021,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -20520,10 +21035,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -20534,10 +21049,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>967</v>
+        <v>987</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -20548,10 +21063,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>261</v>
+        <v>546</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -20562,10 +21077,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -20576,225 +21091,15 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>968</v>
+        <v>57</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
         <v>0</v>
       </c>
     </row>
@@ -20803,7 +21108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -20827,7 +21132,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="B2">
         <v>148</v>
@@ -20883,7 +21188,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -20897,7 +21202,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -20925,7 +21230,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -20939,7 +21244,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -20953,7 +21258,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -20967,7 +21272,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -20981,7 +21286,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -21037,7 +21342,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -21051,7 +21356,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -21065,7 +21370,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -21079,7 +21384,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -21135,7 +21440,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -21177,7 +21482,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21191,7 +21496,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -21205,7 +21510,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -21219,7 +21524,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21233,7 +21538,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21275,7 +21580,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>994</v>
+        <v>1005</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21289,7 +21594,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -21303,7 +21608,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>996</v>
+        <v>1007</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -21312,201 +21617,6 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="B2">
-        <v>142</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>87</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
         <v>0</v>
       </c>
     </row>
@@ -21539,7 +21649,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B2">
         <v>138</v>
@@ -21567,7 +21677,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -21581,7 +21691,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -21595,7 +21705,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -21623,7 +21733,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -21665,7 +21775,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -21707,7 +21817,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -21777,7 +21887,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21791,7 +21901,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -21805,7 +21915,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -21819,7 +21929,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -21833,7 +21943,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -21861,7 +21971,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -21902,7 +22012,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B2">
         <v>138</v>
@@ -21916,7 +22026,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -21930,7 +22040,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -21944,7 +22054,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -21958,7 +22068,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -21972,7 +22082,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -21986,7 +22096,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -22014,7 +22124,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -22042,7 +22152,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -22056,7 +22166,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -22070,7 +22180,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -22084,7 +22194,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22098,7 +22208,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -22126,7 +22236,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -22140,7 +22250,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -22181,7 +22291,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B2">
         <v>137</v>
@@ -22223,7 +22333,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -22237,7 +22347,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -22265,7 +22375,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -22279,7 +22389,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -22293,7 +22403,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -22851,7 +22961,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B2">
         <v>132</v>
@@ -22865,7 +22975,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B3">
         <v>52</v>
@@ -22907,7 +23017,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -22976,7 +23086,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B2">
         <v>125</v>
@@ -22990,7 +23100,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B3">
         <v>55</v>
@@ -23004,7 +23114,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -23018,7 +23128,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -23032,7 +23142,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -23074,7 +23184,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -23088,7 +23198,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -23158,7 +23268,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -23199,7 +23309,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B2">
         <v>119</v>
@@ -23213,7 +23323,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -23282,7 +23392,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B2">
         <v>113</v>
@@ -23296,7 +23406,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -23310,7 +23420,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -23324,7 +23434,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -23338,7 +23448,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -23366,7 +23476,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -23380,7 +23490,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -23394,7 +23504,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -23408,7 +23518,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -23422,7 +23532,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -23450,7 +23560,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -23464,7 +23574,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -23478,7 +23588,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -23492,7 +23602,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -23533,7 +23643,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B2">
         <v>95</v>
@@ -23547,7 +23657,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B3">
         <v>58</v>
@@ -23575,7 +23685,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -23589,7 +23699,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -23603,7 +23713,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -23644,7 +23754,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -23672,7 +23782,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -23756,7 +23866,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -23770,7 +23880,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -23798,7 +23908,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -23812,7 +23922,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -23867,7 +23977,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -23881,7 +23991,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -23895,7 +24005,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -23909,7 +24019,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -23923,7 +24033,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -23937,7 +24047,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -23951,7 +24061,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -23965,7 +24075,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -23979,7 +24089,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24007,7 +24117,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -24021,7 +24131,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24049,7 +24159,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24063,7 +24173,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24118,7 +24228,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -24132,7 +24242,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -24173,7 +24283,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B2">
         <v>59</v>
@@ -24187,7 +24297,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -24201,7 +24311,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -24215,7 +24325,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -24229,7 +24339,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -24257,7 +24367,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -24271,7 +24381,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -24285,7 +24395,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -24299,7 +24409,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -24351,7 +24461,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B2">
         <v>53</v>
@@ -24379,7 +24489,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -24393,7 +24503,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -24407,7 +24517,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -24421,7 +24531,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -24435,7 +24545,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -24477,7 +24587,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25287,7 +25397,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -25301,7 +25411,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -25315,7 +25425,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -25385,7 +25495,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -25441,7 +25551,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -25525,7 +25635,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -25566,7 +25676,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -25663,7 +25773,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -25677,7 +25787,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -25691,7 +25801,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -25719,7 +25829,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -25733,7 +25843,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -25789,7 +25899,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25803,7 +25913,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -25844,7 +25954,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -25858,7 +25968,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -25899,7 +26009,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -25913,7 +26023,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -25927,7 +26037,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -25941,7 +26051,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -25955,7 +26065,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -25983,7 +26093,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -25997,7 +26107,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -26011,7 +26121,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26025,7 +26135,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26039,7 +26149,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26053,7 +26163,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -26067,7 +26177,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26095,7 +26205,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26136,7 +26246,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -26192,7 +26302,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -26230,7 +26340,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B2">
         <v>17</v>
@@ -26285,7 +26395,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="B2">
         <v>4</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1162">
   <si>
     <t>confirmed</t>
   </si>
@@ -261,21 +261,21 @@
     <t>Monmouth</t>
   </si>
   <si>
+    <t>Hudson</t>
+  </si>
+  <si>
     <t>Union</t>
   </si>
   <si>
-    <t>Hudson</t>
-  </si>
-  <si>
     <t>Passaic</t>
   </si>
   <si>
+    <t>Ocean</t>
+  </si>
+  <si>
     <t>Morris</t>
   </si>
   <si>
-    <t>Ocean</t>
-  </si>
-  <si>
     <t>Somerset</t>
   </si>
   <si>
@@ -1869,15 +1869,15 @@
     <t>Clermont</t>
   </si>
   <si>
+    <t>Columbiana</t>
+  </si>
+  <si>
     <t>Geauga</t>
   </si>
   <si>
     <t>Coshocton</t>
   </si>
   <si>
-    <t>Columbiana</t>
-  </si>
-  <si>
     <t>Portage</t>
   </si>
   <si>
@@ -1924,6 +1924,9 @@
   </si>
   <si>
     <t>Pickaway</t>
+  </si>
+  <si>
+    <t>Athens</t>
   </si>
   <si>
     <t>North Carolina (State-level)</t>
@@ -4729,10 +4732,10 @@
         <v>323</v>
       </c>
       <c r="B2">
-        <v>1691</v>
+        <v>1722</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4757,13 +4760,13 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8070,7 +8073,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -9780,7 +9783,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9805,13 +9808,13 @@
         <v>590</v>
       </c>
       <c r="B2">
-        <v>705</v>
+        <v>770</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9819,13 +9822,13 @@
         <v>591</v>
       </c>
       <c r="B3">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9928,38 +9931,38 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>595</v>
+        <v>336</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>595</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -9970,7 +9973,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -9984,30 +9987,30 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>596</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>596</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10043,7 +10046,7 @@
         <v>598</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10057,7 +10060,7 @@
         <v>583</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10071,7 +10074,7 @@
         <v>599</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10096,7 +10099,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>283</v>
+        <v>601</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -10110,7 +10113,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -10124,7 +10127,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>601</v>
+        <v>237</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -10222,21 +10225,21 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>363</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -10250,7 +10253,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>607</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -10264,10 +10267,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -10278,7 +10281,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>184</v>
+        <v>608</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -10292,7 +10295,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>609</v>
+        <v>184</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -10306,16 +10309,16 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>609</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -10376,10 +10379,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>610</v>
+        <v>296</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -10390,7 +10393,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -10404,35 +10407,35 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>613</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -10446,7 +10449,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>614</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -10460,7 +10463,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -10474,7 +10477,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>296</v>
+        <v>615</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -10595,6 +10598,20 @@
         <v>0</v>
       </c>
       <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>0</v>
       </c>
     </row>
@@ -10627,7 +10644,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B2">
         <v>680</v>
@@ -10641,7 +10658,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B3">
         <v>204</v>
@@ -10655,7 +10672,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B4">
         <v>84</v>
@@ -10669,7 +10686,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B5">
         <v>84</v>
@@ -10683,7 +10700,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>27</v>
@@ -10697,7 +10714,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -10711,7 +10728,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -10739,7 +10756,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -10767,7 +10784,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -10781,7 +10798,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -10795,7 +10812,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -10809,7 +10826,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -10823,7 +10840,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -10837,7 +10854,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -10851,7 +10868,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -10907,7 +10924,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -10921,7 +10938,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -10935,7 +10952,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -10963,7 +10980,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -10977,7 +10994,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -11005,7 +11022,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -11033,7 +11050,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -11047,7 +11064,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -11075,7 +11092,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11103,7 +11120,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -11117,7 +11134,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -11131,7 +11148,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -11145,7 +11162,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -11159,7 +11176,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -11173,7 +11190,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -11187,7 +11204,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -11201,7 +11218,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -11215,7 +11232,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -11229,7 +11246,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -11243,7 +11260,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -11271,7 +11288,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -11285,7 +11302,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -11313,7 +11330,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -11341,7 +11358,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -11355,7 +11372,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -11369,7 +11386,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -11383,7 +11400,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -11411,7 +11428,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -11453,7 +11470,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -11467,7 +11484,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -11481,7 +11498,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -11495,7 +11512,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -11550,7 +11567,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B2">
         <v>645</v>
@@ -11620,7 +11637,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -11634,7 +11651,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -11676,7 +11693,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -11732,7 +11749,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -11760,7 +11777,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -11788,7 +11805,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -11816,7 +11833,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -11830,7 +11847,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -11858,7 +11875,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -11872,7 +11889,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -11900,7 +11917,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -11914,7 +11931,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -11942,7 +11959,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -11984,7 +12001,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -12026,7 +12043,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -12040,7 +12057,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -12138,7 +12155,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -12152,7 +12169,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -12180,7 +12197,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -12222,7 +12239,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -12236,7 +12253,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -12250,7 +12267,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -12292,7 +12309,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -12376,7 +12393,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -12390,7 +12407,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -12431,7 +12448,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B2">
         <v>638</v>
@@ -12445,7 +12462,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B3">
         <v>333</v>
@@ -12459,7 +12476,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B4">
         <v>88</v>
@@ -12473,7 +12490,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B5">
         <v>42</v>
@@ -12501,7 +12518,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -12515,7 +12532,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -12529,7 +12546,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -12543,7 +12560,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -12557,7 +12574,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -12571,7 +12588,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -12585,7 +12602,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -12599,7 +12616,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -12627,7 +12644,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -12641,7 +12658,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -12683,7 +12700,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -12697,7 +12714,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -12767,7 +12784,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -12795,7 +12812,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -12809,7 +12826,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -12823,7 +12840,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -12851,7 +12868,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -12865,7 +12882,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -12921,7 +12938,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -12949,7 +12966,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -12963,7 +12980,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -13021,13 +13038,13 @@
         <v>58</v>
       </c>
       <c r="B3">
-        <v>3399</v>
+        <v>1478</v>
       </c>
       <c r="C3">
         <v>63</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13035,13 +13052,13 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>819</v>
+        <v>1206</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13049,13 +13066,13 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>381</v>
+        <v>609</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13063,7 +13080,7 @@
         <v>61</v>
       </c>
       <c r="B6">
-        <v>316</v>
+        <v>505</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -13077,13 +13094,13 @@
         <v>62</v>
       </c>
       <c r="B7">
-        <v>313</v>
+        <v>501</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13091,13 +13108,13 @@
         <v>63</v>
       </c>
       <c r="B8">
-        <v>262</v>
+        <v>441</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13105,13 +13122,13 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>260</v>
+        <v>432</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13119,7 +13136,7 @@
         <v>65</v>
       </c>
       <c r="B10">
-        <v>255</v>
+        <v>399</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -13133,13 +13150,13 @@
         <v>66</v>
       </c>
       <c r="B11">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -13147,13 +13164,13 @@
         <v>67</v>
       </c>
       <c r="B12">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13161,13 +13178,13 @@
         <v>68</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -13175,7 +13192,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -13189,13 +13206,13 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -13203,7 +13220,7 @@
         <v>71</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -13217,7 +13234,7 @@
         <v>72</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -13231,7 +13248,7 @@
         <v>73</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -13245,7 +13262,7 @@
         <v>74</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -13259,7 +13276,7 @@
         <v>49</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -13273,7 +13290,7 @@
         <v>75</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -13287,7 +13304,7 @@
         <v>76</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -13301,7 +13318,7 @@
         <v>77</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -13315,7 +13332,7 @@
         <v>78</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -13353,7 +13370,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B2">
         <v>583</v>
@@ -13381,7 +13398,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -13395,7 +13412,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -13409,7 +13426,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B6">
         <v>72</v>
@@ -13423,7 +13440,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B7">
         <v>49</v>
@@ -13437,7 +13454,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -13451,7 +13468,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -13465,7 +13482,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -13479,7 +13496,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -13507,7 +13524,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -13521,7 +13538,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -13549,7 +13566,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -13563,7 +13580,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -13577,7 +13594,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -13605,7 +13622,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -13619,7 +13636,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -13633,7 +13650,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -13702,7 +13719,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B2">
         <v>521</v>
@@ -13744,7 +13761,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B5">
         <v>57</v>
@@ -13772,7 +13789,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -13786,7 +13803,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -13800,7 +13817,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13814,7 +13831,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -13855,7 +13872,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B2">
         <v>508</v>
@@ -13869,7 +13886,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B3">
         <v>299</v>
@@ -13883,7 +13900,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -13897,7 +13914,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -13911,7 +13928,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -13925,7 +13942,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -13939,7 +13956,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -13953,7 +13970,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -13981,7 +13998,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -14009,7 +14026,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -14023,7 +14040,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -14037,7 +14054,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -14089,7 +14106,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B2">
         <v>485</v>
@@ -14103,7 +14120,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B3">
         <v>49</v>
@@ -14117,7 +14134,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -14131,7 +14148,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -14145,7 +14162,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -14173,7 +14190,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -14187,7 +14204,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -14201,7 +14218,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -14243,7 +14260,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -14257,7 +14274,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -14299,7 +14316,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -14327,7 +14344,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -14341,7 +14358,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -14369,7 +14386,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -14397,7 +14414,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -14411,7 +14428,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -14425,7 +14442,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -14467,7 +14484,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -14495,7 +14512,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -14509,7 +14526,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -14523,7 +14540,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -14537,7 +14554,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -14579,7 +14596,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -14607,7 +14624,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -14635,7 +14652,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -14649,7 +14666,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -14677,7 +14694,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -14691,7 +14708,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -14719,7 +14736,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -14733,7 +14750,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -14775,7 +14792,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -14789,7 +14806,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -14803,7 +14820,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -14817,7 +14834,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -14873,7 +14890,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -14901,7 +14918,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -14915,7 +14932,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -14957,7 +14974,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -14971,7 +14988,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -14985,7 +15002,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -15018,7 +15035,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15040,7 +15057,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B2">
         <v>460</v>
@@ -15054,7 +15071,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -15068,7 +15085,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -15082,7 +15099,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -15096,7 +15113,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -15113,7 +15130,7 @@
         <v>58</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -15124,7 +15141,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B8">
         <v>28</v>
@@ -15138,7 +15155,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B9">
         <v>23</v>
@@ -15152,7 +15169,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -15166,7 +15183,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -15180,7 +15197,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -15194,7 +15211,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15222,7 +15239,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -15236,7 +15253,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -15250,7 +15267,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -15278,7 +15295,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -15292,7 +15309,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -15306,7 +15323,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -15320,7 +15337,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -15334,7 +15351,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -15348,7 +15365,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -15362,7 +15379,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -15376,7 +15393,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -15390,7 +15407,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -15418,7 +15435,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -15432,7 +15449,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -15446,7 +15463,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -15460,7 +15477,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -15488,7 +15505,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -15502,7 +15519,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -15516,7 +15533,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -15544,7 +15561,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -15558,7 +15575,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -15572,7 +15589,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -15586,7 +15603,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -15600,7 +15617,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -15614,7 +15631,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -15628,7 +15645,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -15670,7 +15687,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -15684,7 +15701,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -15712,7 +15729,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -15740,7 +15757,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -15754,7 +15771,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -15768,7 +15785,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -15782,7 +15799,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -15796,7 +15813,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -15810,7 +15827,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -15824,7 +15841,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -15838,7 +15855,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -15866,12 +15883,26 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>833</v>
+        <v>40</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
         <v>4</v>
       </c>
     </row>
@@ -15904,7 +15935,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2">
         <v>449</v>
@@ -15974,7 +16005,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -16016,7 +16047,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -16030,7 +16061,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16072,7 +16103,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -16114,7 +16145,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -16142,7 +16173,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -16170,7 +16201,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -16184,7 +16215,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -16198,7 +16229,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -16226,7 +16257,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -16324,7 +16355,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -16436,7 +16467,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -16450,7 +16481,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -16464,7 +16495,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -16492,7 +16523,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -16548,7 +16579,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -16589,7 +16620,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B2">
         <v>424</v>
@@ -16603,7 +16634,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -16631,7 +16662,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B5">
         <v>52</v>
@@ -16645,7 +16676,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -16659,7 +16690,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -16673,7 +16704,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -16701,7 +16732,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -16743,7 +16774,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -16757,7 +16788,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -16771,7 +16802,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -16813,7 +16844,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -16827,7 +16858,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -16841,7 +16872,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -16855,7 +16886,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -16883,7 +16914,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -16897,7 +16928,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -16925,7 +16956,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -16939,7 +16970,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -16967,7 +16998,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -17009,7 +17040,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -17023,7 +17054,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -17037,7 +17068,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -17051,7 +17082,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -17065,7 +17096,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -17093,7 +17124,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17121,7 +17152,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -17135,7 +17166,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -17176,7 +17207,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B2">
         <v>388</v>
@@ -17190,7 +17221,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B3">
         <v>129</v>
@@ -17204,7 +17235,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B4">
         <v>53</v>
@@ -17218,7 +17249,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -17232,7 +17263,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -17302,7 +17333,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -17316,7 +17347,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -17372,7 +17403,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -17386,7 +17417,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -17442,7 +17473,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -17456,7 +17487,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -17512,7 +17543,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -17554,7 +17585,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -17568,7 +17599,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -17582,7 +17613,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -17624,7 +17655,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -17652,7 +17683,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -17680,7 +17711,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17694,7 +17725,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -17736,7 +17767,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -17777,7 +17808,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B2">
         <v>353</v>
@@ -17791,7 +17822,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B3">
         <v>151</v>
@@ -17819,7 +17850,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -17833,7 +17864,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -17847,7 +17878,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -17861,7 +17892,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -17875,7 +17906,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -17889,7 +17920,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -17917,7 +17948,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -17931,7 +17962,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -17945,7 +17976,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -17986,7 +18017,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B2">
         <v>346</v>
@@ -18000,7 +18031,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B3">
         <v>128</v>
@@ -18014,7 +18045,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -18028,7 +18059,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B5">
         <v>29</v>
@@ -18042,7 +18073,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -18084,7 +18115,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -18098,7 +18129,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -18112,7 +18143,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -18126,7 +18157,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -18154,7 +18185,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -18168,7 +18199,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -18182,7 +18213,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -18210,7 +18241,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -18224,7 +18255,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -18252,7 +18283,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -18266,7 +18297,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -18280,7 +18311,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -18294,7 +18325,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -18308,7 +18339,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -18322,7 +18353,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -18336,7 +18367,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -18350,7 +18381,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -18406,7 +18437,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -18420,7 +18451,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -18434,7 +18465,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -18448,7 +18479,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -18462,7 +18493,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -18476,7 +18507,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -18490,7 +18521,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -18504,7 +18535,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -19202,7 +19233,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2">
         <v>335</v>
@@ -19230,7 +19261,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -19244,7 +19275,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -19286,7 +19317,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -19356,7 +19387,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -19384,7 +19415,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -19412,7 +19443,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -19440,7 +19471,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -19454,7 +19485,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -19468,7 +19499,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -19482,7 +19513,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -19496,7 +19527,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -19510,7 +19541,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -19524,7 +19555,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -19552,7 +19583,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -19608,7 +19639,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -19622,7 +19653,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -19636,7 +19667,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -19664,7 +19695,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -19692,7 +19723,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -19706,7 +19737,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -19734,7 +19765,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -19748,7 +19779,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -19776,7 +19807,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -19831,7 +19862,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B2">
         <v>266</v>
@@ -19873,7 +19904,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -19887,7 +19918,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -19901,7 +19932,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -19915,7 +19946,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -19929,7 +19960,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -19957,7 +19988,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20013,7 +20044,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -20027,7 +20058,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -20041,7 +20072,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -20069,7 +20100,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -20083,7 +20114,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -20097,7 +20128,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -20152,7 +20183,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B2">
         <v>245</v>
@@ -20166,7 +20197,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -20180,7 +20211,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -20194,7 +20225,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -20208,7 +20239,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -20222,7 +20253,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -20236,7 +20267,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -20250,7 +20281,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -20264,7 +20295,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -20278,7 +20309,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20306,7 +20337,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -20320,7 +20351,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -20348,7 +20379,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -20362,7 +20393,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -20376,7 +20407,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20390,7 +20421,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20404,7 +20435,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -20418,7 +20449,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -20432,7 +20463,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -20446,7 +20477,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -20474,7 +20505,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -20488,7 +20519,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -20502,7 +20533,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20530,7 +20561,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -20572,7 +20603,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -20641,7 +20672,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B2">
         <v>231</v>
@@ -20655,7 +20686,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B3">
         <v>231</v>
@@ -20696,7 +20727,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B2">
         <v>198</v>
@@ -20752,7 +20783,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -20766,7 +20797,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -20780,7 +20811,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -20850,7 +20881,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -20864,7 +20895,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -20934,7 +20965,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20962,7 +20993,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -20976,7 +21007,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -20990,7 +21021,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -21004,7 +21035,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -21018,7 +21049,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -21046,7 +21077,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21074,7 +21105,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -21088,7 +21119,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21102,7 +21133,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21116,7 +21147,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -21144,7 +21175,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21186,7 +21217,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -21255,7 +21286,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2">
         <v>180</v>
@@ -21297,7 +21328,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -21339,7 +21370,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -21367,7 +21398,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -21381,7 +21412,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -21395,7 +21426,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -21409,7 +21440,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -21423,7 +21454,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -21437,7 +21468,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -21451,7 +21482,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -21465,7 +21496,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -21493,7 +21524,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -21507,7 +21538,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -21521,7 +21552,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -21535,7 +21566,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -21591,7 +21622,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -21605,7 +21636,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21647,7 +21678,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21661,7 +21692,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21675,7 +21706,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -21703,7 +21734,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21717,7 +21748,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -21731,7 +21762,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -21745,7 +21776,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -21773,7 +21804,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -21787,7 +21818,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -21828,7 +21859,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B2">
         <v>158</v>
@@ -21842,7 +21873,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -21856,7 +21887,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -21870,7 +21901,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -21884,7 +21915,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -21940,7 +21971,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -21954,7 +21985,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -22010,7 +22041,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22051,7 +22082,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B2">
         <v>155</v>
@@ -22093,7 +22124,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -22107,7 +22138,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -22121,7 +22152,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -22149,7 +22180,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -22163,7 +22194,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -22177,7 +22208,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -22260,7 +22291,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B2">
         <v>146</v>
@@ -22274,7 +22305,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B3">
         <v>66</v>
@@ -22288,7 +22319,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -22302,7 +22333,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -22316,7 +22347,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -22330,7 +22361,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -22344,7 +22375,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -22372,7 +22403,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -22400,7 +22431,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -22414,7 +22445,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -22428,7 +22459,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -22442,7 +22473,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22456,7 +22487,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -22484,7 +22515,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -22498,7 +22529,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -22539,7 +22570,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B2">
         <v>138</v>
@@ -22567,7 +22598,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -22581,7 +22612,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -22595,7 +22626,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -22623,7 +22654,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -22637,7 +22668,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -22665,7 +22696,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -22693,7 +22724,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -22707,7 +22738,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -22777,7 +22808,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -22791,7 +22822,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -22805,7 +22836,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -22819,7 +22850,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -22833,7 +22864,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -22861,7 +22892,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -22908,10 +22939,10 @@
         <v>2858</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -22922,10 +22953,10 @@
         <v>1389</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -22936,10 +22967,10 @@
         <v>668</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22950,10 +22981,10 @@
         <v>347</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -23356,10 +23387,10 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -23636,10 +23667,10 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -23713,7 +23744,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B2">
         <v>137</v>
@@ -23727,7 +23758,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -23755,7 +23786,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -23769,7 +23800,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -23797,7 +23828,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -23811,7 +23842,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -23825,7 +23856,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -23880,7 +23911,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B2">
         <v>132</v>
@@ -23894,7 +23925,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B3">
         <v>52</v>
@@ -23936,7 +23967,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -24005,7 +24036,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B2">
         <v>130</v>
@@ -24019,7 +24050,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B3">
         <v>86</v>
@@ -24088,7 +24119,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B2">
         <v>113</v>
@@ -24102,7 +24133,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -24116,7 +24147,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -24130,7 +24161,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -24144,7 +24175,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -24172,7 +24203,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24186,7 +24217,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -24200,7 +24231,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -24214,7 +24245,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24228,7 +24259,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -24256,7 +24287,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24270,7 +24301,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24284,7 +24315,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24298,7 +24329,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -24339,7 +24370,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B2">
         <v>95</v>
@@ -24353,7 +24384,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B3">
         <v>58</v>
@@ -24381,7 +24412,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -24395,7 +24426,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -24409,7 +24440,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -24450,7 +24481,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -24478,7 +24509,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -24562,7 +24593,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24576,7 +24607,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24604,7 +24635,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24618,7 +24649,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24673,7 +24704,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -24687,7 +24718,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -24701,7 +24732,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -24715,7 +24746,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -24729,7 +24760,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -24743,7 +24774,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -24757,7 +24788,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24771,7 +24802,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -24785,7 +24816,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24813,7 +24844,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -24827,7 +24858,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24855,7 +24886,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24869,7 +24900,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24924,7 +24955,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -24938,7 +24969,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -24979,7 +25010,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B2">
         <v>59</v>
@@ -24993,7 +25024,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -25007,7 +25038,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -25021,7 +25052,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -25035,7 +25066,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -25049,7 +25080,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -25063,7 +25094,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -25077,7 +25108,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -25091,7 +25122,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25105,7 +25136,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25157,7 +25188,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B2">
         <v>53</v>
@@ -25185,7 +25216,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -25199,7 +25230,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -25213,7 +25244,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -25227,7 +25258,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -25241,7 +25272,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -25283,7 +25314,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25855,7 +25886,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -25869,7 +25900,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -25883,7 +25914,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -25911,7 +25942,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -25925,7 +25956,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -25967,7 +25998,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25981,7 +26012,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25995,7 +26026,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26023,7 +26054,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26064,7 +26095,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -26078,7 +26109,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -26092,7 +26123,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -26134,7 +26165,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -26162,7 +26193,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -26204,7 +26235,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -26218,7 +26249,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -26232,7 +26263,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -26302,7 +26333,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -26343,7 +26374,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -26440,7 +26471,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B2">
         <v>46</v>
@@ -26454,7 +26485,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -26468,7 +26499,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -26482,7 +26513,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -26496,7 +26527,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -26538,7 +26569,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -26552,7 +26583,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26566,7 +26597,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26580,7 +26611,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26594,7 +26625,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -26608,7 +26639,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26622,7 +26653,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -26636,7 +26667,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26677,7 +26708,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -26691,7 +26722,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -26732,7 +26763,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -26788,7 +26819,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -26826,7 +26857,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B2">
         <v>17</v>
@@ -26881,7 +26912,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -28223,7 +28254,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>2</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -23,9 +23,9 @@
     <sheet name="Tennessee" sheetId="14" r:id="rId14"/>
     <sheet name="Connecticut" sheetId="15" r:id="rId15"/>
     <sheet name="Ohio" sheetId="16" r:id="rId16"/>
-    <sheet name="North Carolina" sheetId="17" r:id="rId17"/>
-    <sheet name="Indiana" sheetId="18" r:id="rId18"/>
-    <sheet name="Wisconsin" sheetId="19" r:id="rId19"/>
+    <sheet name="Wisconsin" sheetId="17" r:id="rId17"/>
+    <sheet name="North Carolina" sheetId="18" r:id="rId18"/>
+    <sheet name="Indiana" sheetId="19" r:id="rId19"/>
     <sheet name="Maryland" sheetId="20" r:id="rId20"/>
     <sheet name="Nevada" sheetId="21" r:id="rId21"/>
     <sheet name="Arizona" sheetId="22" r:id="rId22"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1166">
   <si>
     <t>confirmed</t>
   </si>
@@ -1866,42 +1866,48 @@
     <t>Trumbull</t>
   </si>
   <si>
+    <t>Portage</t>
+  </si>
+  <si>
+    <t>Geauga</t>
+  </si>
+  <si>
     <t>Clermont</t>
   </si>
   <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Licking</t>
+  </si>
+  <si>
     <t>Columbiana</t>
   </si>
   <si>
-    <t>Geauga</t>
-  </si>
-  <si>
     <t>Coshocton</t>
   </si>
   <si>
-    <t>Portage</t>
-  </si>
-  <si>
     <t>Belmont</t>
   </si>
   <si>
     <t>Tuscarawas</t>
   </si>
   <si>
-    <t>Licking</t>
+    <t>Huron</t>
   </si>
   <si>
     <t>Ashtabula</t>
   </si>
   <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Huron</t>
-  </si>
-  <si>
     <t>Defiance</t>
   </si>
   <si>
+    <t>Hancock</t>
+  </si>
+  <si>
+    <t>Pickaway</t>
+  </si>
+  <si>
     <t>Darke</t>
   </si>
   <si>
@@ -1911,9 +1917,6 @@
     <t>Gallia</t>
   </si>
   <si>
-    <t>Hancock</t>
-  </si>
-  <si>
     <t>Highland</t>
   </si>
   <si>
@@ -1923,12 +1926,90 @@
     <t>Seneca</t>
   </si>
   <si>
-    <t>Pickaway</t>
-  </si>
-  <si>
     <t>Athens</t>
   </si>
   <si>
+    <t>Muskingum</t>
+  </si>
+  <si>
+    <t>Wyandot</t>
+  </si>
+  <si>
+    <t>Wisconsin (State-level)</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Dane</t>
+  </si>
+  <si>
+    <t>Waukesha</t>
+  </si>
+  <si>
+    <t>Ozaukee</t>
+  </si>
+  <si>
+    <t>Kenosha</t>
+  </si>
+  <si>
+    <t>Fond du Lac</t>
+  </si>
+  <si>
+    <t>La Crosse</t>
+  </si>
+  <si>
+    <t>Racine</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Sheboygan</t>
+  </si>
+  <si>
+    <t>Sauk</t>
+  </si>
+  <si>
+    <t>Eau Claire</t>
+  </si>
+  <si>
+    <t>Walworth</t>
+  </si>
+  <si>
+    <t>Outagamie</t>
+  </si>
+  <si>
+    <t>St. Croix</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Calumet</t>
+  </si>
+  <si>
+    <t>Bayfield</t>
+  </si>
+  <si>
+    <t>Dunn</t>
+  </si>
+  <si>
+    <t>Marathon</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Vilas</t>
+  </si>
+  <si>
+    <t>Waupaca</t>
+  </si>
+  <si>
+    <t>Juneau</t>
+  </si>
+  <si>
     <t>North Carolina (State-level)</t>
   </si>
   <si>
@@ -2145,81 +2226,6 @@
     <t>Posey</t>
   </si>
   <si>
-    <t>Wisconsin (State-level)</t>
-  </si>
-  <si>
-    <t>Milwaukee</t>
-  </si>
-  <si>
-    <t>Dane</t>
-  </si>
-  <si>
-    <t>Waukesha</t>
-  </si>
-  <si>
-    <t>Ozaukee</t>
-  </si>
-  <si>
-    <t>Fond du Lac</t>
-  </si>
-  <si>
-    <t>Kenosha</t>
-  </si>
-  <si>
-    <t>La Crosse</t>
-  </si>
-  <si>
-    <t>Racine</t>
-  </si>
-  <si>
-    <t>Sheboygan</t>
-  </si>
-  <si>
-    <t>Sauk</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Walworth</t>
-  </si>
-  <si>
-    <t>Eau Claire</t>
-  </si>
-  <si>
-    <t>Outagamie</t>
-  </si>
-  <si>
-    <t>St. Croix</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Calumet</t>
-  </si>
-  <si>
-    <t>Bayfield</t>
-  </si>
-  <si>
-    <t>Dunn</t>
-  </si>
-  <si>
-    <t>Marathon</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Vilas</t>
-  </si>
-  <si>
-    <t>Waupaca</t>
-  </si>
-  <si>
-    <t>Juneau</t>
-  </si>
-  <si>
     <t>Maryland (State-level)</t>
   </si>
   <si>
@@ -2469,6 +2475,9 @@
     <t>Chesterfield</t>
   </si>
   <si>
+    <t>Newport News</t>
+  </si>
+  <si>
     <t>Charlottesville</t>
   </si>
   <si>
@@ -2481,9 +2490,6 @@
     <t>Albemarle</t>
   </si>
   <si>
-    <t>Newport News</t>
-  </si>
-  <si>
     <t>Chesapeake</t>
   </si>
   <si>
@@ -2572,6 +2578,12 @@
   </si>
   <si>
     <t>Hampton</t>
+  </si>
+  <si>
+    <t>Poquoson</t>
+  </si>
+  <si>
+    <t>Amelia</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -6833,7 +6845,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6861,7 +6873,7 @@
         <v>1456</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1.2</v>
@@ -8265,6 +8277,17 @@
       </c>
       <c r="D102">
         <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9783,7 +9806,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9808,13 +9831,13 @@
         <v>590</v>
       </c>
       <c r="B2">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9836,13 +9859,13 @@
         <v>57</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9850,7 +9873,7 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9861,10 +9884,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -9875,10 +9898,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>592</v>
+        <v>533</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -9892,7 +9915,7 @@
         <v>593</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -9906,13 +9929,13 @@
         <v>594</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>8.699999999999999</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9920,7 +9943,7 @@
         <v>497</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -9948,21 +9971,21 @@
         <v>595</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>5.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -9973,24 +9996,24 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>596</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -10001,16 +10024,16 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>596</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10018,7 +10041,7 @@
         <v>597</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -10032,7 +10055,7 @@
         <v>49</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10046,7 +10069,7 @@
         <v>598</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10057,10 +10080,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10071,10 +10094,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10085,10 +10108,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -10099,10 +10122,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10113,10 +10136,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>283</v>
+        <v>602</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -10127,10 +10150,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>237</v>
+        <v>603</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -10141,7 +10164,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -10155,10 +10178,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>603</v>
+        <v>283</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -10169,10 +10192,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>604</v>
+        <v>237</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -10197,7 +10220,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>606</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -10211,7 +10234,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -10225,21 +10248,21 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>363</v>
+        <v>608</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -10253,21 +10276,21 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>607</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -10281,10 +10304,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>608</v>
+        <v>363</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -10295,10 +10318,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -10309,7 +10332,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>609</v>
+        <v>184</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -10323,7 +10346,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>609</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -10351,7 +10374,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -10365,7 +10388,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>312</v>
+        <v>558</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -10379,7 +10402,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -10393,10 +10416,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>610</v>
+        <v>296</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -10410,7 +10433,7 @@
         <v>611</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -10421,21 +10444,21 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>612</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -10449,7 +10472,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>613</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -10469,15 +10492,15 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>615</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -10491,7 +10514,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>355</v>
+        <v>615</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -10519,7 +10542,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -10533,7 +10556,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>352</v>
+        <v>617</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -10547,7 +10570,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -10561,7 +10584,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>617</v>
+        <v>352</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -10575,7 +10598,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -10612,6 +10635,48 @@
         <v>0</v>
       </c>
       <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
         <v>0</v>
       </c>
     </row>
@@ -10621,6 +10686,579 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2">
+        <v>708</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3">
+        <v>347</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D65"/>
   <sheetViews>
@@ -10644,7 +11282,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="B2">
         <v>680</v>
@@ -10658,7 +11296,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="B3">
         <v>204</v>
@@ -10672,7 +11310,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="B4">
         <v>84</v>
@@ -10686,7 +11324,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="B5">
         <v>84</v>
@@ -10714,7 +11352,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -10728,7 +11366,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -10756,7 +11394,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -10784,7 +11422,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -10798,7 +11436,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -10812,7 +11450,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -10826,7 +11464,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -10840,7 +11478,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -10854,7 +11492,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -10868,7 +11506,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -10924,7 +11562,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -10938,7 +11576,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -10952,7 +11590,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -10980,7 +11618,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -10994,7 +11632,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -11022,7 +11660,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -11050,7 +11688,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -11064,7 +11702,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -11092,7 +11730,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11120,7 +11758,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -11134,7 +11772,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -11148,7 +11786,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -11162,7 +11800,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -11176,7 +11814,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -11190,7 +11828,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -11204,7 +11842,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -11218,7 +11856,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -11232,7 +11870,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -11246,7 +11884,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -11260,7 +11898,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -11288,7 +11926,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -11302,7 +11940,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -11330,7 +11968,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -11358,7 +11996,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -11372,7 +12010,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -11386,7 +12024,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -11400,7 +12038,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -11428,7 +12066,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -11470,7 +12108,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -11484,7 +12122,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -11498,7 +12136,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -11512,7 +12150,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -11543,7 +12181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D62"/>
   <sheetViews>
@@ -11567,7 +12205,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="B2">
         <v>645</v>
@@ -11637,7 +12275,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -11651,7 +12289,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -11693,7 +12331,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -11721,7 +12359,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -11749,7 +12387,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -11777,7 +12415,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -11805,7 +12443,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -11833,7 +12471,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -11847,7 +12485,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -11875,7 +12513,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -11889,7 +12527,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -11917,7 +12555,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -11931,7 +12569,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -11959,7 +12597,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -12001,7 +12639,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -12043,7 +12681,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -12057,7 +12695,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -12155,7 +12793,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -12169,7 +12807,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -12197,7 +12835,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -12239,7 +12877,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -12253,7 +12891,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -12267,7 +12905,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -12309,7 +12947,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -12393,7 +13031,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -12407,7 +13045,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -12416,579 +13054,6 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B2">
-        <v>638</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B3">
-        <v>333</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B4">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B5">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -13370,7 +13435,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B2">
         <v>583</v>
@@ -13398,7 +13463,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -13412,7 +13477,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -13426,7 +13491,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B6">
         <v>72</v>
@@ -13440,7 +13505,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="B7">
         <v>49</v>
@@ -13454,7 +13519,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -13468,7 +13533,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -13482,7 +13547,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -13496,7 +13561,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -13524,7 +13589,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -13538,7 +13603,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -13566,7 +13631,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -13580,7 +13645,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -13594,7 +13659,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -13622,7 +13687,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -13636,7 +13701,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -13650,7 +13715,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -13719,7 +13784,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B2">
         <v>521</v>
@@ -13761,7 +13826,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B5">
         <v>57</v>
@@ -13789,7 +13854,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -13803,7 +13868,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -13817,7 +13882,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13831,7 +13896,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -13872,7 +13937,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B2">
         <v>508</v>
@@ -13886,7 +13951,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B3">
         <v>299</v>
@@ -13900,7 +13965,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -13914,7 +13979,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -13928,7 +13993,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -13942,7 +14007,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -13956,7 +14021,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -13970,7 +14035,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -13998,7 +14063,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -14026,7 +14091,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -14040,7 +14105,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -14054,7 +14119,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -14106,7 +14171,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B2">
         <v>485</v>
@@ -14120,7 +14185,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B3">
         <v>49</v>
@@ -14134,7 +14199,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -14148,7 +14213,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -14162,7 +14227,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -14190,7 +14255,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -14204,7 +14269,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -14218,7 +14283,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -14260,7 +14325,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -14274,7 +14339,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -14316,7 +14381,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -14344,7 +14409,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -14358,7 +14423,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -14386,7 +14451,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -14414,7 +14479,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -14428,7 +14493,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -14442,7 +14507,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -14456,7 +14521,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -14484,7 +14549,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -14512,7 +14577,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -14526,7 +14591,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -14540,7 +14605,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -14554,7 +14619,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -14596,7 +14661,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -14624,7 +14689,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -14652,7 +14717,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -14666,7 +14731,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -14694,7 +14759,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -14708,7 +14773,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -14736,7 +14801,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -14750,7 +14815,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -14792,7 +14857,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -14820,7 +14885,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -14834,7 +14899,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -14890,7 +14955,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -14918,7 +14983,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -14932,7 +14997,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -14974,7 +15039,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -14988,7 +15053,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -15002,7 +15067,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -15035,7 +15100,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15057,7 +15122,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B2">
         <v>460</v>
@@ -15071,7 +15136,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -15085,7 +15150,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -15099,21 +15164,21 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -15127,10 +15192,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>795</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -15141,49 +15206,49 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>796</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -15197,7 +15262,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -15211,7 +15276,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15228,32 +15293,32 @@
         <v>334</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -15267,16 +15332,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15284,7 +15349,7 @@
         <v>314</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -15295,35 +15360,35 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -15337,7 +15402,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -15351,7 +15416,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -15365,7 +15430,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -15379,7 +15444,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -15393,7 +15458,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -15407,7 +15472,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -15435,7 +15500,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -15449,7 +15514,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -15463,7 +15528,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -15477,7 +15542,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -15505,7 +15570,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -15519,7 +15584,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -15533,7 +15598,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -15561,7 +15626,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -15575,7 +15640,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -15589,7 +15654,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -15603,7 +15668,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -15617,7 +15682,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -15631,7 +15696,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -15645,7 +15710,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -15687,7 +15752,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -15701,7 +15766,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -15729,7 +15794,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -15757,7 +15822,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -15771,7 +15836,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -15785,7 +15850,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -15799,7 +15864,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -15813,7 +15878,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -15827,7 +15892,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -15841,7 +15906,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -15855,7 +15920,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -15897,12 +15962,40 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
         <v>4</v>
       </c>
     </row>
@@ -15935,7 +16028,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B2">
         <v>449</v>
@@ -16005,7 +16098,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -16047,7 +16140,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -16061,7 +16154,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16103,7 +16196,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -16145,7 +16238,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -16173,7 +16266,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -16201,7 +16294,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -16215,7 +16308,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -16229,7 +16322,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -16257,7 +16350,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -16355,7 +16448,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -16467,7 +16560,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -16481,7 +16574,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -16495,7 +16588,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -16523,7 +16616,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -16579,7 +16672,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -16620,7 +16713,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B2">
         <v>424</v>
@@ -16634,7 +16727,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -16662,7 +16755,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B5">
         <v>52</v>
@@ -16676,7 +16769,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -16690,7 +16783,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -16704,7 +16797,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -16732,7 +16825,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -16774,7 +16867,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -16788,7 +16881,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -16802,7 +16895,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -16844,7 +16937,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -16858,7 +16951,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -16872,7 +16965,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -16886,7 +16979,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -16914,7 +17007,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -16928,7 +17021,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -16956,7 +17049,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -16970,7 +17063,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -16998,7 +17091,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -17040,7 +17133,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -17054,7 +17147,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -17068,7 +17161,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -17082,7 +17175,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -17096,7 +17189,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -17124,7 +17217,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17166,7 +17259,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -17207,10 +17300,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -17221,10 +17314,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -17235,7 +17328,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B4">
         <v>53</v>
@@ -17249,7 +17342,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -17263,7 +17356,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -17333,7 +17426,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -17347,7 +17440,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -17403,7 +17496,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -17417,7 +17510,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -17473,7 +17566,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -17487,7 +17580,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -17543,7 +17636,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -17585,7 +17678,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -17599,7 +17692,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -17613,7 +17706,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -17655,7 +17748,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -17683,7 +17776,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -17711,7 +17804,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17725,7 +17818,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -17767,7 +17860,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -17808,7 +17901,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B2">
         <v>353</v>
@@ -17822,7 +17915,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B3">
         <v>151</v>
@@ -17850,7 +17943,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -17864,7 +17957,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -17878,7 +17971,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -17892,7 +17985,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -17906,7 +17999,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -17920,7 +18013,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -17948,7 +18041,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -17962,7 +18055,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -17976,7 +18069,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -18017,7 +18110,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B2">
         <v>346</v>
@@ -18031,7 +18124,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B3">
         <v>128</v>
@@ -18045,7 +18138,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -18059,7 +18152,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B5">
         <v>29</v>
@@ -18073,7 +18166,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -18115,7 +18208,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -18129,7 +18222,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -18143,7 +18236,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -18157,7 +18250,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -18185,7 +18278,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -18199,7 +18292,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -18213,7 +18306,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -18241,7 +18334,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -18255,7 +18348,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -18283,7 +18376,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -18297,7 +18390,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -18311,7 +18404,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -18325,7 +18418,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -18339,7 +18432,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -18353,7 +18446,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -18367,7 +18460,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -18381,7 +18474,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -18437,7 +18530,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -18451,7 +18544,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -18465,7 +18558,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -18479,7 +18572,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -18493,7 +18586,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -18507,7 +18600,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -18521,7 +18614,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -18535,7 +18628,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -19233,7 +19326,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B2">
         <v>335</v>
@@ -19261,7 +19354,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -19275,7 +19368,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -19317,7 +19410,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -19387,7 +19480,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -19415,7 +19508,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -19443,7 +19536,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -19471,7 +19564,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -19485,7 +19578,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -19499,7 +19592,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -19513,7 +19606,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -19527,7 +19620,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -19541,7 +19634,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -19555,7 +19648,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -19583,7 +19676,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -19639,7 +19732,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -19667,7 +19760,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -19695,7 +19788,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -19723,7 +19816,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -19737,7 +19830,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -19765,7 +19858,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -19779,7 +19872,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -19807,7 +19900,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -19862,7 +19955,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B2">
         <v>266</v>
@@ -19904,7 +19997,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -19918,7 +20011,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -19932,7 +20025,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -19946,7 +20039,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -19960,7 +20053,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -19988,7 +20081,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20044,7 +20137,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -20058,7 +20151,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -20072,7 +20165,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -20114,7 +20207,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -20128,7 +20221,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -20183,7 +20276,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B2">
         <v>245</v>
@@ -20197,7 +20290,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -20211,7 +20304,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -20225,7 +20318,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -20239,7 +20332,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -20253,7 +20346,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -20267,7 +20360,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -20281,7 +20374,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -20295,7 +20388,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -20309,7 +20402,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20337,7 +20430,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -20351,7 +20444,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -20379,7 +20472,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -20393,7 +20486,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -20407,7 +20500,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20421,7 +20514,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20435,7 +20528,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -20449,7 +20542,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -20463,7 +20556,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -20477,7 +20570,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -20505,7 +20598,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -20519,7 +20612,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -20533,7 +20626,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20561,7 +20654,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -20603,7 +20696,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -20672,7 +20765,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B2">
         <v>231</v>
@@ -20686,7 +20779,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B3">
         <v>231</v>
@@ -20727,7 +20820,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B2">
         <v>198</v>
@@ -20783,7 +20876,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -20797,7 +20890,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -20811,7 +20904,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -20881,7 +20974,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -20895,7 +20988,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -20965,7 +21058,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20993,7 +21086,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -21007,7 +21100,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -21021,7 +21114,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -21035,7 +21128,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -21049,7 +21142,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -21077,7 +21170,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21105,7 +21198,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -21119,7 +21212,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21133,7 +21226,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21147,7 +21240,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -21175,7 +21268,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21217,7 +21310,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -21286,7 +21379,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B2">
         <v>180</v>
@@ -21328,7 +21421,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -21370,7 +21463,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -21398,7 +21491,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -21412,7 +21505,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -21426,7 +21519,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -21440,7 +21533,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -21454,7 +21547,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -21468,7 +21561,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -21482,7 +21575,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -21496,7 +21589,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -21510,7 +21603,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -21524,7 +21617,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -21538,7 +21631,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -21552,7 +21645,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -21566,7 +21659,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -21622,7 +21715,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -21636,7 +21729,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21678,7 +21771,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21692,7 +21785,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21706,7 +21799,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -21734,7 +21827,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21748,7 +21841,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -21762,7 +21855,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -21776,7 +21869,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -21804,7 +21897,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -21818,7 +21911,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -21859,7 +21952,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B2">
         <v>158</v>
@@ -21873,7 +21966,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -21887,7 +21980,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -21901,7 +21994,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -21915,7 +22008,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -21971,7 +22064,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -21985,7 +22078,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -22041,7 +22134,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22082,7 +22175,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B2">
         <v>155</v>
@@ -22124,7 +22217,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -22138,7 +22231,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -22152,7 +22245,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -22180,7 +22273,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -22194,7 +22287,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -22208,7 +22301,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -22291,7 +22384,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B2">
         <v>146</v>
@@ -22305,7 +22398,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B3">
         <v>66</v>
@@ -22319,7 +22412,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -22333,7 +22426,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -22347,7 +22440,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -22361,7 +22454,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -22375,7 +22468,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -22403,7 +22496,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -22431,7 +22524,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -22445,7 +22538,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -22459,7 +22552,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -22473,7 +22566,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22487,7 +22580,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -22515,7 +22608,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -22529,7 +22622,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -22570,7 +22663,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B2">
         <v>138</v>
@@ -22598,7 +22691,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -22612,7 +22705,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -22626,7 +22719,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -22654,7 +22747,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -22668,7 +22761,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -22696,7 +22789,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -22738,7 +22831,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -22808,7 +22901,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -22822,7 +22915,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -22836,7 +22929,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -22850,7 +22943,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -22864,7 +22957,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -22892,7 +22985,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -23744,7 +23837,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B2">
         <v>137</v>
@@ -23758,7 +23851,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -23786,7 +23879,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -23800,7 +23893,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -23828,7 +23921,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -23842,7 +23935,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -23856,7 +23949,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -23911,10 +24004,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -23925,7 +24018,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B3">
         <v>52</v>
@@ -23967,7 +24060,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1071</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -23981,7 +24074,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>1075</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -23995,10 +24088,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -24036,7 +24129,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="B2">
         <v>130</v>
@@ -24050,7 +24143,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B3">
         <v>86</v>
@@ -24119,7 +24212,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="B2">
         <v>113</v>
@@ -24133,7 +24226,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -24147,7 +24240,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -24161,7 +24254,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -24175,7 +24268,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -24203,7 +24296,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24217,7 +24310,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -24231,7 +24324,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -24245,7 +24338,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24259,7 +24352,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -24287,7 +24380,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24301,7 +24394,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24315,7 +24408,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24329,7 +24422,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -24370,7 +24463,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B2">
         <v>95</v>
@@ -24384,7 +24477,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="B3">
         <v>58</v>
@@ -24412,7 +24505,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -24426,7 +24519,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -24440,7 +24533,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -24481,7 +24574,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -24509,7 +24602,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -24593,7 +24686,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24607,7 +24700,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24635,7 +24728,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24649,7 +24742,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24704,7 +24797,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -24718,7 +24811,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -24732,7 +24825,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -24746,7 +24839,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -24760,7 +24853,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -24774,7 +24867,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -24788,7 +24881,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24802,7 +24895,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -24816,7 +24909,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24844,7 +24937,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -24858,7 +24951,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24886,7 +24979,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24900,7 +24993,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24955,7 +25048,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -24969,7 +25062,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -25010,7 +25103,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="B2">
         <v>59</v>
@@ -25024,7 +25117,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -25038,7 +25131,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -25052,7 +25145,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -25066,7 +25159,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -25080,7 +25173,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>715</v>
+        <v>645</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -25094,7 +25187,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -25108,7 +25201,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -25122,7 +25215,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25136,7 +25229,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25188,7 +25281,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B2">
         <v>53</v>
@@ -25216,7 +25309,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -25230,7 +25323,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -25244,7 +25337,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -25258,7 +25351,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -25272,7 +25365,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -25314,7 +25407,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25886,7 +25979,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -25900,7 +25993,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -25914,7 +26007,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -25942,7 +26035,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -25956,7 +26049,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -25998,7 +26091,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26012,7 +26105,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26026,7 +26119,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26054,7 +26147,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26095,7 +26188,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -26109,7 +26202,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -26123,7 +26216,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -26165,7 +26258,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -26193,7 +26286,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -26235,7 +26328,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -26249,7 +26342,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -26263,7 +26356,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -26277,7 +26370,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -26291,7 +26384,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26333,7 +26426,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -26374,7 +26467,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -26471,7 +26564,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="B2">
         <v>46</v>
@@ -26485,7 +26578,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -26499,7 +26592,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -26513,7 +26606,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -26527,7 +26620,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -26569,7 +26662,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -26583,7 +26676,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26597,7 +26690,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26611,7 +26704,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26625,7 +26718,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -26639,7 +26732,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26653,7 +26746,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -26667,7 +26760,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26708,7 +26801,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -26722,7 +26815,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -26763,7 +26856,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -26819,7 +26912,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -26857,7 +26950,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B2">
         <v>17</v>
@@ -26912,7 +27005,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B2">
         <v>4</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -19,8 +19,8 @@
     <sheet name="Pennsylvania" sheetId="10" r:id="rId10"/>
     <sheet name="Georgia" sheetId="11" r:id="rId11"/>
     <sheet name="Texas" sheetId="12" r:id="rId12"/>
-    <sheet name="Colorado" sheetId="13" r:id="rId13"/>
-    <sheet name="Tennessee" sheetId="14" r:id="rId14"/>
+    <sheet name="Tennessee" sheetId="13" r:id="rId13"/>
+    <sheet name="Colorado" sheetId="14" r:id="rId14"/>
     <sheet name="Connecticut" sheetId="15" r:id="rId15"/>
     <sheet name="Ohio" sheetId="16" r:id="rId16"/>
     <sheet name="Wisconsin" sheetId="17" r:id="rId17"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1172">
   <si>
     <t>confirmed</t>
   </si>
@@ -117,12 +117,12 @@
     <t>Monroe</t>
   </si>
   <si>
+    <t>Onondaga</t>
+  </si>
+  <si>
     <t>Putnam</t>
   </si>
   <si>
-    <t>Onondaga</t>
-  </si>
-  <si>
     <t>Ulster</t>
   </si>
   <si>
@@ -345,15 +345,15 @@
     <t>Marin</t>
   </si>
   <si>
+    <t>San Luis Obispo</t>
+  </si>
+  <si>
     <t>San Bernardino</t>
   </si>
   <si>
     <t>Ventura</t>
   </si>
   <si>
-    <t>San Luis Obispo</t>
-  </si>
-  <si>
     <t>Sonoma</t>
   </si>
   <si>
@@ -363,15 +363,15 @@
     <t>Placer</t>
   </si>
   <si>
+    <t>Kern</t>
+  </si>
+  <si>
     <t>Santa Barbara</t>
   </si>
   <si>
     <t>Santa Cruz</t>
   </si>
   <si>
-    <t>Kern</t>
-  </si>
-  <si>
     <t>Monterey</t>
   </si>
   <si>
@@ -1428,15 +1428,15 @@
     <t>Williamson</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
     <t>Bell</t>
   </si>
   <si>
     <t>Lubbock</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t>Nueces</t>
   </si>
   <si>
@@ -1638,6 +1638,93 @@
     <t>Karnes</t>
   </si>
   <si>
+    <t>Tennessee (State-level)</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Out-of-state</t>
+  </si>
+  <si>
+    <t>Sumner</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Tipton</t>
+  </si>
+  <si>
+    <t>Cheatham</t>
+  </si>
+  <si>
+    <t>Dickson</t>
+  </si>
+  <si>
+    <t>Maury</t>
+  </si>
+  <si>
+    <t>Loudon</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Blount</t>
+  </si>
+  <si>
+    <t>Sevier</t>
+  </si>
+  <si>
+    <t>Dyer</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>McMinn</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Hamblen</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Dekalb</t>
+  </si>
+  <si>
+    <t>Cocke</t>
+  </si>
+  <si>
+    <t>Roane</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Overton</t>
+  </si>
+  <si>
+    <t>Bedford</t>
+  </si>
+  <si>
+    <t>Hawkins</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
     <t>Colorado (State-level)</t>
   </si>
   <si>
@@ -1731,91 +1818,7 @@
     <t>Otero</t>
   </si>
   <si>
-    <t>Tennessee (State-level)</t>
-  </si>
-  <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>Out-of-state</t>
-  </si>
-  <si>
-    <t>Sumner</t>
-  </si>
-  <si>
-    <t>Knox</t>
-  </si>
-  <si>
-    <t>Rutherford</t>
-  </si>
-  <si>
-    <t>Cheatham</t>
-  </si>
-  <si>
-    <t>Dickson</t>
-  </si>
-  <si>
-    <t>Maury</t>
-  </si>
-  <si>
-    <t>Tipton</t>
-  </si>
-  <si>
-    <t>Loudon</t>
-  </si>
-  <si>
-    <t>Bradley</t>
-  </si>
-  <si>
-    <t>Blount</t>
-  </si>
-  <si>
-    <t>Dyer</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>McMinn</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>Sevier</t>
-  </si>
-  <si>
-    <t>Hamblen</t>
-  </si>
-  <si>
-    <t>Gibson</t>
-  </si>
-  <si>
-    <t>Dekalb</t>
-  </si>
-  <si>
-    <t>Cocke</t>
-  </si>
-  <si>
-    <t>Roane</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Perry</t>
-  </si>
-  <si>
-    <t>Overton</t>
-  </si>
-  <si>
-    <t>Bedford</t>
-  </si>
-  <si>
-    <t>Hawkins</t>
-  </si>
-  <si>
-    <t>Cannon</t>
+    <t>Kit Carson</t>
   </si>
   <si>
     <t>Connecticut (State-level)</t>
@@ -2082,6 +2085,9 @@
     <t>Bertie</t>
   </si>
   <si>
+    <t>Lenoir</t>
+  </si>
+  <si>
     <t>Beaufort</t>
   </si>
   <si>
@@ -2106,9 +2112,6 @@
     <t>Transylvania</t>
   </si>
   <si>
-    <t>Lenoir</t>
-  </si>
-  <si>
     <t>McDowell</t>
   </si>
   <si>
@@ -2340,15 +2343,15 @@
     <t>St. Louis City</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>Cole</t>
   </si>
   <si>
     <t>Platte</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Cape Girardeau</t>
   </si>
   <si>
@@ -2388,6 +2391,12 @@
     <t>Bollinger</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Stoddard</t>
+  </si>
+  <si>
     <t>Mississippi (State-level)</t>
   </si>
   <si>
@@ -2571,6 +2580,9 @@
     <t>Rockingham</t>
   </si>
   <si>
+    <t>Fluvanna</t>
+  </si>
+  <si>
     <t>Manassas City</t>
   </si>
   <si>
@@ -2610,9 +2622,6 @@
     <t>Amherst</t>
   </si>
   <si>
-    <t>Fluvanna</t>
-  </si>
-  <si>
     <t>Halifax</t>
   </si>
   <si>
@@ -3043,9 +3052,6 @@
   </si>
   <si>
     <t>Okmulgee</t>
-  </si>
-  <si>
-    <t>Carter</t>
   </si>
   <si>
     <t>Craig</t>
@@ -3962,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>37769</v>
+        <v>37797</v>
       </c>
       <c r="C2">
         <v>385</v>
@@ -4116,13 +4122,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4130,13 +4136,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6882,13 +6888,13 @@
         <v>438</v>
       </c>
       <c r="B2">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7106,13 +7112,13 @@
         <v>452</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7120,13 +7126,13 @@
         <v>453</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7134,13 +7140,13 @@
         <v>454</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7291,10 +7297,10 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8294,565 +8300,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B2">
-        <v>1087</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B3">
-        <v>214</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4">
-        <v>122</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B5">
-        <v>120</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>93</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7">
-        <v>88</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B8">
-        <v>87</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9">
-        <v>58</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B10">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B11">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B12">
-        <v>45</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B14">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D59"/>
   <sheetViews>
@@ -8876,10 +8323,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="B2">
-        <v>1012</v>
+        <v>1096</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -8890,7 +8337,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="B3">
         <v>293</v>
@@ -8918,10 +8365,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8935,7 +8382,7 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8949,7 +8396,7 @@
         <v>451</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8960,10 +8407,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8988,10 +8435,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -9002,10 +8449,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -9019,7 +8466,7 @@
         <v>504</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -9033,7 +8480,7 @@
         <v>505</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -9044,10 +8491,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -9058,10 +8505,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -9072,10 +8519,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>559</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -9086,10 +8533,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>528</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -9100,7 +8547,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -9114,7 +8561,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -9128,10 +8575,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -9142,7 +8589,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -9156,7 +8603,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>562</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -9170,7 +8617,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -9184,7 +8631,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -9198,7 +8645,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -9212,7 +8659,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>565</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -9226,10 +8673,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>342</v>
+        <v>534</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -9240,7 +8687,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -9254,7 +8701,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -9268,7 +8715,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -9282,7 +8729,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>568</v>
+        <v>363</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -9296,7 +8743,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>380</v>
+        <v>537</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -9310,10 +8757,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>538</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -9324,10 +8771,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>569</v>
+        <v>380</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -9338,7 +8785,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -9352,7 +8799,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -9366,7 +8813,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -9450,7 +8897,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -9492,7 +8939,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -9506,7 +8953,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -9520,7 +8967,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -9534,7 +8981,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -9590,7 +9037,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -9604,7 +9051,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -9618,7 +9065,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -9660,7 +9107,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -9683,6 +9130,579 @@
         <v>0</v>
       </c>
       <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2">
+        <v>1088</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3">
+        <v>214</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B8">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -9715,21 +9735,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B2">
-        <v>936</v>
+        <v>1012</v>
       </c>
       <c r="C2">
         <v>19</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B3">
         <v>607</v>
@@ -9743,38 +9763,38 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B4">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B5">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -9785,16 +9805,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>11.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9802,7 +9822,7 @@
         <v>61</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -9813,10 +9833,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -9827,10 +9847,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -9868,7 +9888,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B2">
         <v>868</v>
@@ -9882,7 +9902,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B3">
         <v>259</v>
@@ -9924,7 +9944,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B6">
         <v>51</v>
@@ -9938,7 +9958,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -9952,7 +9972,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B8">
         <v>44</v>
@@ -9966,7 +9986,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -10008,7 +10028,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -10036,7 +10056,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -10078,7 +10098,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -10106,7 +10126,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -10120,7 +10140,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -10134,7 +10154,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -10148,7 +10168,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -10162,7 +10182,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -10176,7 +10196,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -10190,7 +10210,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -10204,7 +10224,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -10246,7 +10266,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -10260,7 +10280,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -10274,7 +10294,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -10302,7 +10322,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -10386,7 +10406,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -10414,7 +10434,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -10428,7 +10448,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -10470,7 +10490,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -10498,7 +10518,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -10512,7 +10532,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -10526,7 +10546,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -10554,7 +10574,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -10568,7 +10588,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -10596,7 +10616,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -10666,7 +10686,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -10680,7 +10700,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -10708,7 +10728,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -10749,35 +10769,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B2">
         <v>708</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B3">
         <v>347</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B4">
         <v>114</v>
@@ -10791,7 +10811,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B5">
         <v>56</v>
@@ -10819,7 +10839,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -10833,7 +10853,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -10847,7 +10867,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B9">
         <v>17</v>
@@ -10861,7 +10881,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -10875,7 +10895,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -10889,7 +10909,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -10903,7 +10923,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -10917,7 +10937,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -10945,7 +10965,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -10959,7 +10979,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -11001,7 +11021,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -11029,7 +11049,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -11085,7 +11105,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -11099,7 +11119,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -11113,7 +11133,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -11127,7 +11147,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11141,7 +11161,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -11169,7 +11189,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11183,7 +11203,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -11239,7 +11259,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -11253,7 +11273,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -11267,7 +11287,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -11281,7 +11301,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -11322,10 +11342,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -11336,7 +11356,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B3">
         <v>204</v>
@@ -11350,7 +11370,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B4">
         <v>84</v>
@@ -11364,7 +11384,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B5">
         <v>84</v>
@@ -11392,7 +11412,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -11406,7 +11426,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -11434,7 +11454,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -11462,7 +11482,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -11476,7 +11496,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -11490,7 +11510,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -11504,7 +11524,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -11518,7 +11538,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -11532,7 +11552,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -11546,7 +11566,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -11602,7 +11622,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -11616,7 +11636,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -11630,7 +11650,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -11658,7 +11678,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -11672,7 +11692,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -11700,7 +11720,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -11728,7 +11748,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -11742,7 +11762,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -11756,7 +11776,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -11770,7 +11790,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11798,7 +11818,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -11812,7 +11832,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -11826,7 +11846,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -11840,10 +11860,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -11854,7 +11874,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -11868,7 +11888,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>247</v>
+        <v>675</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -11882,7 +11902,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>674</v>
+        <v>247</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -11896,7 +11916,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -11910,7 +11930,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -11924,7 +11944,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -11938,7 +11958,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -11952,7 +11972,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -11980,7 +12000,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -11994,7 +12014,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -12022,7 +12042,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -12036,7 +12056,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -12050,7 +12070,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -12064,7 +12084,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -12078,7 +12098,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -12106,7 +12126,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -12148,7 +12168,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -12162,7 +12182,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -12176,7 +12196,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -12190,7 +12210,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -12245,7 +12265,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B2">
         <v>645</v>
@@ -12315,7 +12335,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -12329,7 +12349,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -12371,7 +12391,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -12399,7 +12419,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -12427,7 +12447,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -12455,7 +12475,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -12483,7 +12503,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -12511,7 +12531,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -12525,7 +12545,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -12553,7 +12573,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -12567,7 +12587,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -12595,7 +12615,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -12609,7 +12629,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -12637,7 +12657,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -12679,7 +12699,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -12693,7 +12713,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12721,7 +12741,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -12735,7 +12755,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -12763,7 +12783,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -12777,7 +12797,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -12833,7 +12853,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -12847,7 +12867,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -12875,7 +12895,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -12889,7 +12909,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -12903,7 +12923,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -12917,7 +12937,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -12931,7 +12951,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -12945,7 +12965,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -12987,7 +13007,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -13071,7 +13091,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -13085,7 +13105,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -13475,7 +13495,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B2">
         <v>583</v>
@@ -13503,7 +13523,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -13517,7 +13537,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -13531,7 +13551,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B6">
         <v>72</v>
@@ -13545,7 +13565,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B7">
         <v>49</v>
@@ -13559,7 +13579,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -13573,7 +13593,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -13587,7 +13607,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -13601,7 +13621,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -13629,7 +13649,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -13643,7 +13663,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -13671,7 +13691,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -13685,7 +13705,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -13699,7 +13719,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -13727,7 +13747,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -13741,7 +13761,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -13755,7 +13775,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -13824,7 +13844,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B2">
         <v>521</v>
@@ -13866,7 +13886,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B5">
         <v>57</v>
@@ -13894,7 +13914,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -13908,7 +13928,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -13922,7 +13942,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13936,7 +13956,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -13977,7 +13997,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B2">
         <v>508</v>
@@ -13991,7 +14011,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B3">
         <v>299</v>
@@ -14005,7 +14025,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -14019,7 +14039,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -14033,7 +14053,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -14047,7 +14067,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -14061,7 +14081,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -14075,7 +14095,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -14089,7 +14109,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -14103,7 +14123,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -14117,7 +14137,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -14131,7 +14151,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -14145,7 +14165,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -14159,7 +14179,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -14189,7 +14209,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14211,10 +14231,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -14225,7 +14245,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B3">
         <v>173</v>
@@ -14239,7 +14259,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B4">
         <v>64</v>
@@ -14253,7 +14273,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B5">
         <v>57</v>
@@ -14281,7 +14301,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -14337,10 +14357,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>168</v>
+        <v>757</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -14351,7 +14371,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>756</v>
+        <v>168</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -14365,7 +14385,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>468</v>
+        <v>758</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -14379,10 +14399,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>757</v>
+        <v>468</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -14393,10 +14413,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>258</v>
+        <v>759</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -14407,7 +14427,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -14435,7 +14455,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>758</v>
+        <v>546</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -14449,10 +14469,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>759</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -14463,7 +14483,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>375</v>
+        <v>760</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -14477,10 +14497,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>760</v>
+        <v>375</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -14491,7 +14511,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>411</v>
+        <v>761</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -14505,7 +14525,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>761</v>
+        <v>411</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -14533,7 +14553,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>577</v>
+        <v>763</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -14561,7 +14581,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -14617,7 +14637,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -14631,7 +14651,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -14645,7 +14665,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -14687,7 +14707,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -14701,7 +14721,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -14729,7 +14749,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -14743,7 +14763,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -14771,7 +14791,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -14799,7 +14819,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -14808,6 +14828,34 @@
         <v>0</v>
       </c>
       <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>0</v>
       </c>
     </row>
@@ -14840,7 +14888,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B2">
         <v>485</v>
@@ -14854,7 +14902,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B3">
         <v>49</v>
@@ -14868,7 +14916,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -14882,7 +14930,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -14896,7 +14944,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -14924,7 +14972,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -14938,7 +14986,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -14952,7 +15000,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -14994,7 +15042,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -15008,7 +15056,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15050,7 +15098,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -15078,7 +15126,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -15092,7 +15140,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -15120,7 +15168,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -15148,7 +15196,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -15162,7 +15210,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -15176,7 +15224,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -15190,7 +15238,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -15218,7 +15266,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -15246,7 +15294,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -15260,7 +15308,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -15274,7 +15322,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -15288,7 +15336,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -15316,7 +15364,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -15330,7 +15378,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -15358,7 +15406,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -15386,7 +15434,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -15400,7 +15448,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -15428,7 +15476,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -15442,7 +15490,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -15470,7 +15518,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -15484,7 +15532,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -15526,7 +15574,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -15554,7 +15602,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -15568,7 +15616,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -15582,7 +15630,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -15610,7 +15658,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -15624,7 +15672,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -15652,7 +15700,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -15666,7 +15714,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -15708,7 +15756,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -15722,7 +15770,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -15736,7 +15784,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -15791,10 +15839,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -15805,7 +15853,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -15819,7 +15867,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B4">
         <v>54</v>
@@ -15833,7 +15881,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B5">
         <v>49</v>
@@ -15847,7 +15895,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B6">
         <v>36</v>
@@ -15861,7 +15909,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -15875,7 +15923,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -15889,7 +15937,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -15903,7 +15951,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -15917,7 +15965,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -15931,7 +15979,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -15945,7 +15993,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -15973,7 +16021,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -15987,7 +16035,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -16015,7 +16063,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -16029,7 +16077,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -16043,7 +16091,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -16057,7 +16105,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -16071,7 +16119,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -16085,7 +16133,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -16099,7 +16147,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -16113,7 +16161,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -16127,7 +16175,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -16141,7 +16189,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -16155,7 +16203,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -16169,7 +16217,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -16183,7 +16231,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -16197,10 +16245,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -16211,7 +16259,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -16225,7 +16273,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>840</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -16239,7 +16287,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>837</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -16253,7 +16301,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -16267,7 +16315,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -16281,7 +16329,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>247</v>
+        <v>843</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -16295,7 +16343,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>840</v>
+        <v>247</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -16309,7 +16357,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -16323,7 +16371,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -16337,7 +16385,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>723</v>
+        <v>846</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -16351,10 +16399,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>843</v>
+        <v>724</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -16365,7 +16413,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -16379,7 +16427,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>848</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -16393,7 +16441,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -16407,7 +16455,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>845</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -16421,7 +16469,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -16449,7 +16497,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -16477,7 +16525,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -16491,7 +16539,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -16505,7 +16553,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -16519,7 +16567,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -16533,7 +16581,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -16547,7 +16595,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -16561,7 +16609,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -16575,7 +16623,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -16617,7 +16665,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -16631,7 +16679,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -16645,7 +16693,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -16659,7 +16707,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -16673,7 +16721,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -16711,7 +16759,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B2">
         <v>449</v>
@@ -16781,7 +16829,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -16823,7 +16871,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -16837,7 +16885,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16879,7 +16927,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -16921,7 +16969,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -16949,7 +16997,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -16977,7 +17025,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -16991,7 +17039,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -17005,7 +17053,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -17033,7 +17081,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -17103,7 +17151,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -17131,7 +17179,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -17243,7 +17291,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -17257,7 +17305,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -17271,7 +17319,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -17299,7 +17347,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -17355,7 +17403,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -17396,7 +17444,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B2">
         <v>424</v>
@@ -17410,7 +17458,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -17438,7 +17486,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B5">
         <v>52</v>
@@ -17452,7 +17500,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -17466,7 +17514,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -17480,7 +17528,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -17494,7 +17542,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -17508,7 +17556,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -17550,7 +17598,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -17564,7 +17612,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -17578,7 +17626,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -17620,7 +17668,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -17634,7 +17682,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -17648,7 +17696,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -17662,7 +17710,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -17676,7 +17724,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -17690,7 +17738,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -17704,7 +17752,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -17732,7 +17780,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -17746,7 +17794,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -17774,7 +17822,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -17816,7 +17864,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -17830,7 +17878,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -17844,7 +17892,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -17858,7 +17906,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -17872,7 +17920,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -17900,7 +17948,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17942,7 +17990,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -17983,7 +18031,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B2">
         <v>353</v>
@@ -17997,7 +18045,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B3">
         <v>151</v>
@@ -18011,7 +18059,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="B4">
         <v>89</v>
@@ -18025,7 +18073,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -18039,7 +18087,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -18053,7 +18101,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -18067,7 +18115,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -18081,7 +18129,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -18095,7 +18143,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -18123,7 +18171,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -18137,7 +18185,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -18151,7 +18199,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -18192,7 +18240,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B2">
         <v>346</v>
@@ -18206,7 +18254,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B3">
         <v>128</v>
@@ -18220,7 +18268,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -18234,7 +18282,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B5">
         <v>29</v>
@@ -18248,7 +18296,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -18290,7 +18338,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -18304,7 +18352,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -18318,7 +18366,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -18332,7 +18380,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -18346,7 +18394,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -18360,7 +18408,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -18374,7 +18422,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -18388,7 +18436,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -18416,7 +18464,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -18430,7 +18478,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -18458,7 +18506,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -18472,7 +18520,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -18486,7 +18534,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -18500,7 +18548,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -18514,7 +18562,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -18528,7 +18576,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -18542,7 +18590,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -18556,7 +18604,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -18612,7 +18660,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -18626,7 +18674,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -18640,7 +18688,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -18654,7 +18702,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -18668,7 +18716,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -18682,7 +18730,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -18696,7 +18744,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -18710,7 +18758,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -18754,10 +18802,10 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>3651</v>
+        <v>3707</v>
       </c>
       <c r="C2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>2.1</v>
@@ -18852,13 +18900,13 @@
         <v>85</v>
       </c>
       <c r="B9">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -18939,10 +18987,10 @@
         <v>54</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -18950,13 +18998,13 @@
         <v>92</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18964,13 +19012,13 @@
         <v>93</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19020,7 +19068,7 @@
         <v>97</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -19034,7 +19082,7 @@
         <v>98</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -19048,7 +19096,7 @@
         <v>99</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -19408,7 +19456,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B2">
         <v>335</v>
@@ -19436,7 +19484,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -19450,7 +19498,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -19492,7 +19540,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -19562,7 +19610,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -19590,7 +19638,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -19604,7 +19652,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -19618,7 +19666,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -19646,7 +19694,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -19660,7 +19708,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -19674,7 +19722,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -19688,7 +19736,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -19702,7 +19750,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -19716,7 +19764,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -19730,7 +19778,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -19744,7 +19792,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -19758,7 +19806,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -19814,7 +19862,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -19842,7 +19890,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -19870,7 +19918,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -19898,7 +19946,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -19912,7 +19960,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -19940,7 +19988,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -19954,7 +20002,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -19982,7 +20030,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -20037,7 +20085,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B2">
         <v>266</v>
@@ -20079,7 +20127,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -20093,7 +20141,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -20107,7 +20155,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -20121,7 +20169,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -20135,7 +20183,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -20163,7 +20211,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20219,7 +20267,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -20233,7 +20281,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -20247,7 +20295,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -20289,7 +20337,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -20303,7 +20351,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -20358,7 +20406,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B2">
         <v>248</v>
@@ -20372,7 +20420,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -20386,7 +20434,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -20400,7 +20448,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -20414,7 +20462,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -20428,7 +20476,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -20442,7 +20490,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -20456,7 +20504,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -20470,7 +20518,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -20484,7 +20532,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20512,7 +20560,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -20526,7 +20574,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -20554,7 +20602,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -20568,7 +20616,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -20582,7 +20630,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20596,7 +20644,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20610,7 +20658,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -20624,7 +20672,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -20638,7 +20686,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -20652,7 +20700,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -20666,7 +20714,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -20680,7 +20728,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -20708,7 +20756,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20736,7 +20784,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>991</v>
+        <v>773</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -20778,7 +20826,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -20820,7 +20868,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -20861,7 +20909,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B2">
         <v>231</v>
@@ -20875,7 +20923,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B3">
         <v>231</v>
@@ -20916,7 +20964,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B2">
         <v>198</v>
@@ -20972,7 +21020,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -20986,7 +21034,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -21000,7 +21048,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -21070,7 +21118,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -21084,7 +21132,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -21098,7 +21146,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -21154,7 +21202,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -21182,7 +21230,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -21196,7 +21244,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -21210,7 +21258,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -21224,7 +21272,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -21238,7 +21286,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -21266,7 +21314,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21294,7 +21342,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -21308,7 +21356,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21322,7 +21370,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21336,7 +21384,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -21350,7 +21398,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -21364,7 +21412,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21392,7 +21440,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -21406,7 +21454,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -21475,7 +21523,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B2">
         <v>181</v>
@@ -21489,7 +21537,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B3">
         <v>91</v>
@@ -21545,7 +21593,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -21600,7 +21648,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B2">
         <v>180</v>
@@ -21642,7 +21690,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -21684,7 +21732,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -21698,7 +21746,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -21712,7 +21760,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -21726,7 +21774,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -21740,7 +21788,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -21754,7 +21802,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -21768,7 +21816,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -21782,7 +21830,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -21796,7 +21844,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -21810,7 +21858,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -21824,7 +21872,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -21838,7 +21886,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -21852,7 +21900,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -21866,7 +21914,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -21880,7 +21928,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -21936,7 +21984,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -21950,7 +21998,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21992,7 +22040,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -22006,7 +22054,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -22020,7 +22068,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -22048,7 +22096,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -22062,7 +22110,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -22076,7 +22124,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -22090,7 +22138,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -22118,7 +22166,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -22132,7 +22180,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -22173,7 +22221,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B2">
         <v>158</v>
@@ -22187,7 +22235,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -22201,7 +22249,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -22215,7 +22263,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -22229,7 +22277,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -22271,7 +22319,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -22285,7 +22333,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -22299,7 +22347,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -22355,7 +22403,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22396,7 +22444,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B2">
         <v>155</v>
@@ -22438,7 +22486,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -22452,7 +22500,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -22466,7 +22514,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -22494,7 +22542,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -22508,7 +22556,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -22522,7 +22570,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -22536,7 +22584,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -22605,7 +22653,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B2">
         <v>146</v>
@@ -22619,7 +22667,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B3">
         <v>66</v>
@@ -22633,7 +22681,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -22647,7 +22695,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -22661,7 +22709,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -22675,7 +22723,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -22689,7 +22737,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -22717,7 +22765,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -22745,7 +22793,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -22759,7 +22807,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -22773,7 +22821,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -22787,7 +22835,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22801,7 +22849,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -22815,7 +22863,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -22829,7 +22877,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -22843,7 +22891,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -23695,7 +23743,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B2">
         <v>138</v>
@@ -23723,7 +23771,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -23737,7 +23785,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -23751,7 +23799,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -23779,7 +23827,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -23793,7 +23841,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -23821,7 +23869,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -23863,7 +23911,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -23933,7 +23981,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -23947,7 +23995,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -23961,7 +24009,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -23975,7 +24023,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -23989,7 +24037,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -24017,7 +24065,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -24058,7 +24106,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B2">
         <v>137</v>
@@ -24072,7 +24120,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -24100,7 +24148,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -24114,7 +24162,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -24142,7 +24190,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -24156,7 +24204,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -24170,7 +24218,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -24225,7 +24273,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B2">
         <v>130</v>
@@ -24239,7 +24287,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B3">
         <v>86</v>
@@ -24308,7 +24356,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B2">
         <v>113</v>
@@ -24322,7 +24370,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -24336,7 +24384,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -24350,7 +24398,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -24364,7 +24412,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -24392,7 +24440,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24406,7 +24454,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -24420,7 +24468,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -24434,7 +24482,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24448,7 +24496,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -24462,7 +24510,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24476,7 +24524,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24490,7 +24538,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24504,7 +24552,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24518,7 +24566,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -24559,7 +24607,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B2">
         <v>95</v>
@@ -24573,7 +24621,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B3">
         <v>58</v>
@@ -24601,7 +24649,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -24615,7 +24663,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -24629,7 +24677,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -24670,7 +24718,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -24698,7 +24746,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -24754,7 +24802,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -24782,7 +24830,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24796,7 +24844,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24824,7 +24872,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24838,7 +24886,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24893,7 +24941,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -24907,7 +24955,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -24921,7 +24969,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -24935,7 +24983,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -24949,7 +24997,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -24963,7 +25011,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -24977,7 +25025,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24991,7 +25039,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -25005,7 +25053,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -25033,7 +25081,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -25047,7 +25095,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -25075,7 +25123,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -25089,7 +25137,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -25144,7 +25192,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -25158,7 +25206,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -25199,7 +25247,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B2">
         <v>59</v>
@@ -25213,7 +25261,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -25227,7 +25275,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -25241,7 +25289,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -25255,7 +25303,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -25269,7 +25317,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -25283,7 +25331,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -25297,7 +25345,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -25311,7 +25359,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25325,7 +25373,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25377,7 +25425,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B2">
         <v>53</v>
@@ -25391,7 +25439,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -25405,7 +25453,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -25419,7 +25467,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -25433,7 +25481,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -25447,7 +25495,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -25461,7 +25509,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -25475,7 +25523,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -25489,7 +25537,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25503,7 +25551,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26075,7 +26123,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -26089,7 +26137,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -26103,7 +26151,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -26131,7 +26179,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -26145,7 +26193,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -26159,7 +26207,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -26187,7 +26235,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26201,7 +26249,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26215,7 +26263,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26243,7 +26291,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26284,7 +26332,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -26298,7 +26346,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -26312,7 +26360,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -26354,7 +26402,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -26382,7 +26430,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -26410,7 +26458,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -26424,7 +26472,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -26438,7 +26486,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -26452,7 +26500,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -26466,7 +26514,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -26480,7 +26528,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26522,7 +26570,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -26563,7 +26611,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -26660,7 +26708,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B2">
         <v>46</v>
@@ -26674,7 +26722,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -26688,7 +26736,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -26702,7 +26750,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -26716,7 +26764,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -26758,7 +26806,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -26772,7 +26820,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26786,7 +26834,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26800,7 +26848,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26814,7 +26862,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -26828,7 +26876,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26842,7 +26890,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -26856,7 +26904,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26897,7 +26945,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -26911,7 +26959,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -26952,7 +27000,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -27008,7 +27056,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -27046,7 +27094,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B2">
         <v>17</v>
@@ -27101,7 +27149,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -27693,10 +27741,10 @@
         <v>2417</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -27707,10 +27755,10 @@
         <v>538</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -27721,10 +27769,10 @@
         <v>448</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -27735,10 +27783,10 @@
         <v>292</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -27763,10 +27811,10 @@
         <v>247</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -27777,10 +27825,10 @@
         <v>166</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -27847,10 +27895,10 @@
         <v>55</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -27875,10 +27923,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -28316,7 +28364,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>12</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -43,10 +43,10 @@
     <sheet name="Kentucky" sheetId="34" r:id="rId34"/>
     <sheet name="Rhode Island" sheetId="35" r:id="rId35"/>
     <sheet name="Iowa" sheetId="36" r:id="rId36"/>
-    <sheet name="Vermont" sheetId="37" r:id="rId37"/>
-    <sheet name="Maine" sheetId="38" r:id="rId38"/>
-    <sheet name="Idaho" sheetId="39" r:id="rId39"/>
-    <sheet name="Kansas" sheetId="40" r:id="rId40"/>
+    <sheet name="Kansas" sheetId="37" r:id="rId37"/>
+    <sheet name="Vermont" sheetId="38" r:id="rId38"/>
+    <sheet name="Maine" sheetId="39" r:id="rId39"/>
+    <sheet name="Idaho" sheetId="40" r:id="rId40"/>
     <sheet name="New Hampshire" sheetId="41" r:id="rId41"/>
     <sheet name="Delaware" sheetId="42" r:id="rId42"/>
     <sheet name="New Mexico" sheetId="43" r:id="rId43"/>
@@ -138,12 +138,12 @@
     <t>Rensselaer</t>
   </si>
   <si>
+    <t>Columbia</t>
+  </si>
+  <si>
     <t>Tompkins</t>
   </si>
   <si>
-    <t>Columbia</t>
-  </si>
-  <si>
     <t>Broome</t>
   </si>
   <si>
@@ -330,12 +330,12 @@
     <t>Alameda</t>
   </si>
   <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
     <t>Sacramento</t>
   </si>
   <si>
-    <t>Contra Costa</t>
-  </si>
-  <si>
     <t>Riverside</t>
   </si>
   <si>
@@ -405,15 +405,18 @@
     <t>Napa</t>
   </si>
   <si>
+    <t>Butte</t>
+  </si>
+  <si>
     <t>Mono</t>
   </si>
   <si>
-    <t>Butte</t>
-  </si>
-  <si>
     <t>Shasta</t>
   </si>
   <si>
+    <t>Calaveras</t>
+  </si>
+  <si>
     <t>El Dorado</t>
   </si>
   <si>
@@ -423,9 +426,6 @@
     <t>Yuba</t>
   </si>
   <si>
-    <t>Calaveras</t>
-  </si>
-  <si>
     <t>Mendocino</t>
   </si>
   <si>
@@ -435,12 +435,12 @@
     <t>Merced</t>
   </si>
   <si>
+    <t>Inyo</t>
+  </si>
+  <si>
     <t>Sutter</t>
   </si>
   <si>
-    <t>Inyo</t>
-  </si>
-  <si>
     <t>Michigan (State-level)</t>
   </si>
   <si>
@@ -642,6 +642,9 @@
     <t>Klickitat</t>
   </si>
   <si>
+    <t>Douglas</t>
+  </si>
+  <si>
     <t>Clallam</t>
   </si>
   <si>
@@ -666,9 +669,6 @@
     <t>Whitman</t>
   </si>
   <si>
-    <t>Douglas</t>
-  </si>
-  <si>
     <t>Grays Harbor</t>
   </si>
   <si>
@@ -2544,15 +2544,15 @@
     <t>Chesterfield</t>
   </si>
   <si>
+    <t>Stafford</t>
+  </si>
+  <si>
     <t>Charlottesville</t>
   </si>
   <si>
     <t>Newport News</t>
   </si>
   <si>
-    <t>Stafford</t>
-  </si>
-  <si>
     <t>Albemarle</t>
   </si>
   <si>
@@ -3183,6 +3183,36 @@
     <t>Monona</t>
   </si>
   <si>
+    <t>Kansas (State-level)</t>
+  </si>
+  <si>
+    <t>Wyandotte</t>
+  </si>
+  <si>
+    <t>Leavenworth</t>
+  </si>
+  <si>
+    <t>Sedgwick</t>
+  </si>
+  <si>
+    <t>Shawnee</t>
+  </si>
+  <si>
+    <t>Reno</t>
+  </si>
+  <si>
+    <t>Doniphan</t>
+  </si>
+  <si>
+    <t>Woodson</t>
+  </si>
+  <si>
+    <t>Neosho</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
     <t>Vermont (State-level)</t>
   </si>
   <si>
@@ -3268,36 +3298,6 @@
   </si>
   <si>
     <t>Idaho</t>
-  </si>
-  <si>
-    <t>Kansas (State-level)</t>
-  </si>
-  <si>
-    <t>Wyandotte</t>
-  </si>
-  <si>
-    <t>Leavenworth</t>
-  </si>
-  <si>
-    <t>Sedgwick</t>
-  </si>
-  <si>
-    <t>Shawnee</t>
-  </si>
-  <si>
-    <t>Reno</t>
-  </si>
-  <si>
-    <t>Doniphan</t>
-  </si>
-  <si>
-    <t>Woodson</t>
-  </si>
-  <si>
-    <t>Neosho</t>
-  </si>
-  <si>
-    <t>Riley</t>
   </si>
   <si>
     <t>New Hampshire (State-level)</t>
@@ -3968,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>37797</v>
+        <v>37802</v>
       </c>
       <c r="C2">
         <v>385</v>
@@ -4220,7 +4220,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -8326,7 +8326,7 @@
         <v>522</v>
       </c>
       <c r="B2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -8424,13 +8424,13 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8925,7 +8925,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>58</v>
@@ -9741,10 +9741,10 @@
         <v>1012</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9755,10 +9755,10 @@
         <v>607</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9825,10 +9825,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10993,7 +10993,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -11063,7 +11063,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -13900,7 +13900,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -14805,7 +14805,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>772</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -14819,7 +14819,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>772</v>
+        <v>186</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -15842,7 +15842,7 @@
         <v>813</v>
       </c>
       <c r="B2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -15996,7 +15996,7 @@
         <v>824</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -16007,30 +16007,30 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>334</v>
+        <v>825</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>825</v>
+        <v>334</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -16038,13 +16038,13 @@
         <v>826</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18802,7 +18802,7 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>3707</v>
+        <v>3802</v>
       </c>
       <c r="C2">
         <v>78</v>
@@ -18855,44 +18855,44 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B8">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18914,13 +18914,13 @@
         <v>86</v>
       </c>
       <c r="B10">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -18928,13 +18928,13 @@
         <v>87</v>
       </c>
       <c r="B11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -19264,7 +19264,7 @@
         <v>111</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -19348,7 +19348,7 @@
         <v>117</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -19418,7 +19418,7 @@
         <v>122</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -19848,7 +19848,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -20239,7 +20239,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -22199,6 +22199,369 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B2">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22221,7 +22584,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="B2">
         <v>158</v>
@@ -22235,7 +22598,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -22249,7 +22612,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -22263,7 +22626,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -22277,7 +22640,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -22333,7 +22696,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -22347,7 +22710,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -22403,7 +22766,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22420,7 +22783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -22444,7 +22807,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="B2">
         <v>155</v>
@@ -22486,7 +22849,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -22500,7 +22863,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -22514,7 +22877,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -22542,7 +22905,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -22556,7 +22919,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -22570,7 +22933,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -22621,285 +22984,6 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B2">
-        <v>146</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B3">
-        <v>66</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B4">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
         <v>0</v>
       </c>
     </row>
@@ -23721,7 +23805,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23743,52 +23827,52 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>468</v>
+        <v>1063</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -23799,10 +23883,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -23813,10 +23897,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>198</v>
+        <v>1067</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -23827,10 +23911,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>965</v>
+        <v>1068</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -23841,10 +23925,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>740</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -23855,10 +23939,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>336</v>
+        <v>1069</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -23869,10 +23953,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1070</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -23883,10 +23967,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>364</v>
+        <v>1070</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -23897,10 +23981,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>1071</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -23911,10 +23995,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -23925,10 +24009,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>378</v>
+        <v>1073</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -23939,10 +24023,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>355</v>
+        <v>1074</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -23953,7 +24037,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>578</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -23967,7 +24051,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>1075</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -23981,7 +24065,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -23990,90 +24074,6 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
         <v>0</v>
       </c>
     </row>
@@ -24426,7 +24426,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -24732,7 +24732,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>44</v>
@@ -25467,7 +25467,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -25623,7 +25623,7 @@
         <v>173</v>
       </c>
       <c r="B2">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="C2">
         <v>134</v>
@@ -25889,7 +25889,7 @@
         <v>190</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -25903,7 +25903,7 @@
         <v>191</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -25917,7 +25917,7 @@
         <v>192</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -26026,7 +26026,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -27666,7 +27666,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -28574,7 +28574,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>3</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -10,8 +10,8 @@
     <sheet name="New York" sheetId="1" r:id="rId1"/>
     <sheet name="New Jersey" sheetId="2" r:id="rId2"/>
     <sheet name="California" sheetId="3" r:id="rId3"/>
-    <sheet name="Michigan" sheetId="4" r:id="rId4"/>
-    <sheet name="Washington" sheetId="5" r:id="rId5"/>
+    <sheet name="Washington" sheetId="4" r:id="rId4"/>
+    <sheet name="Michigan" sheetId="5" r:id="rId5"/>
     <sheet name="Illinois" sheetId="6" r:id="rId6"/>
     <sheet name="Massachusetts" sheetId="7" r:id="rId7"/>
     <sheet name="Florida" sheetId="8" r:id="rId8"/>
@@ -28,8 +28,8 @@
     <sheet name="Indiana" sheetId="19" r:id="rId19"/>
     <sheet name="Maryland" sheetId="20" r:id="rId20"/>
     <sheet name="Nevada" sheetId="21" r:id="rId21"/>
-    <sheet name="Arizona" sheetId="22" r:id="rId22"/>
-    <sheet name="Missouri" sheetId="23" r:id="rId23"/>
+    <sheet name="Missouri" sheetId="22" r:id="rId22"/>
+    <sheet name="Arizona" sheetId="23" r:id="rId23"/>
     <sheet name="Mississippi" sheetId="24" r:id="rId24"/>
     <sheet name="Virginia" sheetId="25" r:id="rId25"/>
     <sheet name="Alabama" sheetId="26" r:id="rId26"/>
@@ -41,9 +41,9 @@
     <sheet name="Oklahoma" sheetId="32" r:id="rId32"/>
     <sheet name="Washington D.C." sheetId="33" r:id="rId33"/>
     <sheet name="Kentucky" sheetId="34" r:id="rId34"/>
-    <sheet name="Rhode Island" sheetId="35" r:id="rId35"/>
-    <sheet name="Iowa" sheetId="36" r:id="rId36"/>
-    <sheet name="Kansas" sheetId="37" r:id="rId37"/>
+    <sheet name="Iowa" sheetId="35" r:id="rId35"/>
+    <sheet name="Kansas" sheetId="36" r:id="rId36"/>
+    <sheet name="Rhode Island" sheetId="37" r:id="rId37"/>
     <sheet name="Vermont" sheetId="38" r:id="rId38"/>
     <sheet name="Maine" sheetId="39" r:id="rId39"/>
     <sheet name="Idaho" sheetId="40" r:id="rId40"/>
@@ -441,6 +441,99 @@
     <t>Sutter</t>
   </si>
   <si>
+    <t>Washington (State-level)</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Snohomish</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>Whatcom</t>
+  </si>
+  <si>
+    <t>Skagit</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Spokane</t>
+  </si>
+  <si>
+    <t>Yakima</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Kitsap</t>
+  </si>
+  <si>
+    <t>Thurston</t>
+  </si>
+  <si>
+    <t>Benton</t>
+  </si>
+  <si>
+    <t>Chelan</t>
+  </si>
+  <si>
+    <t>Kittitas</t>
+  </si>
+  <si>
+    <t>Klickitat</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Clallam</t>
+  </si>
+  <si>
+    <t>Cowlitz</t>
+  </si>
+  <si>
+    <t>Whitman</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Walla Walla</t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Grays Harbor</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Ferry</t>
+  </si>
+  <si>
+    <t>Okanogan</t>
+  </si>
+  <si>
     <t>Michigan (State-level)</t>
   </si>
   <si>
@@ -591,99 +684,6 @@
     <t>Shiawassee</t>
   </si>
   <si>
-    <t>Washington (State-level)</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Snohomish</t>
-  </si>
-  <si>
-    <t>Pierce</t>
-  </si>
-  <si>
-    <t>Whatcom</t>
-  </si>
-  <si>
-    <t>Skagit</t>
-  </si>
-  <si>
-    <t>Island</t>
-  </si>
-  <si>
-    <t>Spokane</t>
-  </si>
-  <si>
-    <t>Yakima</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Kitsap</t>
-  </si>
-  <si>
-    <t>Thurston</t>
-  </si>
-  <si>
-    <t>Benton</t>
-  </si>
-  <si>
-    <t>Chelan</t>
-  </si>
-  <si>
-    <t>Kittitas</t>
-  </si>
-  <si>
-    <t>Klickitat</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Clallam</t>
-  </si>
-  <si>
-    <t>Cowlitz</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Walla Walla</t>
-  </si>
-  <si>
-    <t>Stevens</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>Whitman</t>
-  </si>
-  <si>
-    <t>Grays Harbor</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>Ferry</t>
-  </si>
-  <si>
-    <t>Okanogan</t>
-  </si>
-  <si>
     <t>Illinois (State-level)</t>
   </si>
   <si>
@@ -1458,12 +1458,12 @@
     <t>Guadalupe</t>
   </si>
   <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
     <t>Comal</t>
   </si>
   <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
     <t>Ellis</t>
   </si>
   <si>
@@ -2295,6 +2295,75 @@
     <t>Lyon</t>
   </si>
   <si>
+    <t>Missouri (State-level)</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Platte</t>
+  </si>
+  <si>
+    <t>Cape Girardeau</t>
+  </si>
+  <si>
+    <t>Dunklin</t>
+  </si>
+  <si>
+    <t>St. Francois</t>
+  </si>
+  <si>
+    <t>Moniteau</t>
+  </si>
+  <si>
+    <t>Callaway</t>
+  </si>
+  <si>
+    <t>Adair</t>
+  </si>
+  <si>
+    <t>Bates</t>
+  </si>
+  <si>
+    <t>Taney</t>
+  </si>
+  <si>
+    <t>Pemiscot</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>Ralls</t>
+  </si>
+  <si>
+    <t>Bollinger</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Stoddard</t>
+  </si>
+  <si>
+    <t>Atchison</t>
+  </si>
+  <si>
     <t>Arizona (State-level)</t>
   </si>
   <si>
@@ -2331,72 +2400,6 @@
     <t>La Paz</t>
   </si>
   <si>
-    <t>Missouri (State-level)</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
-  </si>
-  <si>
-    <t>Kansas City</t>
-  </si>
-  <si>
-    <t>St. Louis City</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Cole</t>
-  </si>
-  <si>
-    <t>Platte</t>
-  </si>
-  <si>
-    <t>Cape Girardeau</t>
-  </si>
-  <si>
-    <t>Dunklin</t>
-  </si>
-  <si>
-    <t>St. Francois</t>
-  </si>
-  <si>
-    <t>Moniteau</t>
-  </si>
-  <si>
-    <t>Callaway</t>
-  </si>
-  <si>
-    <t>Adair</t>
-  </si>
-  <si>
-    <t>Bates</t>
-  </si>
-  <si>
-    <t>Taney</t>
-  </si>
-  <si>
-    <t>Pemiscot</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t>McDonald</t>
-  </si>
-  <si>
-    <t>Ralls</t>
-  </si>
-  <si>
-    <t>Bollinger</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>Stoddard</t>
-  </si>
-  <si>
     <t>Mississippi (State-level)</t>
   </si>
   <si>
@@ -3105,6 +3108,102 @@
     <t>Laurel</t>
   </si>
   <si>
+    <t>Iowa (State-level)</t>
+  </si>
+  <si>
+    <t>Allamakee</t>
+  </si>
+  <si>
+    <t>Muscatine</t>
+  </si>
+  <si>
+    <t>Dubuque</t>
+  </si>
+  <si>
+    <t>Black Hawk</t>
+  </si>
+  <si>
+    <t>Tama</t>
+  </si>
+  <si>
+    <t>Poweshiek</t>
+  </si>
+  <si>
+    <t>Cedar</t>
+  </si>
+  <si>
+    <t>Pottawattamie</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Woodbury</t>
+  </si>
+  <si>
+    <t>Cerro Gordo</t>
+  </si>
+  <si>
+    <t>Sioux</t>
+  </si>
+  <si>
+    <t>Winneshiek</t>
+  </si>
+  <si>
+    <t>Kossuth</t>
+  </si>
+  <si>
+    <t>Wapello</t>
+  </si>
+  <si>
+    <t>Buchanan</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Appanoose</t>
+  </si>
+  <si>
+    <t>Mahaska</t>
+  </si>
+  <si>
+    <t>Monona</t>
+  </si>
+  <si>
+    <t>Kansas (State-level)</t>
+  </si>
+  <si>
+    <t>Wyandotte</t>
+  </si>
+  <si>
+    <t>Sedgwick</t>
+  </si>
+  <si>
+    <t>Leavenworth</t>
+  </si>
+  <si>
+    <t>Reno</t>
+  </si>
+  <si>
+    <t>Shawnee</t>
+  </si>
+  <si>
+    <t>Doniphan</t>
+  </si>
+  <si>
+    <t>Woodson</t>
+  </si>
+  <si>
+    <t>Neosho</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
     <t>Rhode Island (State-level)</t>
   </si>
   <si>
@@ -3112,105 +3211,6 @@
   </si>
   <si>
     <t>Newport</t>
-  </si>
-  <si>
-    <t>Iowa (State-level)</t>
-  </si>
-  <si>
-    <t>Allamakee</t>
-  </si>
-  <si>
-    <t>Muscatine</t>
-  </si>
-  <si>
-    <t>Dubuque</t>
-  </si>
-  <si>
-    <t>Black Hawk</t>
-  </si>
-  <si>
-    <t>Tama</t>
-  </si>
-  <si>
-    <t>Poweshiek</t>
-  </si>
-  <si>
-    <t>Cedar</t>
-  </si>
-  <si>
-    <t>Pottawattamie</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Woodbury</t>
-  </si>
-  <si>
-    <t>Cerro Gordo</t>
-  </si>
-  <si>
-    <t>Sioux</t>
-  </si>
-  <si>
-    <t>Winneshiek</t>
-  </si>
-  <si>
-    <t>Kossuth</t>
-  </si>
-  <si>
-    <t>Wapello</t>
-  </si>
-  <si>
-    <t>Buchanan</t>
-  </si>
-  <si>
-    <t>Des Moines</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Atchison</t>
-  </si>
-  <si>
-    <t>Appanoose</t>
-  </si>
-  <si>
-    <t>Mahaska</t>
-  </si>
-  <si>
-    <t>Monona</t>
-  </si>
-  <si>
-    <t>Kansas (State-level)</t>
-  </si>
-  <si>
-    <t>Wyandotte</t>
-  </si>
-  <si>
-    <t>Leavenworth</t>
-  </si>
-  <si>
-    <t>Sedgwick</t>
-  </si>
-  <si>
-    <t>Shawnee</t>
-  </si>
-  <si>
-    <t>Reno</t>
-  </si>
-  <si>
-    <t>Doniphan</t>
-  </si>
-  <si>
-    <t>Woodson</t>
-  </si>
-  <si>
-    <t>Neosho</t>
-  </si>
-  <si>
-    <t>Riley</t>
   </si>
   <si>
     <t>Vermont (State-level)</t>
@@ -4027,10 +4027,10 @@
         <v>2735</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6732,7 +6732,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -6863,7 +6863,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6888,13 +6888,13 @@
         <v>438</v>
       </c>
       <c r="B2">
-        <v>1461</v>
+        <v>1503</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6916,13 +6916,13 @@
         <v>421</v>
       </c>
       <c r="B4">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6972,7 +6972,7 @@
         <v>443</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>446</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>462</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -8281,17 +8281,6 @@
       </c>
       <c r="D101">
         <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8925,7 +8914,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -9023,7 +9012,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -9093,7 +9082,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -9168,10 +9157,10 @@
         <v>1088</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9238,10 +9227,10 @@
         <v>88</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9260,7 +9249,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B9">
         <v>58</v>
@@ -9316,7 +9305,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>38</v>
@@ -10392,7 +10381,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -11063,7 +11052,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -11077,7 +11066,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -11175,7 +11164,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -11217,7 +11206,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -11231,7 +11220,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -12028,7 +12017,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -12140,7 +12129,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -12405,7 +12394,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -12671,7 +12660,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -12825,7 +12814,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -12881,7 +12870,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -13803,7 +13792,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -13858,7 +13847,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>350</v>
@@ -13900,7 +13889,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -13974,6 +13963,677 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2">
+        <v>509</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3">
+        <v>173</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -13997,21 +14657,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="B2">
         <v>508</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="B3">
         <v>299</v>
@@ -14025,7 +14685,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -14039,7 +14699,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -14053,7 +14713,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -14067,7 +14727,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -14081,7 +14741,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -14095,7 +14755,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -14123,7 +14783,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -14151,7 +14811,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -14165,7 +14825,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -14179,7 +14839,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -14199,664 +14859,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B2">
-        <v>508</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B3">
-        <v>173</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B4">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B5">
-        <v>57</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B7">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B17">
         <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14888,7 +14891,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B2">
         <v>485</v>
@@ -14902,7 +14905,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B3">
         <v>49</v>
@@ -14916,7 +14919,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -14972,7 +14975,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -14986,7 +14989,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -15000,7 +15003,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -15014,7 +15017,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -15042,7 +15045,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -15056,7 +15059,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15098,7 +15101,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -15126,7 +15129,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -15140,7 +15143,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -15168,7 +15171,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -15196,7 +15199,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -15210,7 +15213,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -15224,7 +15227,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -15252,7 +15255,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -15266,7 +15269,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -15294,7 +15297,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -15308,7 +15311,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -15322,7 +15325,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -15336,7 +15339,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -15378,7 +15381,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -15406,7 +15409,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -15434,7 +15437,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -15448,7 +15451,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -15462,7 +15465,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -15476,7 +15479,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -15490,7 +15493,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -15504,7 +15507,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -15518,7 +15521,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -15532,7 +15535,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -15574,7 +15577,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -15602,7 +15605,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -15616,7 +15619,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -15672,7 +15675,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -15700,7 +15703,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -15714,7 +15717,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -15756,7 +15759,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -15770,7 +15773,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -15784,7 +15787,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -15798,7 +15801,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -15839,21 +15842,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B2">
         <v>469</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -15867,7 +15870,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B4">
         <v>54</v>
@@ -15881,7 +15884,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B5">
         <v>49</v>
@@ -15895,7 +15898,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B6">
         <v>36</v>
@@ -15909,21 +15912,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B7">
         <v>28</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -15937,7 +15940,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -15965,7 +15968,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -15979,7 +15982,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -15993,7 +15996,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -16007,7 +16010,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -16035,7 +16038,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -16063,7 +16066,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -16077,7 +16080,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -16091,7 +16094,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -16105,7 +16108,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -16119,7 +16122,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -16133,7 +16136,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -16147,7 +16150,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -16161,7 +16164,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -16189,7 +16192,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -16217,7 +16220,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -16231,7 +16234,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -16245,7 +16248,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -16259,7 +16262,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -16273,7 +16276,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -16301,7 +16304,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -16315,7 +16318,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -16329,7 +16332,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -16357,7 +16360,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -16371,7 +16374,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -16385,7 +16388,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -16413,7 +16416,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -16427,7 +16430,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -16469,7 +16472,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -16497,7 +16500,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -16525,7 +16528,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -16539,7 +16542,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -16553,7 +16556,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -16567,7 +16570,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -16581,7 +16584,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -16595,7 +16598,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -16609,7 +16612,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -16623,7 +16626,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -16665,7 +16668,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -16679,7 +16682,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -16707,7 +16710,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -16721,7 +16724,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -16759,7 +16762,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B2">
         <v>449</v>
@@ -16829,7 +16832,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -16871,7 +16874,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -16885,7 +16888,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16927,7 +16930,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -16955,7 +16958,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -16969,7 +16972,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -16997,7 +17000,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -17025,7 +17028,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -17039,7 +17042,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -17053,7 +17056,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -17081,7 +17084,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -17095,7 +17098,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -17109,7 +17112,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -17179,7 +17182,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -17291,7 +17294,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -17305,7 +17308,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -17319,7 +17322,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -17347,7 +17350,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -17403,7 +17406,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -17444,7 +17447,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B2">
         <v>424</v>
@@ -17458,7 +17461,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -17486,7 +17489,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B5">
         <v>52</v>
@@ -17500,7 +17503,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -17528,7 +17531,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -17556,7 +17559,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -17598,7 +17601,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -17612,7 +17615,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -17626,7 +17629,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -17668,7 +17671,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -17682,7 +17685,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -17696,7 +17699,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -17710,7 +17713,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -17738,7 +17741,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -17752,7 +17755,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -17780,7 +17783,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -17794,7 +17797,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -17822,7 +17825,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -17850,7 +17853,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -17864,7 +17867,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -17878,7 +17881,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -17892,7 +17895,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -17906,7 +17909,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -17920,7 +17923,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -17948,7 +17951,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17990,7 +17993,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -18031,7 +18034,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B2">
         <v>353</v>
@@ -18045,7 +18048,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B3">
         <v>151</v>
@@ -18073,7 +18076,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -18087,7 +18090,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -18101,7 +18104,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -18115,7 +18118,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -18129,7 +18132,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -18143,7 +18146,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -18171,7 +18174,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -18185,7 +18188,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -18199,7 +18202,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -18240,21 +18243,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2">
         <v>346</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B3">
         <v>128</v>
@@ -18268,21 +18271,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B4">
         <v>32</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>3.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B5">
         <v>29</v>
@@ -18296,7 +18299,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -18338,7 +18341,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -18352,7 +18355,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -18366,7 +18369,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -18380,7 +18383,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -18408,7 +18411,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -18422,7 +18425,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -18436,7 +18439,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -18464,7 +18467,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -18478,7 +18481,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -18506,7 +18509,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -18520,7 +18523,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -18534,7 +18537,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -18548,7 +18551,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -18562,7 +18565,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -18576,7 +18579,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -18590,7 +18593,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -18604,7 +18607,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -18618,7 +18621,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -18632,7 +18635,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -18646,7 +18649,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -18660,7 +18663,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -18674,7 +18677,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -18688,7 +18691,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -18702,7 +18705,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -18716,7 +18719,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -18730,7 +18733,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -18744,7 +18747,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -18758,7 +18761,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -18802,13 +18805,13 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>3802</v>
+        <v>3885</v>
       </c>
       <c r="C2">
         <v>78</v>
       </c>
       <c r="D2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -18830,13 +18833,13 @@
         <v>81</v>
       </c>
       <c r="B4">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="C4">
         <v>17</v>
       </c>
       <c r="D4">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19456,7 +19459,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B2">
         <v>335</v>
@@ -19484,7 +19487,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -19498,7 +19501,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -19540,7 +19543,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -19554,7 +19557,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -19568,7 +19571,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -19582,7 +19585,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -19610,7 +19613,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -19624,7 +19627,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -19638,7 +19641,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -19666,7 +19669,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -19680,7 +19683,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -19694,7 +19697,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -19708,7 +19711,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -19736,7 +19739,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -19750,7 +19753,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -19764,7 +19767,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -19778,7 +19781,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -19862,7 +19865,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -19890,7 +19893,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -19918,7 +19921,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -19946,7 +19949,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -19960,7 +19963,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -19988,7 +19991,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -20002,7 +20005,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -20030,7 +20033,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -20085,7 +20088,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B2">
         <v>266</v>
@@ -20127,7 +20130,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -20141,7 +20144,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -20155,7 +20158,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -20169,7 +20172,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -20183,7 +20186,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -20197,7 +20200,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -20211,7 +20214,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20225,7 +20228,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -20239,7 +20242,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -20267,7 +20270,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -20281,7 +20284,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -20295,7 +20298,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -20309,7 +20312,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -20337,7 +20340,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -20351,7 +20354,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -20365,7 +20368,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -20406,7 +20409,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2">
         <v>248</v>
@@ -20420,7 +20423,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -20434,7 +20437,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -20462,7 +20465,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -20476,7 +20479,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -20490,7 +20493,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -20504,7 +20507,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -20518,7 +20521,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -20532,7 +20535,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20560,7 +20563,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -20574,7 +20577,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -20602,7 +20605,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -20616,7 +20619,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -20630,7 +20633,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20644,7 +20647,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20658,7 +20661,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -20686,7 +20689,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -20700,7 +20703,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -20714,7 +20717,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -20728,7 +20731,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -20742,7 +20745,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -20756,7 +20759,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20784,7 +20787,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -20826,7 +20829,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -20840,7 +20843,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -20854,7 +20857,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -20868,7 +20871,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -20909,7 +20912,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B2">
         <v>231</v>
@@ -20923,7 +20926,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B3">
         <v>231</v>
@@ -20964,7 +20967,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2">
         <v>198</v>
@@ -21020,7 +21023,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -21048,7 +21051,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -21104,7 +21107,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -21118,7 +21121,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -21202,7 +21205,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -21230,7 +21233,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -21244,7 +21247,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -21258,7 +21261,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -21286,7 +21289,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -21314,7 +21317,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21342,7 +21345,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -21356,7 +21359,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21370,7 +21373,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21412,7 +21415,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21454,7 +21457,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -21500,6 +21503,942 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B2">
+        <v>179</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2">
+        <v>172</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -21523,10 +22462,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
       <c r="B2">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -21537,7 +22476,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="B3">
         <v>91</v>
@@ -21565,10 +22504,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21579,10 +22518,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>1046</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -21593,10 +22532,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1013</v>
+        <v>158</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -21607,951 +22546,15 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B2">
-        <v>180</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3">
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B2">
-        <v>159</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B4">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
         <v>0</v>
       </c>
     </row>
@@ -22891,7 +22894,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -22994,7 +22997,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23019,105 +23022,105 @@
         <v>123</v>
       </c>
       <c r="B2">
-        <v>2858</v>
+        <v>2880</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="D2">
-        <v>2.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="B3">
-        <v>1389</v>
+        <v>1577</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
-        <v>347</v>
+        <v>155</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>63</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -23128,52 +23131,52 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>4.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -23184,10 +23187,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -23198,24 +23201,24 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -23226,24 +23229,24 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -23254,10 +23257,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -23268,10 +23271,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -23282,10 +23285,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -23296,10 +23299,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -23310,10 +23313,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -23324,10 +23327,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -23338,10 +23341,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -23352,10 +23355,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -23366,10 +23369,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -23380,10 +23383,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -23394,10 +23397,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -23408,10 +23411,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -23422,10 +23425,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -23436,10 +23439,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -23450,10 +23453,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -23464,337 +23467,29 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
         <v>0</v>
       </c>
     </row>
@@ -24065,7 +23760,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -24120,7 +23815,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -24279,10 +23974,10 @@
         <v>130</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -24307,15 +24002,15 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -24426,7 +24121,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -24732,7 +24427,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B3">
         <v>44</v>
@@ -24774,7 +24469,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -24816,7 +24511,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -24858,7 +24553,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -25151,7 +24846,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -25598,7 +25293,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25620,108 +25315,108 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B2">
-        <v>2635</v>
+        <v>2858</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>1359</v>
+        <v>1389</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B4">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B5">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>63</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -25732,52 +25427,52 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>10.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -25788,10 +25483,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -25802,24 +25497,24 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>30.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -25830,24 +25525,24 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -25858,10 +25553,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -25872,10 +25567,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -25886,10 +25581,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -25900,10 +25595,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -25914,10 +25609,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -25928,10 +25623,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -25942,10 +25637,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -25956,10 +25651,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -25970,10 +25665,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -25984,10 +25679,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -25998,10 +25693,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -26012,10 +25707,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -26026,10 +25721,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -26040,10 +25735,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -26054,10 +25749,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -26068,29 +25763,337 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
         <v>0</v>
       </c>
     </row>
@@ -26165,7 +26168,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -26193,7 +26196,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -26221,7 +26224,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -26374,7 +26377,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -26472,7 +26475,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -26792,7 +26795,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -27344,7 +27347,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -27540,7 +27543,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -27568,7 +27571,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -27666,7 +27669,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -28560,7 +28563,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -28602,7 +28605,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -29161,7 +29164,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -29301,7 +29304,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -29329,7 +29332,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B50">
         <v>1</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -27,13 +27,13 @@
     <sheet name="North Carolina" sheetId="18" r:id="rId18"/>
     <sheet name="Indiana" sheetId="19" r:id="rId19"/>
     <sheet name="Maryland" sheetId="20" r:id="rId20"/>
-    <sheet name="Nevada" sheetId="21" r:id="rId21"/>
+    <sheet name="Alabama" sheetId="21" r:id="rId21"/>
     <sheet name="Missouri" sheetId="22" r:id="rId22"/>
     <sheet name="Arizona" sheetId="23" r:id="rId23"/>
     <sheet name="Mississippi" sheetId="24" r:id="rId24"/>
     <sheet name="Virginia" sheetId="25" r:id="rId25"/>
-    <sheet name="Alabama" sheetId="26" r:id="rId26"/>
-    <sheet name="South Carolina" sheetId="27" r:id="rId27"/>
+    <sheet name="South Carolina" sheetId="26" r:id="rId26"/>
+    <sheet name="Nevada" sheetId="27" r:id="rId27"/>
     <sheet name="Utah" sheetId="28" r:id="rId28"/>
     <sheet name="Minnesota" sheetId="29" r:id="rId29"/>
     <sheet name="Arkansas" sheetId="30" r:id="rId30"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1176">
   <si>
     <t>confirmed</t>
   </si>
@@ -105,15 +105,15 @@
     <t>Orange</t>
   </si>
   <si>
+    <t>Erie</t>
+  </si>
+  <si>
     <t>Dutchess</t>
   </si>
   <si>
     <t>Albany</t>
   </si>
   <si>
-    <t>Erie</t>
-  </si>
-  <si>
     <t>Monroe</t>
   </si>
   <si>
@@ -195,15 +195,18 @@
     <t>Washington</t>
   </si>
   <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
     <t>Oswego</t>
   </si>
   <si>
+    <t>St. Lawrence</t>
+  </si>
+  <si>
     <t>Chenango</t>
   </si>
   <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
     <t>Livingston</t>
   </si>
   <si>
@@ -231,9 +234,6 @@
     <t>Cayuga</t>
   </si>
   <si>
-    <t>St. Lawrence</t>
-  </si>
-  <si>
     <t>Chautauqua</t>
   </si>
   <si>
@@ -705,12 +705,12 @@
     <t>McHenry</t>
   </si>
   <si>
+    <t>Champaign</t>
+  </si>
+  <si>
     <t>McLean</t>
   </si>
   <si>
-    <t>Champaign</t>
-  </si>
-  <si>
     <t>Winnebago</t>
   </si>
   <si>
@@ -1725,6 +1725,9 @@
     <t>Cannon</t>
   </si>
   <si>
+    <t>Meigs</t>
+  </si>
+  <si>
     <t>Colorado (State-level)</t>
   </si>
   <si>
@@ -2277,6 +2280,498 @@
     <t>Caroline</t>
   </si>
   <si>
+    <t>Alabama (State-level)</t>
+  </si>
+  <si>
+    <t>Tuscaloosa</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Elmore</t>
+  </si>
+  <si>
+    <t>Lauderdale</t>
+  </si>
+  <si>
+    <t>Cullman</t>
+  </si>
+  <si>
+    <t>Autauga</t>
+  </si>
+  <si>
+    <t>Talladega</t>
+  </si>
+  <si>
+    <t>Tallapoosa</t>
+  </si>
+  <si>
+    <t>Chilton</t>
+  </si>
+  <si>
+    <t>Etowah</t>
+  </si>
+  <si>
+    <t>Wilcox</t>
+  </si>
+  <si>
+    <t>Coosa</t>
+  </si>
+  <si>
+    <t>Bullock</t>
+  </si>
+  <si>
+    <t>Cleburne</t>
+  </si>
+  <si>
+    <t>Colbert</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Marengo</t>
+  </si>
+  <si>
+    <t>Choctaw</t>
+  </si>
+  <si>
+    <t>Missouri (State-level)</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Platte</t>
+  </si>
+  <si>
+    <t>Cape Girardeau</t>
+  </si>
+  <si>
+    <t>Dunklin</t>
+  </si>
+  <si>
+    <t>St. Francois</t>
+  </si>
+  <si>
+    <t>Moniteau</t>
+  </si>
+  <si>
+    <t>Callaway</t>
+  </si>
+  <si>
+    <t>Adair</t>
+  </si>
+  <si>
+    <t>Bates</t>
+  </si>
+  <si>
+    <t>Taney</t>
+  </si>
+  <si>
+    <t>Pemiscot</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>Ralls</t>
+  </si>
+  <si>
+    <t>Bollinger</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Stoddard</t>
+  </si>
+  <si>
+    <t>Atchison</t>
+  </si>
+  <si>
+    <t>Arizona (State-level)</t>
+  </si>
+  <si>
+    <t>Maricopa</t>
+  </si>
+  <si>
+    <t>Pima</t>
+  </si>
+  <si>
+    <t>Navajo</t>
+  </si>
+  <si>
+    <t>Pinal</t>
+  </si>
+  <si>
+    <t>Coconino</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Yavapai</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Cochise</t>
+  </si>
+  <si>
+    <t>Mohave</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>Mississippi (State-level)</t>
+  </si>
+  <si>
+    <t>DeSoto</t>
+  </si>
+  <si>
+    <t>Hinds</t>
+  </si>
+  <si>
+    <t>Rankin</t>
+  </si>
+  <si>
+    <t>Coahoma</t>
+  </si>
+  <si>
+    <t>Forrest</t>
+  </si>
+  <si>
+    <t>Pearl River</t>
+  </si>
+  <si>
+    <t>Tippah</t>
+  </si>
+  <si>
+    <t>Leflore</t>
+  </si>
+  <si>
+    <t>Oktibbeha</t>
+  </si>
+  <si>
+    <t>Copiah</t>
+  </si>
+  <si>
+    <t>Wilkinson</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>Attala</t>
+  </si>
+  <si>
+    <t>Chickasaw</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Tate</t>
+  </si>
+  <si>
+    <t>Tunica</t>
+  </si>
+  <si>
+    <t>Walthall</t>
+  </si>
+  <si>
+    <t>Leake</t>
+  </si>
+  <si>
+    <t>Panola</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Winston</t>
+  </si>
+  <si>
+    <t>Yazoo</t>
+  </si>
+  <si>
+    <t>Itawamba</t>
+  </si>
+  <si>
+    <t>Pontotoc</t>
+  </si>
+  <si>
+    <t>Yalobusha</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Tallahatchie</t>
+  </si>
+  <si>
+    <t>Quitman</t>
+  </si>
+  <si>
+    <t>Humphreys</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Noxubee</t>
+  </si>
+  <si>
+    <t>Amite</t>
+  </si>
+  <si>
+    <t>Prentiss</t>
+  </si>
+  <si>
+    <t>Virginia (State-level)</t>
+  </si>
+  <si>
+    <t>Fairfax</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>James City</t>
+  </si>
+  <si>
+    <t>Prince William</t>
+  </si>
+  <si>
+    <t>Loudoun</t>
+  </si>
+  <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t>Henrico</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Richmond City</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Stafford</t>
+  </si>
+  <si>
+    <t>Charlottesville</t>
+  </si>
+  <si>
+    <t>Newport News</t>
+  </si>
+  <si>
+    <t>Albemarle</t>
+  </si>
+  <si>
+    <t>Williamsburg</t>
+  </si>
+  <si>
+    <t>Chesapeake</t>
+  </si>
+  <si>
+    <t>Louisa</t>
+  </si>
+  <si>
+    <t>Spotsylvania</t>
+  </si>
+  <si>
+    <t>Harrisonburg</t>
+  </si>
+  <si>
+    <t>Goochland</t>
+  </si>
+  <si>
+    <t>Portsmouth City</t>
+  </si>
+  <si>
+    <t>Rockingham</t>
+  </si>
+  <si>
+    <t>Fluvanna</t>
+  </si>
+  <si>
+    <t>Manassas City</t>
+  </si>
+  <si>
+    <t>Shenandoah</t>
+  </si>
+  <si>
+    <t>Hanover</t>
+  </si>
+  <si>
+    <t>Prince Edward</t>
+  </si>
+  <si>
+    <t>Accomack</t>
+  </si>
+  <si>
+    <t>Rockbridge</t>
+  </si>
+  <si>
+    <t>Isle of Wight</t>
+  </si>
+  <si>
+    <t>Danville</t>
+  </si>
+  <si>
+    <t>Culpeper</t>
+  </si>
+  <si>
+    <t>Lynchburg</t>
+  </si>
+  <si>
+    <t>Charles City</t>
+  </si>
+  <si>
+    <t>Botetourt</t>
+  </si>
+  <si>
+    <t>Amherst</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Radford</t>
+  </si>
+  <si>
+    <t>Fredericksburg</t>
+  </si>
+  <si>
+    <t>Mathews</t>
+  </si>
+  <si>
+    <t>Nottoway</t>
+  </si>
+  <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
+    <t>Fairfax City</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Poquoson</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Fauquier</t>
+  </si>
+  <si>
+    <t>Pittsylvania</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>South Carolina (State-level)</t>
+  </si>
+  <si>
+    <t>Kershaw</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>Horry</t>
+  </si>
+  <si>
+    <t>Lexington</t>
+  </si>
+  <si>
+    <t>Spartanburg</t>
+  </si>
+  <si>
+    <t>Orangeburg</t>
+  </si>
+  <si>
+    <t>Darlington</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>Clarendon</t>
+  </si>
+  <si>
+    <t>Dorchester</t>
+  </si>
+  <si>
+    <t>Abbeville</t>
+  </si>
+  <si>
+    <t>Aiken</t>
+  </si>
+  <si>
+    <t>Greenwood</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Saluda</t>
+  </si>
+  <si>
+    <t>Colleton</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Edgefield</t>
+  </si>
+  <si>
+    <t>Newberry</t>
+  </si>
+  <si>
+    <t>Marlboro</t>
+  </si>
+  <si>
     <t>Nevada (State-level)</t>
   </si>
   <si>
@@ -2295,495 +2790,6 @@
     <t>Lyon</t>
   </si>
   <si>
-    <t>Missouri (State-level)</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
-  </si>
-  <si>
-    <t>Kansas City</t>
-  </si>
-  <si>
-    <t>St. Louis City</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Cole</t>
-  </si>
-  <si>
-    <t>Platte</t>
-  </si>
-  <si>
-    <t>Cape Girardeau</t>
-  </si>
-  <si>
-    <t>Dunklin</t>
-  </si>
-  <si>
-    <t>St. Francois</t>
-  </si>
-  <si>
-    <t>Moniteau</t>
-  </si>
-  <si>
-    <t>Callaway</t>
-  </si>
-  <si>
-    <t>Adair</t>
-  </si>
-  <si>
-    <t>Bates</t>
-  </si>
-  <si>
-    <t>Taney</t>
-  </si>
-  <si>
-    <t>Pemiscot</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t>McDonald</t>
-  </si>
-  <si>
-    <t>Ralls</t>
-  </si>
-  <si>
-    <t>Bollinger</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>Stoddard</t>
-  </si>
-  <si>
-    <t>Atchison</t>
-  </si>
-  <si>
-    <t>Arizona (State-level)</t>
-  </si>
-  <si>
-    <t>Maricopa</t>
-  </si>
-  <si>
-    <t>Pima</t>
-  </si>
-  <si>
-    <t>Navajo</t>
-  </si>
-  <si>
-    <t>Pinal</t>
-  </si>
-  <si>
-    <t>Coconino</t>
-  </si>
-  <si>
-    <t>Apache</t>
-  </si>
-  <si>
-    <t>Yavapai</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>Cochise</t>
-  </si>
-  <si>
-    <t>Mohave</t>
-  </si>
-  <si>
-    <t>La Paz</t>
-  </si>
-  <si>
-    <t>Mississippi (State-level)</t>
-  </si>
-  <si>
-    <t>DeSoto</t>
-  </si>
-  <si>
-    <t>Hinds</t>
-  </si>
-  <si>
-    <t>Rankin</t>
-  </si>
-  <si>
-    <t>Coahoma</t>
-  </si>
-  <si>
-    <t>Forrest</t>
-  </si>
-  <si>
-    <t>Pearl River</t>
-  </si>
-  <si>
-    <t>Tippah</t>
-  </si>
-  <si>
-    <t>Leflore</t>
-  </si>
-  <si>
-    <t>Oktibbeha</t>
-  </si>
-  <si>
-    <t>Copiah</t>
-  </si>
-  <si>
-    <t>Wilkinson</t>
-  </si>
-  <si>
-    <t>Holmes</t>
-  </si>
-  <si>
-    <t>Attala</t>
-  </si>
-  <si>
-    <t>Chickasaw</t>
-  </si>
-  <si>
-    <t>Bolivar</t>
-  </si>
-  <si>
-    <t>Tate</t>
-  </si>
-  <si>
-    <t>Tunica</t>
-  </si>
-  <si>
-    <t>Walthall</t>
-  </si>
-  <si>
-    <t>Leake</t>
-  </si>
-  <si>
-    <t>Panola</t>
-  </si>
-  <si>
-    <t>Sunflower</t>
-  </si>
-  <si>
-    <t>Choctaw</t>
-  </si>
-  <si>
-    <t>Winston</t>
-  </si>
-  <si>
-    <t>Yazoo</t>
-  </si>
-  <si>
-    <t>Itawamba</t>
-  </si>
-  <si>
-    <t>Pontotoc</t>
-  </si>
-  <si>
-    <t>Lauderdale</t>
-  </si>
-  <si>
-    <t>Yalobusha</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Tallahatchie</t>
-  </si>
-  <si>
-    <t>Quitman</t>
-  </si>
-  <si>
-    <t>Humphreys</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Simpson</t>
-  </si>
-  <si>
-    <t>Noxubee</t>
-  </si>
-  <si>
-    <t>Amite</t>
-  </si>
-  <si>
-    <t>Prentiss</t>
-  </si>
-  <si>
-    <t>Virginia (State-level)</t>
-  </si>
-  <si>
-    <t>Fairfax</t>
-  </si>
-  <si>
-    <t>Arlington</t>
-  </si>
-  <si>
-    <t>James City</t>
-  </si>
-  <si>
-    <t>Prince William</t>
-  </si>
-  <si>
-    <t>Loudoun</t>
-  </si>
-  <si>
-    <t>Virginia Beach</t>
-  </si>
-  <si>
-    <t>Henrico</t>
-  </si>
-  <si>
-    <t>Alexandria</t>
-  </si>
-  <si>
-    <t>Richmond City</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Stafford</t>
-  </si>
-  <si>
-    <t>Charlottesville</t>
-  </si>
-  <si>
-    <t>Newport News</t>
-  </si>
-  <si>
-    <t>Albemarle</t>
-  </si>
-  <si>
-    <t>Williamsburg</t>
-  </si>
-  <si>
-    <t>Chesapeake</t>
-  </si>
-  <si>
-    <t>Louisa</t>
-  </si>
-  <si>
-    <t>Spotsylvania</t>
-  </si>
-  <si>
-    <t>Harrisonburg</t>
-  </si>
-  <si>
-    <t>Goochland</t>
-  </si>
-  <si>
-    <t>Portsmouth City</t>
-  </si>
-  <si>
-    <t>Rockingham</t>
-  </si>
-  <si>
-    <t>Fluvanna</t>
-  </si>
-  <si>
-    <t>Manassas City</t>
-  </si>
-  <si>
-    <t>Shenandoah</t>
-  </si>
-  <si>
-    <t>Hanover</t>
-  </si>
-  <si>
-    <t>Prince Edward</t>
-  </si>
-  <si>
-    <t>Accomack</t>
-  </si>
-  <si>
-    <t>Rockbridge</t>
-  </si>
-  <si>
-    <t>Isle of Wight</t>
-  </si>
-  <si>
-    <t>Danville</t>
-  </si>
-  <si>
-    <t>Culpeper</t>
-  </si>
-  <si>
-    <t>Lynchburg</t>
-  </si>
-  <si>
-    <t>Charles City</t>
-  </si>
-  <si>
-    <t>Botetourt</t>
-  </si>
-  <si>
-    <t>Amherst</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Radford</t>
-  </si>
-  <si>
-    <t>Fredericksburg</t>
-  </si>
-  <si>
-    <t>Mathews</t>
-  </si>
-  <si>
-    <t>Nottoway</t>
-  </si>
-  <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
-    <t>Fairfax City</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Poquoson</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Fauquier</t>
-  </si>
-  <si>
-    <t>Pittsylvania</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Alabama (State-level)</t>
-  </si>
-  <si>
-    <t>Tuscaloosa</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Elmore</t>
-  </si>
-  <si>
-    <t>Cullman</t>
-  </si>
-  <si>
-    <t>Autauga</t>
-  </si>
-  <si>
-    <t>Tallapoosa</t>
-  </si>
-  <si>
-    <t>Chilton</t>
-  </si>
-  <si>
-    <t>Talladega</t>
-  </si>
-  <si>
-    <t>Etowah</t>
-  </si>
-  <si>
-    <t>Wilcox</t>
-  </si>
-  <si>
-    <t>Cleburne</t>
-  </si>
-  <si>
-    <t>Colbert</t>
-  </si>
-  <si>
-    <t>Russell</t>
-  </si>
-  <si>
-    <t>Marengo</t>
-  </si>
-  <si>
-    <t>Coosa</t>
-  </si>
-  <si>
-    <t>South Carolina (State-level)</t>
-  </si>
-  <si>
-    <t>Kershaw</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>Horry</t>
-  </si>
-  <si>
-    <t>Lexington</t>
-  </si>
-  <si>
-    <t>Spartanburg</t>
-  </si>
-  <si>
-    <t>Orangeburg</t>
-  </si>
-  <si>
-    <t>Darlington</t>
-  </si>
-  <si>
-    <t>Berkeley</t>
-  </si>
-  <si>
-    <t>Florence</t>
-  </si>
-  <si>
-    <t>Clarendon</t>
-  </si>
-  <si>
-    <t>Dorchester</t>
-  </si>
-  <si>
-    <t>Abbeville</t>
-  </si>
-  <si>
-    <t>Aiken</t>
-  </si>
-  <si>
-    <t>Greenwood</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Saluda</t>
-  </si>
-  <si>
-    <t>Colleton</t>
-  </si>
-  <si>
-    <t>Dillon</t>
-  </si>
-  <si>
-    <t>Edgefield</t>
-  </si>
-  <si>
-    <t>Newberry</t>
-  </si>
-  <si>
-    <t>Marlboro</t>
-  </si>
-  <si>
     <t>Utah (State-level)</t>
   </si>
   <si>
@@ -2985,10 +2991,13 @@
     <t>Lane</t>
   </si>
   <si>
+    <t>Josephine</t>
+  </si>
+  <si>
     <t>Umatilla</t>
   </si>
   <si>
-    <t>Josephine</t>
+    <t>Clatsop</t>
   </si>
   <si>
     <t>Klamath</t>
@@ -2997,7 +3006,10 @@
     <t>Hood River</t>
   </si>
   <si>
-    <t>Clatsop</t>
+    <t>Tillamook</t>
+  </si>
+  <si>
+    <t>Wasco</t>
   </si>
   <si>
     <t>Oklahoma (State-level)</t>
@@ -3968,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>37802</v>
+        <v>37877</v>
       </c>
       <c r="C2">
         <v>385</v>
@@ -4066,13 +4078,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4080,13 +4092,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4094,13 +4106,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4108,13 +4120,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4206,7 +4218,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4500,7 +4512,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4514,7 +4526,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4570,7 +4582,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4727,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +4774,7 @@
         <v>323</v>
       </c>
       <c r="B2">
-        <v>1722</v>
+        <v>1795</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -4776,7 +4788,7 @@
         <v>324</v>
       </c>
       <c r="B3">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5137,7 +5149,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -5375,7 +5387,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6888,7 +6900,7 @@
         <v>438</v>
       </c>
       <c r="B2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -7291,7 +7303,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -7333,30 +7345,30 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>467</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>467</v>
+        <v>169</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8290,7 +8302,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8315,7 +8327,7 @@
         <v>522</v>
       </c>
       <c r="B2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -8410,7 +8422,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -8648,7 +8660,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -9119,6 +9131,20 @@
         <v>0</v>
       </c>
       <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>0</v>
       </c>
     </row>
@@ -9151,7 +9177,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B2">
         <v>1088</v>
@@ -9165,7 +9191,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B3">
         <v>214</v>
@@ -9193,7 +9219,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B5">
         <v>120</v>
@@ -9207,7 +9233,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>93</v>
@@ -9221,7 +9247,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B7">
         <v>88</v>
@@ -9235,7 +9261,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B8">
         <v>87</v>
@@ -9263,7 +9289,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B10">
         <v>52</v>
@@ -9277,7 +9303,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B11">
         <v>51</v>
@@ -9291,7 +9317,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B12">
         <v>45</v>
@@ -9319,7 +9345,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B14">
         <v>21</v>
@@ -9347,7 +9373,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -9361,7 +9387,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -9375,7 +9401,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -9389,7 +9415,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -9403,7 +9429,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -9417,7 +9443,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -9431,7 +9457,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -9445,7 +9471,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -9459,7 +9485,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -9487,7 +9513,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -9501,7 +9527,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -9515,7 +9541,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -9543,7 +9569,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -9557,7 +9583,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -9571,7 +9597,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -9585,7 +9611,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -9599,7 +9625,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -9613,7 +9639,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -9627,7 +9653,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -9641,7 +9667,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -9655,7 +9681,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -9669,7 +9695,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -9683,7 +9709,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -9724,7 +9750,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B2">
         <v>1012</v>
@@ -9738,7 +9764,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B3">
         <v>607</v>
@@ -9752,7 +9778,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B4">
         <v>156</v>
@@ -9766,7 +9792,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B5">
         <v>138</v>
@@ -9780,7 +9806,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B6">
         <v>44</v>
@@ -9794,7 +9820,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B7">
         <v>33</v>
@@ -9822,7 +9848,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -9836,7 +9862,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -9877,7 +9903,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B2">
         <v>868</v>
@@ -9891,7 +9917,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B3">
         <v>259</v>
@@ -9919,7 +9945,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>53</v>
@@ -9933,7 +9959,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B6">
         <v>51</v>
@@ -9947,7 +9973,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -9961,7 +9987,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B8">
         <v>44</v>
@@ -9975,7 +10001,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -10017,7 +10043,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -10045,7 +10071,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -10087,7 +10113,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -10101,7 +10127,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -10115,7 +10141,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -10129,7 +10155,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -10143,7 +10169,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -10157,7 +10183,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -10171,7 +10197,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -10185,7 +10211,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -10199,7 +10225,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -10213,7 +10239,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -10255,7 +10281,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -10269,7 +10295,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -10283,7 +10309,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -10311,7 +10337,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -10325,7 +10351,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -10395,7 +10421,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -10423,7 +10449,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -10465,7 +10491,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -10479,7 +10505,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -10507,7 +10533,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -10521,7 +10547,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -10535,7 +10561,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -10563,7 +10589,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -10577,7 +10603,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -10605,7 +10631,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -10661,7 +10687,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -10675,7 +10701,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -10689,7 +10715,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -10717,7 +10743,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -10758,10 +10784,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B2">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -10772,7 +10798,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B3">
         <v>347</v>
@@ -10786,21 +10812,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B5">
         <v>56</v>
@@ -10828,7 +10854,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -10842,7 +10868,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -10856,7 +10882,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B9">
         <v>17</v>
@@ -10870,7 +10896,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -10884,7 +10910,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -10898,7 +10924,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -10912,7 +10938,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -10926,7 +10952,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -10954,7 +10980,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -10968,7 +10994,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -10996,7 +11022,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -11010,7 +11036,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -11038,7 +11064,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -11094,7 +11120,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -11108,7 +11134,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -11122,7 +11148,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -11136,7 +11162,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11150,7 +11176,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -11178,7 +11204,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11192,7 +11218,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -11248,7 +11274,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -11262,7 +11288,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -11276,7 +11302,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -11290,7 +11316,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -11331,7 +11357,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B2">
         <v>682</v>
@@ -11345,7 +11371,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B3">
         <v>204</v>
@@ -11359,7 +11385,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B4">
         <v>84</v>
@@ -11373,7 +11399,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B5">
         <v>84</v>
@@ -11401,7 +11427,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -11415,7 +11441,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -11443,7 +11469,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -11471,7 +11497,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -11485,7 +11511,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -11499,7 +11525,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -11513,7 +11539,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -11527,7 +11553,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -11541,7 +11567,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -11555,7 +11581,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -11611,7 +11637,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -11625,7 +11651,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -11639,7 +11665,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -11667,7 +11693,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -11681,7 +11707,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -11709,7 +11735,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -11737,7 +11763,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -11751,7 +11777,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -11779,7 +11805,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11807,7 +11833,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -11821,7 +11847,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -11835,7 +11861,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -11849,7 +11875,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -11863,7 +11889,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -11877,7 +11903,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -11905,7 +11931,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -11919,7 +11945,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -11933,7 +11959,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -11947,7 +11973,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -11961,7 +11987,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -11989,7 +12015,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -12003,7 +12029,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -12031,7 +12057,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -12045,7 +12071,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -12059,7 +12085,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -12073,7 +12099,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -12087,7 +12113,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -12115,7 +12141,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -12157,7 +12183,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -12171,7 +12197,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -12185,7 +12211,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -12199,7 +12225,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -12254,7 +12280,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B2">
         <v>645</v>
@@ -12282,7 +12308,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -12324,7 +12350,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -12338,7 +12364,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -12380,7 +12406,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -12408,7 +12434,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -12436,7 +12462,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -12464,7 +12490,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -12492,7 +12518,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -12520,7 +12546,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -12534,7 +12560,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -12562,7 +12588,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -12576,7 +12602,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -12604,7 +12630,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -12618,7 +12644,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -12646,7 +12672,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -12688,7 +12714,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -12730,7 +12756,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -12744,7 +12770,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -12842,7 +12868,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -12856,7 +12882,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -12884,7 +12910,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -12912,7 +12938,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -12926,7 +12952,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -12940,7 +12966,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -12954,7 +12980,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -12996,7 +13022,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -13052,7 +13078,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -13080,7 +13106,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -13094,7 +13120,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -13387,7 +13413,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -13484,7 +13510,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B2">
         <v>583</v>
@@ -13512,7 +13538,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -13526,7 +13552,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -13540,7 +13566,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B6">
         <v>72</v>
@@ -13554,7 +13580,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B7">
         <v>49</v>
@@ -13568,7 +13594,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -13582,7 +13608,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -13596,7 +13622,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -13610,7 +13636,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -13638,7 +13664,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -13652,7 +13678,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -13680,7 +13706,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -13694,7 +13720,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -13708,7 +13734,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -13736,7 +13762,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -13750,7 +13776,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -13764,7 +13790,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -13811,7 +13837,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13833,52 +13859,52 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>159</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>520</v>
       </c>
       <c r="B4">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>736</v>
+        <v>247</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13889,10 +13915,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -13906,7 +13932,7 @@
         <v>737</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -13920,7 +13946,7 @@
         <v>738</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -13931,10 +13957,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>739</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -13945,15 +13971,575 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
         <v>0</v>
       </c>
     </row>
@@ -13964,7 +14550,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13986,10 +14572,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="B2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -14000,7 +14586,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B3">
         <v>173</v>
@@ -14014,7 +14600,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="B4">
         <v>64</v>
@@ -14028,7 +14614,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="B5">
         <v>57</v>
@@ -14042,30 +14628,30 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>698</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>697</v>
+        <v>161</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -14098,7 +14684,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -14112,7 +14698,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -14140,7 +14726,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -14168,10 +14754,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -14238,7 +14824,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -14266,7 +14852,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -14294,7 +14880,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -14308,7 +14894,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -14336,7 +14922,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -14406,7 +14992,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -14420,7 +15006,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -14462,7 +15048,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -14476,7 +15062,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -14504,7 +15090,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -14518,7 +15104,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -14546,7 +15132,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -14560,7 +15146,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -14574,7 +15160,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -14588,7 +15174,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -14602,7 +15188,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -14625,6 +15211,20 @@
         <v>0</v>
       </c>
       <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
     </row>
@@ -14657,7 +15257,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="B2">
         <v>508</v>
@@ -14671,7 +15271,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="B3">
         <v>299</v>
@@ -14685,7 +15285,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -14699,7 +15299,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -14713,7 +15313,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -14727,7 +15327,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -14741,7 +15341,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -14755,7 +15355,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -14769,7 +15369,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -14783,7 +15383,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -14811,7 +15411,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -14825,7 +15425,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -14839,7 +15439,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -14891,7 +15491,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="B2">
         <v>485</v>
@@ -14905,7 +15505,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="B3">
         <v>49</v>
@@ -14919,7 +15519,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -14933,7 +15533,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -14947,7 +15547,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -14975,7 +15575,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -14989,7 +15589,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -15003,7 +15603,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -15045,7 +15645,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -15059,7 +15659,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15101,7 +15701,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -15129,7 +15729,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -15143,7 +15743,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -15171,7 +15771,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -15199,7 +15799,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -15213,7 +15813,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -15227,7 +15827,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -15241,7 +15841,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -15269,7 +15869,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -15297,7 +15897,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -15311,7 +15911,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -15325,7 +15925,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -15339,7 +15939,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -15381,7 +15981,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -15409,7 +16009,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>798</v>
+        <v>754</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -15437,7 +16037,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -15451,7 +16051,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -15479,7 +16079,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -15493,7 +16093,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -15521,7 +16121,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>803</v>
+        <v>740</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -15535,7 +16135,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -15577,7 +16177,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -15605,7 +16205,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -15619,7 +16219,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -15675,7 +16275,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -15703,7 +16303,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -15717,7 +16317,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -15759,7 +16359,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -15773,7 +16373,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -15787,7 +16387,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -15842,7 +16442,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="B2">
         <v>469</v>
@@ -15856,7 +16456,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -15870,7 +16470,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="B4">
         <v>54</v>
@@ -15884,7 +16484,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="B5">
         <v>49</v>
@@ -15898,7 +16498,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="B6">
         <v>36</v>
@@ -15912,7 +16512,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -15926,7 +16526,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -15940,7 +16540,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -15954,7 +16554,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -15968,7 +16568,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -15982,7 +16582,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -15996,7 +16596,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -16010,7 +16610,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -16038,7 +16638,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -16066,7 +16666,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -16080,7 +16680,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -16094,7 +16694,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -16108,7 +16708,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -16122,7 +16722,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -16136,7 +16736,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -16150,7 +16750,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -16164,7 +16764,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -16178,7 +16778,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -16192,7 +16792,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -16220,7 +16820,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -16234,7 +16834,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -16248,7 +16848,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -16262,7 +16862,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -16276,7 +16876,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -16304,7 +16904,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -16318,7 +16918,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -16332,7 +16932,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -16360,7 +16960,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -16374,7 +16974,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -16388,7 +16988,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -16402,7 +17002,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -16416,7 +17016,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -16430,7 +17030,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -16472,7 +17072,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -16500,7 +17100,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -16528,7 +17128,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -16542,7 +17142,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -16556,7 +17156,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -16570,7 +17170,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -16584,7 +17184,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -16598,7 +17198,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -16612,7 +17212,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -16626,7 +17226,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -16640,7 +17240,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -16668,7 +17268,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -16682,7 +17282,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -16696,7 +17296,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -16710,7 +17310,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -16724,7 +17324,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -16739,691 +17339,6 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B2">
-        <v>449</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
-        <v>140</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B4">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5">
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -17447,7 +17362,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B2">
         <v>424</v>
@@ -17461,7 +17376,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -17489,7 +17404,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B5">
         <v>52</v>
@@ -17503,7 +17418,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -17517,7 +17432,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -17531,7 +17446,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -17559,7 +17474,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -17601,7 +17516,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -17615,7 +17530,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -17629,7 +17544,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -17671,7 +17586,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -17685,7 +17600,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -17699,7 +17614,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -17713,7 +17628,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -17727,7 +17642,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -17741,7 +17656,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -17755,7 +17670,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -17783,7 +17698,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -17797,7 +17712,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -17825,7 +17740,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -17867,7 +17782,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -17881,7 +17796,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -17895,7 +17810,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -17909,7 +17824,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -17923,7 +17838,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -17951,7 +17866,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17993,7 +17908,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -18002,6 +17917,159 @@
         <v>0</v>
       </c>
       <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B2">
+        <v>420</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -18034,7 +18102,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B2">
         <v>353</v>
@@ -18048,7 +18116,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B3">
         <v>151</v>
@@ -18062,7 +18130,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B4">
         <v>89</v>
@@ -18076,7 +18144,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -18090,7 +18158,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -18104,7 +18172,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -18118,7 +18186,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -18132,7 +18200,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -18146,7 +18214,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -18174,7 +18242,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -18188,7 +18256,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -18202,7 +18270,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -18243,7 +18311,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B2">
         <v>346</v>
@@ -18257,7 +18325,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B3">
         <v>128</v>
@@ -18271,7 +18339,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -18285,7 +18353,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B5">
         <v>29</v>
@@ -18299,7 +18367,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -18341,7 +18409,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -18355,7 +18423,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -18369,7 +18437,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -18383,7 +18451,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -18411,7 +18479,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -18425,7 +18493,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -18439,7 +18507,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -18467,7 +18535,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -18481,7 +18549,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -18509,7 +18577,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -18523,7 +18591,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -18537,7 +18605,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -18551,7 +18619,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -18565,7 +18633,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -18579,7 +18647,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -18593,7 +18661,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -18607,7 +18675,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -18663,7 +18731,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -18677,7 +18745,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -18691,7 +18759,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -18705,7 +18773,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -18719,7 +18787,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -18733,7 +18801,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -18747,7 +18815,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -18761,7 +18829,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -18805,13 +18873,13 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -18836,10 +18904,10 @@
         <v>542</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18850,10 +18918,10 @@
         <v>293</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -19155,7 +19223,7 @@
         <v>103</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -19459,7 +19527,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B2">
         <v>335</v>
@@ -19487,7 +19555,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>876</v>
+        <v>750</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -19501,7 +19569,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -19529,7 +19597,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -19543,7 +19611,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -19613,7 +19681,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -19641,7 +19709,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -19669,7 +19737,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -19697,7 +19765,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -19711,7 +19779,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -19725,7 +19793,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -19739,7 +19807,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -19753,7 +19821,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -19767,7 +19835,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -19781,7 +19849,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -19809,7 +19877,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -19865,7 +19933,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -19893,7 +19961,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -19921,7 +19989,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -19949,7 +20017,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -19963,7 +20031,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -19991,7 +20059,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -20005,7 +20073,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -20033,7 +20101,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -20066,7 +20134,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20088,16 +20156,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B2">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -20105,13 +20173,13 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -20119,46 +20187,46 @@
         <v>271</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -20172,10 +20240,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -20186,7 +20254,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -20200,38 +20268,38 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>972</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>970</v>
+        <v>260</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -20242,10 +20310,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -20256,10 +20324,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>260</v>
+        <v>973</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -20270,10 +20338,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>971</v>
+        <v>140</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -20284,7 +20352,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -20298,10 +20366,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -20312,7 +20380,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>976</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -20326,7 +20394,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -20340,7 +20408,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>974</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -20354,7 +20422,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -20377,6 +20445,34 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
@@ -20409,7 +20505,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="B2">
         <v>248</v>
@@ -20423,7 +20519,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -20437,7 +20533,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -20451,7 +20547,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -20465,7 +20561,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -20479,7 +20575,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -20493,7 +20589,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -20507,7 +20603,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -20521,7 +20617,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -20535,7 +20631,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -20563,7 +20659,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -20577,7 +20673,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -20605,7 +20701,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -20619,7 +20715,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -20633,7 +20729,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20647,7 +20743,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -20661,7 +20757,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -20675,7 +20771,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -20689,7 +20785,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -20703,7 +20799,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -20717,7 +20813,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -20731,7 +20827,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -20759,7 +20855,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20787,7 +20883,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -20829,7 +20925,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -20871,7 +20967,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -20912,7 +21008,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B2">
         <v>231</v>
@@ -20926,7 +21022,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B3">
         <v>231</v>
@@ -20967,7 +21063,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B2">
         <v>198</v>
@@ -20995,7 +21091,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -21023,7 +21119,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -21037,7 +21133,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -21051,7 +21147,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -21065,7 +21161,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -21121,7 +21217,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -21135,7 +21231,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -21205,7 +21301,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -21233,7 +21329,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -21247,7 +21343,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -21261,7 +21357,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -21275,7 +21371,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>740</v>
+        <v>905</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -21289,7 +21385,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -21317,7 +21413,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21345,7 +21441,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -21359,7 +21455,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21373,7 +21469,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21387,7 +21483,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -21415,7 +21511,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21457,7 +21553,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -21526,7 +21622,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B2">
         <v>179</v>
@@ -21568,7 +21664,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -21610,7 +21706,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -21638,7 +21734,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -21652,7 +21748,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -21666,7 +21762,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -21680,7 +21776,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -21694,7 +21790,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -21708,7 +21804,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -21722,7 +21818,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -21736,7 +21832,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -21750,7 +21846,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -21764,7 +21860,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -21778,7 +21874,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -21792,7 +21888,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -21806,7 +21902,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -21862,7 +21958,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -21876,7 +21972,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21918,7 +22014,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21932,7 +22028,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21946,7 +22042,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -21960,7 +22056,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -21974,7 +22070,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21988,7 +22084,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -22002,7 +22098,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -22030,7 +22126,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -22044,7 +22140,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -22085,7 +22181,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B2">
         <v>172</v>
@@ -22113,7 +22209,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B4">
         <v>34</v>
@@ -22127,7 +22223,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -22155,7 +22251,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -22169,7 +22265,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -22183,7 +22279,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -22197,7 +22293,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>740</v>
+        <v>905</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -22211,7 +22307,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -22323,7 +22419,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -22337,7 +22433,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -22351,7 +22447,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -22365,7 +22461,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -22379,7 +22475,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -22393,7 +22489,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -22407,7 +22503,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -22462,10 +22558,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -22476,7 +22572,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B3">
         <v>91</v>
@@ -22493,7 +22589,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22518,7 +22614,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -22587,7 +22683,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B2">
         <v>158</v>
@@ -22601,7 +22697,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -22615,7 +22711,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -22629,7 +22725,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -22643,7 +22739,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -22685,7 +22781,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -22699,7 +22795,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -22713,7 +22809,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -22769,7 +22865,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -22810,7 +22906,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="B2">
         <v>155</v>
@@ -22852,7 +22948,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -22866,7 +22962,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -22880,7 +22976,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -22908,7 +23004,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -22922,7 +23018,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -22936,7 +23032,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -23022,13 +23118,13 @@
         <v>123</v>
       </c>
       <c r="B2">
-        <v>2880</v>
+        <v>3055</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -23050,13 +23146,13 @@
         <v>125</v>
       </c>
       <c r="B4">
-        <v>634</v>
+        <v>778</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -23064,13 +23160,13 @@
         <v>126</v>
       </c>
       <c r="B5">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -23215,7 +23311,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -23522,35 +23618,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B2">
         <v>146</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B3">
         <v>66</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -23564,21 +23660,21 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -23592,7 +23688,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -23606,7 +23702,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -23634,7 +23730,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -23648,7 +23744,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -23662,7 +23758,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -23676,7 +23772,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -23690,7 +23786,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -23704,7 +23800,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -23718,7 +23814,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -23732,7 +23828,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -23746,7 +23842,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -23760,7 +23856,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -23801,7 +23897,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="B2">
         <v>137</v>
@@ -23815,7 +23911,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -23843,7 +23939,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -23857,7 +23953,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -23885,7 +23981,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -23899,7 +23995,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -23913,7 +24009,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -23968,7 +24064,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B2">
         <v>130</v>
@@ -23982,7 +24078,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="B3">
         <v>86</v>
@@ -24051,7 +24147,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="B2">
         <v>113</v>
@@ -24065,7 +24161,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -24079,7 +24175,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -24093,7 +24189,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -24107,7 +24203,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -24135,7 +24231,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24149,7 +24245,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -24163,7 +24259,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -24177,7 +24273,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24191,7 +24287,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -24205,7 +24301,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24219,7 +24315,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24233,7 +24329,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24247,7 +24343,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24261,7 +24357,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -24302,7 +24398,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B2">
         <v>95</v>
@@ -24316,7 +24412,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="B3">
         <v>58</v>
@@ -24344,7 +24440,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -24358,7 +24454,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -24372,7 +24468,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -24413,7 +24509,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -24441,7 +24537,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -24525,7 +24621,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24539,7 +24635,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24567,7 +24663,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24581,7 +24677,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24636,7 +24732,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -24650,7 +24746,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -24664,7 +24760,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -24678,7 +24774,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -24692,7 +24788,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -24706,7 +24802,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -24720,7 +24816,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24734,7 +24830,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -24748,7 +24844,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24776,7 +24872,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -24790,7 +24886,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24804,7 +24900,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24818,7 +24914,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24832,7 +24928,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24887,7 +24983,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -24901,7 +24997,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -24942,7 +25038,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="B2">
         <v>59</v>
@@ -24956,7 +25052,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -24970,7 +25066,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -24984,7 +25080,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -24998,7 +25094,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -25012,7 +25108,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -25026,7 +25122,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -25040,7 +25136,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -25054,7 +25150,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25068,7 +25164,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25120,7 +25216,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="B2">
         <v>53</v>
@@ -25134,7 +25230,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -25148,7 +25244,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -25162,7 +25258,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -25176,7 +25272,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -25190,7 +25286,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -25204,7 +25300,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -25218,7 +25314,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -25246,7 +25342,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25260,7 +25356,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -25441,7 +25537,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -25553,7 +25649,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -26126,7 +26222,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -26140,7 +26236,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -26154,7 +26250,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -26182,7 +26278,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -26196,7 +26292,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -26210,7 +26306,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -26238,7 +26334,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26252,7 +26348,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26266,7 +26362,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26294,7 +26390,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26335,7 +26431,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -26349,7 +26445,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -26363,7 +26459,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -26391,7 +26487,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -26405,7 +26501,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -26433,7 +26529,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -26475,7 +26571,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -26489,7 +26585,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -26503,7 +26599,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -26517,7 +26613,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -26531,7 +26627,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26573,7 +26669,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -26614,7 +26710,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -26711,7 +26807,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B2">
         <v>46</v>
@@ -26725,7 +26821,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -26739,7 +26835,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -26753,7 +26849,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -26767,7 +26863,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -26809,7 +26905,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -26823,7 +26919,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26837,7 +26933,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -26851,7 +26947,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26865,7 +26961,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -26879,7 +26975,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -26893,7 +26989,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -26907,7 +27003,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26948,7 +27044,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -26962,7 +27058,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -27003,7 +27099,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -27059,7 +27155,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -27097,7 +27193,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="B2">
         <v>17</v>
@@ -27152,7 +27248,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -27238,7 +27334,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -27322,13 +27418,13 @@
         <v>211</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -27339,10 +27435,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -27641,7 +27737,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -28688,7 +28784,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>458</v>
@@ -28954,7 +29050,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>11</v>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Washington" sheetId="4" r:id="rId4"/>
     <sheet name="Michigan" sheetId="5" r:id="rId5"/>
     <sheet name="Illinois" sheetId="6" r:id="rId6"/>
-    <sheet name="Massachusetts" sheetId="7" r:id="rId7"/>
-    <sheet name="Florida" sheetId="8" r:id="rId8"/>
+    <sheet name="Florida" sheetId="7" r:id="rId7"/>
+    <sheet name="Massachusetts" sheetId="8" r:id="rId8"/>
     <sheet name="Louisiana" sheetId="9" r:id="rId9"/>
     <sheet name="Pennsylvania" sheetId="10" r:id="rId10"/>
     <sheet name="Georgia" sheetId="11" r:id="rId11"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1177">
   <si>
     <t>confirmed</t>
   </si>
@@ -357,30 +357,30 @@
     <t>Sonoma</t>
   </si>
   <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
     <t>Solano</t>
   </si>
   <si>
     <t>Placer</t>
   </si>
   <si>
-    <t>Kern</t>
-  </si>
-  <si>
     <t>Santa Barbara</t>
   </si>
   <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
     <t>Monterey</t>
   </si>
   <si>
+    <t>Tulare</t>
+  </si>
+  <si>
     <t>Fresno</t>
   </si>
   <si>
-    <t>Tulare</t>
-  </si>
-  <si>
     <t>Stanislaus</t>
   </si>
   <si>
@@ -759,6 +759,123 @@
     <t>Logan</t>
   </si>
   <si>
+    <t>Florida (State-level)</t>
+  </si>
+  <si>
+    <t>Miami-Dade</t>
+  </si>
+  <si>
+    <t>Broward</t>
+  </si>
+  <si>
+    <t>Palm Beach</t>
+  </si>
+  <si>
+    <t>Hillsborough</t>
+  </si>
+  <si>
+    <t>Duval</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Pinellas</t>
+  </si>
+  <si>
+    <t>Alachua</t>
+  </si>
+  <si>
+    <t>Osceola</t>
+  </si>
+  <si>
+    <t>Seminole</t>
+  </si>
+  <si>
+    <t>St. Johns</t>
+  </si>
+  <si>
+    <t>Volusia</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>Manatee</t>
+  </si>
+  <si>
+    <t>Sumter</t>
+  </si>
+  <si>
+    <t>Okaloosa</t>
+  </si>
+  <si>
+    <t>Pasco</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Escambia</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>Brevard</t>
+  </si>
+  <si>
+    <t>Indian River</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Citrus</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>St. Lucie</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>Flagler</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Highlands</t>
+  </si>
+  <si>
+    <t>Desoto</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Gadsden</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
     <t>Massachusetts (State-level)</t>
   </si>
   <si>
@@ -789,123 +906,6 @@
     <t>Dukes and Nantucket</t>
   </si>
   <si>
-    <t>Florida (State-level)</t>
-  </si>
-  <si>
-    <t>Miami-Dade</t>
-  </si>
-  <si>
-    <t>Broward</t>
-  </si>
-  <si>
-    <t>Palm Beach</t>
-  </si>
-  <si>
-    <t>Hillsborough</t>
-  </si>
-  <si>
-    <t>Duval</t>
-  </si>
-  <si>
-    <t>Collier</t>
-  </si>
-  <si>
-    <t>Pinellas</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Alachua</t>
-  </si>
-  <si>
-    <t>Osceola</t>
-  </si>
-  <si>
-    <t>Seminole</t>
-  </si>
-  <si>
-    <t>Sarasota</t>
-  </si>
-  <si>
-    <t>St. Johns</t>
-  </si>
-  <si>
-    <t>Volusia</t>
-  </si>
-  <si>
-    <t>Manatee</t>
-  </si>
-  <si>
-    <t>Sumter</t>
-  </si>
-  <si>
-    <t>Okaloosa</t>
-  </si>
-  <si>
-    <t>Pasco</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>Escambia</t>
-  </si>
-  <si>
-    <t>Polk</t>
-  </si>
-  <si>
-    <t>Brevard</t>
-  </si>
-  <si>
-    <t>Walton</t>
-  </si>
-  <si>
-    <t>Indian River</t>
-  </si>
-  <si>
-    <t>Citrus</t>
-  </si>
-  <si>
-    <t>St. Lucie</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>Hernando</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Flagler</t>
-  </si>
-  <si>
-    <t>Marion</t>
-  </si>
-  <si>
-    <t>Baker</t>
-  </si>
-  <si>
-    <t>Highlands</t>
-  </si>
-  <si>
-    <t>Desoto</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Gadsden</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
     <t>Louisiana (State-level)</t>
   </si>
   <si>
@@ -1152,6 +1152,9 @@
     <t>Dougherty</t>
   </si>
   <si>
+    <t>Dekalb</t>
+  </si>
+  <si>
     <t>Cobb</t>
   </si>
   <si>
@@ -1197,15 +1200,15 @@
     <t>Newton</t>
   </si>
   <si>
+    <t>Richmond</t>
+  </si>
+  <si>
     <t>Spalding</t>
   </si>
   <si>
     <t>Troup</t>
   </si>
   <si>
-    <t>Richmond</t>
-  </si>
-  <si>
     <t>Mitchell</t>
   </si>
   <si>
@@ -1218,6 +1221,9 @@
     <t>Chatham</t>
   </si>
   <si>
+    <t>Laurens</t>
+  </si>
+  <si>
     <t>Bibb</t>
   </si>
   <si>
@@ -1230,7 +1236,7 @@
     <t>Early</t>
   </si>
   <si>
-    <t>Laurens</t>
+    <t>Tift</t>
   </si>
   <si>
     <t>Whitfield</t>
@@ -1239,24 +1245,21 @@
     <t>Glynn</t>
   </si>
   <si>
+    <t>Muscogee</t>
+  </si>
+  <si>
+    <t>Worth</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
     <t>Peach</t>
   </si>
   <si>
-    <t>Muscogee</t>
-  </si>
-  <si>
-    <t>Tift</t>
-  </si>
-  <si>
-    <t>Worth</t>
-  </si>
-  <si>
     <t>Terrell</t>
   </si>
   <si>
-    <t>Barrow</t>
-  </si>
-  <si>
     <t>Pickens</t>
   </si>
   <si>
@@ -1272,22 +1275,34 @@
     <t>Effingham</t>
   </si>
   <si>
+    <t>Lamar</t>
+  </si>
+  <si>
+    <t>Butts</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Irwin</t>
+  </si>
+  <si>
+    <t>Meriwether</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t>Dawson</t>
   </si>
   <si>
-    <t>Lamar</t>
-  </si>
-  <si>
-    <t>Butts</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Miller</t>
+    <t>Randolph</t>
   </si>
   <si>
     <t>Baldwin</t>
@@ -1302,9 +1317,6 @@
     <t>Tattnall</t>
   </si>
   <si>
-    <t>Irwin</t>
-  </si>
-  <si>
     <t>Jasper</t>
   </si>
   <si>
@@ -1317,9 +1329,6 @@
     <t>Heard</t>
   </si>
   <si>
-    <t>Randolph</t>
-  </si>
-  <si>
     <t>Clinch</t>
   </si>
   <si>
@@ -1338,18 +1347,12 @@
     <t>Harris</t>
   </si>
   <si>
-    <t>Burke</t>
-  </si>
-  <si>
     <t>Ben Hill</t>
   </si>
   <si>
     <t>Macon</t>
   </si>
   <si>
-    <t>Meriwether</t>
-  </si>
-  <si>
     <t>Pulaski</t>
   </si>
   <si>
@@ -1798,9 +1801,6 @@
   </si>
   <si>
     <t>Gibson</t>
-  </si>
-  <si>
-    <t>Dekalb</t>
   </si>
   <si>
     <t>Cocke</t>
@@ -3983,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>37886</v>
+        <v>39125</v>
       </c>
       <c r="C2">
         <v>385</v>
@@ -3997,13 +3997,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>21873</v>
+        <v>23112</v>
       </c>
       <c r="C3">
         <v>281</v>
       </c>
       <c r="D3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5250,7 +5250,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -5490,13 +5490,13 @@
         <v>358</v>
       </c>
       <c r="B2">
-        <v>1598</v>
+        <v>1638</v>
       </c>
       <c r="C2">
         <v>56</v>
       </c>
       <c r="D2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5518,13 +5518,13 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4">
-        <v>24.1</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5543,10 +5543,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>223</v>
+        <v>360</v>
       </c>
       <c r="B6">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B7">
         <v>119</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B8">
         <v>93</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B9">
         <v>79</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B10">
         <v>52</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B11">
         <v>44</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B12">
         <v>37</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B13">
         <v>29</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B14">
         <v>29</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B15">
         <v>29</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B16">
         <v>22</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -5823,10 +5823,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>376</v>
+        <v>250</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -5949,10 +5949,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -5977,38 +5977,38 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -6019,10 +6019,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>388</v>
+        <v>245</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>389</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         <v>390</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>391</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>392</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>255</v>
+        <v>393</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -6117,10 +6117,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>401</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -6313,10 +6313,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>250</v>
+        <v>414</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -6453,10 +6453,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>413</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6481,10 +6481,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>415</v>
+        <v>240</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>416</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6509,10 +6509,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>126</v>
+        <v>420</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>422</v>
+        <v>126</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>161</v>
+        <v>430</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B2">
         <v>1563</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B3">
         <v>303</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B4">
         <v>203</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B5">
         <v>119</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B7">
         <v>86</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B8">
         <v>84</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9">
         <v>83</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B10">
         <v>66</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B13">
         <v>39</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B15">
         <v>28</v>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B16">
         <v>28</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B17">
         <v>27</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -7348,7 +7348,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -7572,7 +7572,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -7754,7 +7754,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7866,7 +7866,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8020,7 +8020,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8160,7 +8160,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B2">
         <v>1430</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B3">
         <v>262</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B4">
         <v>147</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B5">
         <v>137</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B7">
         <v>119</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B8">
         <v>107</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B11">
         <v>66</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B12">
         <v>61</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B13">
         <v>57</v>
@@ -8523,7 +8523,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B2">
         <v>1099</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B3">
         <v>293</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B4">
         <v>198</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B5">
         <v>117</v>
@@ -9012,7 +9012,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B8">
         <v>43</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B11">
         <v>26</v>
@@ -9082,7 +9082,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -9250,7 +9250,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -9348,7 +9348,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>576</v>
+        <v>360</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -9628,7 +9628,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B10">
         <v>24</v>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -10508,7 +10508,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B9">
         <v>17</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -11725,7 +11725,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -12032,7 +12032,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -12088,7 +12088,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B3">
         <v>293</v>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B5">
         <v>36</v>
@@ -12451,7 +12451,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -12535,7 +12535,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -12591,7 +12591,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -12787,7 +12787,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -12843,7 +12843,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -12857,7 +12857,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -14114,7 +14114,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -14184,7 +14184,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -14212,7 +14212,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -14310,7 +14310,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -14422,7 +14422,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -14464,7 +14464,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -14631,7 +14631,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B4">
         <v>52</v>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B5">
         <v>47</v>
@@ -14715,7 +14715,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B10">
         <v>17</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -14785,7 +14785,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -14799,7 +14799,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -14953,7 +14953,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -15037,7 +15037,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -15121,7 +15121,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -15428,7 +15428,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -15456,7 +15456,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -15592,7 +15592,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -15690,7 +15690,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -15816,7 +15816,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -16306,7 +16306,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -16320,7 +16320,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -16348,7 +16348,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -16390,7 +16390,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -17005,7 +17005,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -17561,7 +17561,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -17743,7 +17743,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -17785,7 +17785,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -17939,7 +17939,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -18189,7 +18189,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B4">
         <v>95</v>
@@ -18426,7 +18426,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -18552,7 +18552,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -18594,7 +18594,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -18904,7 +18904,7 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>3909</v>
+        <v>3929</v>
       </c>
       <c r="C2">
         <v>81</v>
@@ -19128,13 +19128,13 @@
         <v>94</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -19142,7 +19142,7 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -19156,13 +19156,13 @@
         <v>96</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -19170,7 +19170,7 @@
         <v>97</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -19184,13 +19184,13 @@
         <v>98</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -19198,7 +19198,7 @@
         <v>99</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -19226,7 +19226,7 @@
         <v>101</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -19240,7 +19240,7 @@
         <v>102</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -19572,7 +19572,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B3">
         <v>83</v>
@@ -19754,7 +19754,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -19894,7 +19894,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -19936,7 +19936,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -20006,7 +20006,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -20146,7 +20146,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -20215,7 +20215,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -20313,7 +20313,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -20606,7 +20606,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -20648,7 +20648,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -20718,7 +20718,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -20760,7 +20760,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20872,7 +20872,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -20900,7 +20900,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -20970,7 +20970,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -21459,7 +21459,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -21501,7 +21501,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21667,7 +21667,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B3">
         <v>49</v>
@@ -21681,7 +21681,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -21723,7 +21723,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -21863,7 +21863,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -21975,7 +21975,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -22031,7 +22031,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -22143,7 +22143,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -22226,7 +22226,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B3">
         <v>59</v>
@@ -22380,7 +22380,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -22408,7 +22408,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -22548,7 +22548,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -22673,7 +22673,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -23077,7 +23077,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -23873,7 +23873,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -23970,7 +23970,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -24012,7 +24012,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -24346,7 +24346,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24903,7 +24903,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -25289,7 +25289,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -25373,7 +25373,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -25387,7 +25387,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -25429,7 +25429,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -26560,7 +26560,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -26714,7 +26714,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -26936,7 +26936,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -27186,7 +27186,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -27393,7 +27393,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>668</v>
+        <v>614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -27407,7 +27407,7 @@
         <v>206</v>
       </c>
       <c r="B5">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -27463,13 +27463,13 @@
         <v>210</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -27870,6 +27870,705 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2">
+        <v>2484</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3">
+        <v>654</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4">
+        <v>505</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5">
+        <v>174</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -27893,7 +28592,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>2417</v>
@@ -27935,7 +28634,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="B5">
         <v>292</v>
@@ -27977,7 +28676,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B8">
         <v>166</v>
@@ -27991,7 +28690,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B9">
         <v>138</v>
@@ -28005,7 +28704,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="B10">
         <v>90</v>
@@ -28019,7 +28718,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="B11">
         <v>73</v>
@@ -28033,7 +28732,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="B12">
         <v>67</v>
@@ -28047,7 +28746,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="B13">
         <v>55</v>
@@ -28061,7 +28760,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -28089,7 +28788,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -28098,691 +28797,6 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2">
-        <v>2357</v>
-      </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3">
-        <v>616</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4">
-        <v>504</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5">
-        <v>169</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6">
-        <v>142</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>110</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18">
-        <v>26</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B20">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B28">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B31">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B33">
-        <v>9</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
         <v>0</v>
       </c>
     </row>

--- a/covid_19_by_county.xlsx
+++ b/covid_19_by_county.xlsx
@@ -45,9 +45,9 @@
     <sheet name="Iowa" sheetId="36" r:id="rId36"/>
     <sheet name="Kansas" sheetId="37" r:id="rId37"/>
     <sheet name="Rhode Island" sheetId="38" r:id="rId38"/>
-    <sheet name="Vermont" sheetId="39" r:id="rId39"/>
-    <sheet name="Maine" sheetId="40" r:id="rId40"/>
-    <sheet name="New Hampshire" sheetId="41" r:id="rId41"/>
+    <sheet name="New Hampshire" sheetId="39" r:id="rId39"/>
+    <sheet name="Vermont" sheetId="40" r:id="rId40"/>
+    <sheet name="Maine" sheetId="41" r:id="rId41"/>
     <sheet name="Delaware" sheetId="42" r:id="rId42"/>
     <sheet name="New Mexico" sheetId="43" r:id="rId43"/>
     <sheet name="Hawaii" sheetId="44" r:id="rId44"/>
@@ -58,9 +58,9 @@
     <sheet name="Alaska" sheetId="49" r:id="rId49"/>
     <sheet name="North Dakota" sheetId="50" r:id="rId50"/>
     <sheet name="Wyoming" sheetId="51" r:id="rId51"/>
-    <sheet name="Diamond Princess" sheetId="52" r:id="rId52"/>
-    <sheet name="South Dakota" sheetId="53" r:id="rId53"/>
-    <sheet name="Guam" sheetId="54" r:id="rId54"/>
+    <sheet name="Guam" sheetId="52" r:id="rId52"/>
+    <sheet name="Diamond Princess" sheetId="53" r:id="rId53"/>
+    <sheet name="South Dakota" sheetId="54" r:id="rId54"/>
     <sheet name="Grand Princess" sheetId="55" r:id="rId55"/>
     <sheet name="US Virgin Islands" sheetId="56" r:id="rId56"/>
     <sheet name="Wuhan Evacuee" sheetId="57" r:id="rId57"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1185">
   <si>
     <t>confirmed</t>
   </si>
@@ -3282,6 +3282,24 @@
     <t>Newport</t>
   </si>
   <si>
+    <t>New Hampshire (State-level)</t>
+  </si>
+  <si>
+    <t>Grafton</t>
+  </si>
+  <si>
+    <t>Belknap</t>
+  </si>
+  <si>
+    <t>Merrimack</t>
+  </si>
+  <si>
+    <t>Strafford</t>
+  </si>
+  <si>
+    <t>Cheshire</t>
+  </si>
+  <si>
     <t>Vermont (State-level)</t>
   </si>
   <si>
@@ -3327,24 +3345,6 @@
     <t>Waldo</t>
   </si>
   <si>
-    <t>New Hampshire (State-level)</t>
-  </si>
-  <si>
-    <t>Grafton</t>
-  </si>
-  <si>
-    <t>Belknap</t>
-  </si>
-  <si>
-    <t>Merrimack</t>
-  </si>
-  <si>
-    <t>Strafford</t>
-  </si>
-  <si>
-    <t>Cheshire</t>
-  </si>
-  <si>
     <t>Delaware (State-level)</t>
   </si>
   <si>
@@ -3567,6 +3567,12 @@
     <t>Hot Springs</t>
   </si>
   <si>
+    <t>Guam (State-level)</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
     <t>Diamond Princess (State-level)</t>
   </si>
   <si>
@@ -3607,12 +3613,6 @@
   </si>
   <si>
     <t>Meade</t>
-  </si>
-  <si>
-    <t>Guam (State-level)</t>
-  </si>
-  <si>
-    <t>Guam</t>
   </si>
   <si>
     <t>Grand Princess (State-level)</t>
@@ -8469,10 +8469,10 @@
         <v>1430</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8567,10 +8567,10 @@
         <v>102</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -23163,7 +23163,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23191,46 +23191,46 @@
         <v>158</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1071</v>
+        <v>858</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1072</v>
+        <v>236</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -23241,10 +23241,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -23255,21 +23255,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>457</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>1073</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -23283,7 +23283,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>595</v>
+        <v>1074</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -23297,10 +23297,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1075</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -23311,10 +23311,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -23325,57 +23325,15 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
         <v>0</v>
       </c>
     </row>
@@ -23903,6 +23861,229 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B2">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23925,7 +24106,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="B2">
         <v>155</v>
@@ -23967,7 +24148,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -23981,7 +24162,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -23995,7 +24176,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -24023,7 +24204,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -24037,7 +24218,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -24051,7 +24232,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24110,9 +24291,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24134,183 +24315,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B2">
-        <v>154</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B3">
-        <v>67</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="B2">
         <v>143</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -24353,6 +24367,17 @@
       </c>
       <c r="D5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -25624,13 +25649,13 @@
         <v>1142</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -25638,7 +25663,7 @@
         <v>1143</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -27006,6 +27031,61 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27028,7 +27108,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -27101,7 +27181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -27125,7 +27205,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B2">
         <v>46</v>
@@ -27139,7 +27219,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -27153,7 +27233,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -27167,7 +27247,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -27181,7 +27261,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -27223,7 +27303,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -27237,7 +27317,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -27251,7 +27331,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -27265,7 +27345,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -27279,7 +27359,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -27293,7 +27373,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -27307,7 +27387,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -27321,7 +27401,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -27331,61 +27411,6 @@
       </c>
       <c r="D16">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2.2</v>
       </c>
     </row>
   </sheetData>
